--- a/dmsan/comparison/results/baseline_performance.xlsx
+++ b/dmsan/comparison/results/baseline_performance.xlsx
@@ -482,19 +482,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -585,16 +585,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -622,19 +622,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -685,16 +685,16 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -742,19 +742,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -788,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -825,16 +825,16 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -845,16 +845,16 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -862,19 +862,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -888,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -914,7 +914,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -934,7 +934,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -948,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -982,16 +982,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
@@ -1068,10 +1068,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
@@ -1088,10 +1088,10 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
@@ -1122,19 +1122,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1142,19 +1142,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1165,16 +1165,16 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1182,19 +1182,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1322,19 +1322,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1368,13 +1368,13 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1402,19 +1402,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1428,7 +1428,7 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -1498,22 +1498,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5823957936836517</v>
+        <v>0.6311366158261857</v>
       </c>
       <c r="C3">
-        <v>0.6819028468922749</v>
+        <v>0.6691233962451408</v>
       </c>
       <c r="D3">
-        <v>0.1918449321151569</v>
+        <v>0.1576369280705874</v>
       </c>
       <c r="E3">
-        <v>0.1918449321151569</v>
+        <v>0.1576369280705874</v>
       </c>
       <c r="F3">
-        <v>0.4712261991549769</v>
+        <v>0.4432576528808844</v>
       </c>
       <c r="G3">
-        <v>0.4712261991549769</v>
+        <v>0.4432576528808844</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1521,22 +1521,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7166857751356425</v>
+        <v>0.8472878867153144</v>
       </c>
       <c r="C4">
-        <v>0.657603604234526</v>
+        <v>0.850979426456252</v>
       </c>
       <c r="D4">
-        <v>0.2262314727658371</v>
+        <v>0.2977165729428822</v>
       </c>
       <c r="E4">
-        <v>0.2058034984448926</v>
+        <v>0.2695308602202488</v>
       </c>
       <c r="F4">
-        <v>0.6190937277345167</v>
+        <v>0.3540285180706567</v>
       </c>
       <c r="G4">
-        <v>0.6958955092487796</v>
+        <v>0.5109739990089083</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1547,19 +1547,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.946717223420101</v>
+        <v>0.9475065789209375</v>
       </c>
       <c r="D5">
-        <v>0.009530070313981712</v>
+        <v>0.02420334632538573</v>
       </c>
       <c r="E5">
+        <v>0.01481445884586873</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0.616581156202843</v>
-      </c>
       <c r="G5">
-        <v>0.6580554626874704</v>
+        <v>0.04085988707805049</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1590,22 +1590,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8145445990134579</v>
+        <v>0.860855833204056</v>
       </c>
       <c r="C7">
-        <v>0.7818341137386076</v>
+        <v>0.8574475667233504</v>
       </c>
       <c r="D7">
-        <v>0.1523062128820645</v>
+        <v>0.1957342579158136</v>
       </c>
       <c r="E7">
-        <v>0.1423705942403664</v>
+        <v>0.1828466988099479</v>
       </c>
       <c r="F7">
-        <v>0.5864992958135766</v>
+        <v>0.2356955842310177</v>
       </c>
       <c r="G7">
-        <v>0.638260213701573</v>
+        <v>0.3247679930600877</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1613,22 +1613,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5865312479020784</v>
+        <v>0.6211666803687429</v>
       </c>
       <c r="C8">
-        <v>0.659608913618595</v>
+        <v>0.6492860562122675</v>
       </c>
       <c r="D8">
-        <v>0.2977175008954706</v>
+        <v>0.2890731654950394</v>
       </c>
       <c r="E8">
-        <v>0.2959761182664028</v>
+        <v>0.2871747637626996</v>
       </c>
       <c r="F8">
-        <v>0.443187089787631</v>
+        <v>0.4184051596959323</v>
       </c>
       <c r="G8">
-        <v>0.444114440867123</v>
+        <v>0.4194446583666738</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1636,22 +1636,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6940717778033993</v>
+        <v>0.7896203971882076</v>
       </c>
       <c r="C9">
-        <v>0.6579094531616929</v>
+        <v>0.792389260557997</v>
       </c>
       <c r="D9">
-        <v>0.2355211033814438</v>
+        <v>0.2963077028853768</v>
       </c>
       <c r="E9">
-        <v>0.2173626799388888</v>
+        <v>0.2722985689095056</v>
       </c>
       <c r="F9">
-        <v>0.5931526517499963</v>
+        <v>0.3684889460830501</v>
       </c>
       <c r="G9">
-        <v>0.6598586393448782</v>
+        <v>0.494106693757826</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1659,22 +1659,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8116675974544497</v>
+        <v>0.8576202682739645</v>
       </c>
       <c r="C10">
-        <v>0.7782901608609287</v>
+        <v>0.8538463125660576</v>
       </c>
       <c r="D10">
-        <v>0.1545585853471467</v>
+        <v>0.2004463245606953</v>
       </c>
       <c r="E10">
-        <v>0.144404305857741</v>
+        <v>0.1870714816229954</v>
       </c>
       <c r="F10">
-        <v>0.6043365159451114</v>
+        <v>0.2409147977756103</v>
       </c>
       <c r="G10">
-        <v>0.6590531610330489</v>
+        <v>0.3321902643817884</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1682,22 +1682,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7104152617696983</v>
+        <v>0.8221907560029876</v>
       </c>
       <c r="C11">
-        <v>0.6549047345899612</v>
+        <v>0.8227734581712109</v>
       </c>
       <c r="D11">
-        <v>0.238942056609427</v>
+        <v>0.3097098254126089</v>
       </c>
       <c r="E11">
-        <v>0.219303524628492</v>
+        <v>0.2826863614148484</v>
       </c>
       <c r="F11">
-        <v>0.609179060585197</v>
+        <v>0.3520607238346614</v>
       </c>
       <c r="G11">
-        <v>0.6834727084182041</v>
+        <v>0.5027291926443069</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1705,22 +1705,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9323454680396388</v>
+        <v>0.9142723605108745</v>
       </c>
       <c r="C12">
-        <v>0.9133806344534029</v>
+        <v>0.8984528744095701</v>
       </c>
       <c r="D12">
-        <v>0.07792446927195167</v>
+        <v>0.101523752853529</v>
       </c>
       <c r="E12">
-        <v>0.07609109200872025</v>
+        <v>0.09844273882912839</v>
       </c>
       <c r="F12">
-        <v>0.6075518826468995</v>
+        <v>0.06275214889583162</v>
       </c>
       <c r="G12">
-        <v>0.6471845282044453</v>
+        <v>0.07658988784544189</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1751,22 +1751,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6940717778033993</v>
+        <v>0.7896203971882076</v>
       </c>
       <c r="C14">
-        <v>0.6579094531616929</v>
+        <v>0.792389260557997</v>
       </c>
       <c r="D14">
-        <v>0.2355211033814438</v>
+        <v>0.2963077028853768</v>
       </c>
       <c r="E14">
-        <v>0.2173626799388888</v>
+        <v>0.2722985689095056</v>
       </c>
       <c r="F14">
-        <v>0.5931526517499963</v>
+        <v>0.3684889460830501</v>
       </c>
       <c r="G14">
-        <v>0.6598586393448782</v>
+        <v>0.494106693757826</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1774,22 +1774,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8116675974544497</v>
+        <v>0.8576202682739645</v>
       </c>
       <c r="C15">
-        <v>0.7782901608609287</v>
+        <v>0.8538463125660576</v>
       </c>
       <c r="D15">
-        <v>0.1545585853471467</v>
+        <v>0.2004463245606953</v>
       </c>
       <c r="E15">
-        <v>0.144404305857741</v>
+        <v>0.1870714816229954</v>
       </c>
       <c r="F15">
-        <v>0.6043365159451114</v>
+        <v>0.2409147977756103</v>
       </c>
       <c r="G15">
-        <v>0.6590531610330489</v>
+        <v>0.3321902643817884</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1797,22 +1797,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8305068148522301</v>
+        <v>0.8868083337535929</v>
       </c>
       <c r="C16">
-        <v>0.7873550092934053</v>
+        <v>0.8815822746729207</v>
       </c>
       <c r="D16">
-        <v>0.1508367124504904</v>
+        <v>0.1973414560308743</v>
       </c>
       <c r="E16">
-        <v>0.1405076647524386</v>
+        <v>0.1839077149954141</v>
       </c>
       <c r="F16">
-        <v>0.5933716991830823</v>
+        <v>0.2141593403422579</v>
       </c>
       <c r="G16">
-        <v>0.6480386871044277</v>
+        <v>0.3160666647308254</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1820,22 +1820,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7247076254761944</v>
+        <v>0.832433923319177</v>
       </c>
       <c r="C17">
-        <v>0.6719074062072535</v>
+        <v>0.8338798547413853</v>
       </c>
       <c r="D17">
-        <v>0.2295888043489245</v>
+        <v>0.2903251630117095</v>
       </c>
       <c r="E17">
-        <v>0.211332695195801</v>
+        <v>0.2666174310566214</v>
       </c>
       <c r="F17">
-        <v>0.5723212742829246</v>
+        <v>0.3281785573578546</v>
       </c>
       <c r="G17">
-        <v>0.6401412894319715</v>
+        <v>0.4669938683618057</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1843,22 +1843,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.81947632726325</v>
+        <v>0.8729816181517879</v>
       </c>
       <c r="C18">
-        <v>0.7855872624508397</v>
+        <v>0.8701591184716454</v>
       </c>
       <c r="D18">
-        <v>0.1432601297510682</v>
+        <v>0.1858560553774352</v>
       </c>
       <c r="E18">
-        <v>0.1329041158355009</v>
+        <v>0.1724342866638559</v>
       </c>
       <c r="F18">
-        <v>0.5902151584332962</v>
+        <v>0.2340677842954903</v>
       </c>
       <c r="G18">
-        <v>0.6426653435833256</v>
+        <v>0.3248069898754589</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1866,22 +1866,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.836540763239856</v>
+        <v>0.9048344929218816</v>
       </c>
       <c r="C19">
-        <v>0.7914887023151705</v>
+        <v>0.9001655625982981</v>
       </c>
       <c r="D19">
-        <v>0.1413437660423769</v>
+        <v>0.187107675283047</v>
       </c>
       <c r="E19">
-        <v>0.1305320925632117</v>
+        <v>0.1730924983817636</v>
       </c>
       <c r="F19">
-        <v>0.5974583433452386</v>
+        <v>0.2117708996318773</v>
       </c>
       <c r="G19">
-        <v>0.6529509813467894</v>
+        <v>0.3159573816107879</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1892,19 +1892,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.9481577507303549</v>
+        <v>0.9498286407585612</v>
       </c>
       <c r="D20">
-        <v>0.009283210299216972</v>
+        <v>0.02316108012076408</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.01418207241772959</v>
       </c>
       <c r="F20">
-        <v>0.580149022675574</v>
+        <v>0.01792475887834732</v>
       </c>
       <c r="G20">
-        <v>0.6154552486138717</v>
+        <v>0.04297215695957723</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1912,22 +1912,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7125570270437287</v>
+        <v>0.8154622665917395</v>
       </c>
       <c r="C21">
-        <v>0.675846692432118</v>
+        <v>0.8202150396898332</v>
       </c>
       <c r="D21">
-        <v>0.2152840153116537</v>
+        <v>0.2682958953762118</v>
       </c>
       <c r="E21">
-        <v>0.1976562499665895</v>
+        <v>0.2459694092956433</v>
       </c>
       <c r="F21">
-        <v>0.5681486909958858</v>
+        <v>0.3481811697377395</v>
       </c>
       <c r="G21">
-        <v>0.6314339753468539</v>
+        <v>0.4686564009908109</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1935,22 +1935,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6986148754481517</v>
+        <v>0.8049786701920566</v>
       </c>
       <c r="C22">
-        <v>0.6604225799710025</v>
+        <v>0.809325638279615</v>
       </c>
       <c r="D22">
-        <v>0.2235833609254436</v>
+        <v>0.2846486380616266</v>
       </c>
       <c r="E22">
-        <v>0.204751865982043</v>
+        <v>0.2596670485509918</v>
       </c>
       <c r="F22">
-        <v>0.6011612804661307</v>
+        <v>0.3708077539485202</v>
       </c>
       <c r="G22">
-        <v>0.6695249841663365</v>
+        <v>0.5007104674226419</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1958,22 +1958,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7312328643800139</v>
+        <v>0.8566268911136325</v>
       </c>
       <c r="C23">
-        <v>0.6751224888714282</v>
+        <v>0.8609531268342111</v>
       </c>
       <c r="D23">
-        <v>0.2171081223008772</v>
+        <v>0.2783077652999504</v>
       </c>
       <c r="E23">
-        <v>0.1981009722537858</v>
+        <v>0.2536004633219189</v>
       </c>
       <c r="F23">
-        <v>0.5795013982794656</v>
+        <v>0.3287596801881659</v>
       </c>
       <c r="G23">
-        <v>0.6487717997062855</v>
+        <v>0.4725161064253275</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1981,22 +1981,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8338533673524715</v>
+        <v>0.9024002512482031</v>
       </c>
       <c r="C24">
-        <v>0.7879006665237596</v>
+        <v>0.8973537092128379</v>
       </c>
       <c r="D24">
-        <v>0.1435377768107257</v>
+        <v>0.1919410468026785</v>
       </c>
       <c r="E24">
-        <v>0.1324879262524829</v>
+        <v>0.1773753143231314</v>
       </c>
       <c r="F24">
-        <v>0.617783350543607</v>
+        <v>0.2168121632012132</v>
       </c>
       <c r="G24">
-        <v>0.6771874645388545</v>
+        <v>0.3237361127487127</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2004,22 +2004,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8919052819384944</v>
+        <v>0.8889853873731571</v>
       </c>
       <c r="C25">
-        <v>0.8987935011889876</v>
+        <v>0.8811516038675959</v>
       </c>
       <c r="D25">
-        <v>0.04749603285447273</v>
+        <v>0.05082822174220981</v>
       </c>
       <c r="E25">
-        <v>0.04633806417018354</v>
+        <v>0.04760438046995741</v>
       </c>
       <c r="F25">
-        <v>0.5694606038769167</v>
+        <v>0.1505624237370087</v>
       </c>
       <c r="G25">
-        <v>0.6010848847223083</v>
+        <v>0.1582611623913207</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2027,22 +2027,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.8894474930057157</v>
+        <v>0.8848768986198</v>
       </c>
       <c r="C26">
-        <v>0.8962564858991042</v>
+        <v>0.8764103858475736</v>
       </c>
       <c r="D26">
-        <v>0.04865543452688995</v>
+        <v>0.05289006794390728</v>
       </c>
       <c r="E26">
-        <v>0.04745034643730661</v>
+        <v>0.04950890039367351</v>
       </c>
       <c r="F26">
-        <v>0.6002504507345756</v>
+        <v>0.1550798732193444</v>
       </c>
       <c r="G26">
-        <v>0.6361880090663596</v>
+        <v>0.1634249512215674</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2050,22 +2050,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.81663469481677</v>
+        <v>0.8699492223563119</v>
       </c>
       <c r="C27">
-        <v>0.7820548490281694</v>
+        <v>0.8667851690703763</v>
       </c>
       <c r="D27">
-        <v>0.1454117220553603</v>
+        <v>0.1904232267848078</v>
       </c>
       <c r="E27">
-        <v>0.1348326233529963</v>
+        <v>0.1765018255030237</v>
       </c>
       <c r="F27">
-        <v>0.6086652495636901</v>
+        <v>0.2393359825706247</v>
       </c>
       <c r="G27">
-        <v>0.6642835038565618</v>
+        <v>0.3323555267536916</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2073,22 +2073,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.5916225566316367</v>
+        <v>0.6102034589232213</v>
       </c>
       <c r="C28">
-        <v>0.6325134834397029</v>
+        <v>0.6260664447251859</v>
       </c>
       <c r="D28">
-        <v>0.3898049140698714</v>
+        <v>0.3883594981367009</v>
       </c>
       <c r="E28">
-        <v>0.3868365429283399</v>
+        <v>0.3853004644893618</v>
       </c>
       <c r="F28">
-        <v>0.3995997536545837</v>
+        <v>0.3812301531529683</v>
       </c>
       <c r="G28">
-        <v>0.4020839074423651</v>
+        <v>0.3839528748817968</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2096,22 +2096,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.6952044176434508</v>
+        <v>0.774961913024603</v>
       </c>
       <c r="C29">
-        <v>0.64811532766542</v>
+        <v>0.7719725514551913</v>
       </c>
       <c r="D29">
-        <v>0.2691480422410063</v>
+        <v>0.3375165098821838</v>
       </c>
       <c r="E29">
-        <v>0.2510446618075344</v>
+        <v>0.3130439397385426</v>
       </c>
       <c r="F29">
-        <v>0.5839213500815695</v>
+        <v>0.3472190152456081</v>
       </c>
       <c r="G29">
-        <v>0.6525655793674049</v>
+        <v>0.4821996500626221</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2119,22 +2119,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8751549835579656</v>
+        <v>0.8458193210589837</v>
       </c>
       <c r="C30">
-        <v>0.8620759204696825</v>
+        <v>0.8341624950857831</v>
       </c>
       <c r="D30">
-        <v>0.1426661404706881</v>
+        <v>0.1789028473186184</v>
       </c>
       <c r="E30">
-        <v>0.1401239709975565</v>
+        <v>0.1755296181278216</v>
       </c>
       <c r="F30">
-        <v>0.5842485657120011</v>
+        <v>0.1149473953689453</v>
       </c>
       <c r="G30">
-        <v>0.619691311755964</v>
+        <v>0.1260145764912212</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2165,22 +2165,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5836853489700433</v>
+        <v>0.6279134651374138</v>
       </c>
       <c r="C32">
-        <v>0.6749012045398816</v>
+        <v>0.6628248036217029</v>
       </c>
       <c r="D32">
-        <v>0.231405946756094</v>
+        <v>0.2108398491839168</v>
       </c>
       <c r="E32">
-        <v>0.2306524407426556</v>
+        <v>0.2099279955786713</v>
       </c>
       <c r="F32">
-        <v>0.4630191892619999</v>
+        <v>0.4359127654232937</v>
       </c>
       <c r="G32">
-        <v>0.4632873645891453</v>
+        <v>0.436215223034023</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2188,22 +2188,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.6658939945717791</v>
+        <v>0.7458915969424181</v>
       </c>
       <c r="C33">
-        <v>0.6659645785024204</v>
+        <v>0.7558393971091057</v>
       </c>
       <c r="D33">
-        <v>0.2176385233073258</v>
+        <v>0.2576532309118089</v>
       </c>
       <c r="E33">
-        <v>0.2023732814217956</v>
+        <v>0.2387435052565523</v>
       </c>
       <c r="F33">
-        <v>0.5671992527783244</v>
+        <v>0.3967114455779936</v>
       </c>
       <c r="G33">
-        <v>0.6203612475101881</v>
+        <v>0.4828320752428206</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2211,22 +2211,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.8076972648525018</v>
+        <v>0.8046473437689678</v>
       </c>
       <c r="C34">
-        <v>0.8351418835443263</v>
+        <v>0.8049570530192602</v>
       </c>
       <c r="D34">
-        <v>0.08659625807561915</v>
+        <v>0.08591576323270524</v>
       </c>
       <c r="E34">
-        <v>0.08561823968044241</v>
+        <v>0.08403736330665497</v>
       </c>
       <c r="F34">
-        <v>0.5683436431887902</v>
+        <v>0.2542403814914928</v>
       </c>
       <c r="G34">
-        <v>0.5947065456605002</v>
+        <v>0.2618282161157544</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2234,22 +2234,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.6252148158610896</v>
+        <v>0.6717745590182319</v>
       </c>
       <c r="C35">
-        <v>0.7094349770718049</v>
+        <v>0.7002301851747997</v>
       </c>
       <c r="D35">
-        <v>0.1728894495793843</v>
+        <v>0.1409598015829119</v>
       </c>
       <c r="E35">
-        <v>0.1728894495793843</v>
+        <v>0.1409598015829119</v>
       </c>
       <c r="F35">
-        <v>0.4306106721898835</v>
+        <v>0.4032762446947621</v>
       </c>
       <c r="G35">
-        <v>0.4306106721898835</v>
+        <v>0.4032762446947621</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2257,22 +2257,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7150486972636666</v>
+        <v>0.8402434196845647</v>
       </c>
       <c r="C36">
-        <v>0.6569047588289187</v>
+        <v>0.8429485309965791</v>
       </c>
       <c r="D36">
-        <v>0.2295721813708477</v>
+        <v>0.3008827060936615</v>
       </c>
       <c r="E36">
-        <v>0.2093625688628219</v>
+        <v>0.2730094831593303</v>
       </c>
       <c r="F36">
-        <v>0.6165307197282068</v>
+        <v>0.3535165942247096</v>
       </c>
       <c r="G36">
-        <v>0.6926651740496776</v>
+        <v>0.5088332482955812</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2280,22 +2280,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.7116166672272247</v>
+        <v>0.8342357995226816</v>
       </c>
       <c r="C37">
-        <v>0.6583756972872975</v>
+        <v>0.8378243948845486</v>
       </c>
       <c r="D37">
-        <v>0.2255284644868773</v>
+        <v>0.2941727196701232</v>
       </c>
       <c r="E37">
-        <v>0.2055248167562434</v>
+        <v>0.2668745400126967</v>
       </c>
       <c r="F37">
-        <v>0.6141238578501316</v>
+        <v>0.3589340377450015</v>
       </c>
       <c r="G37">
-        <v>0.6885290703339753</v>
+        <v>0.508073503448337</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2303,22 +2303,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.769113026342366</v>
+        <v>0.869584121480748</v>
       </c>
       <c r="C38">
-        <v>0.7147635641561763</v>
+        <v>0.8702008721514229</v>
       </c>
       <c r="D38">
-        <v>0.192113267552924</v>
+        <v>0.2540507234543832</v>
       </c>
       <c r="E38">
-        <v>0.176105559256948</v>
+        <v>0.2325217831284244</v>
       </c>
       <c r="F38">
-        <v>0.6185556731848149</v>
+        <v>0.2941336110351192</v>
       </c>
       <c r="G38">
-        <v>0.6884488142518831</v>
+        <v>0.4282852783197808</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2326,22 +2326,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7205718743397653</v>
+        <v>0.849802926887459</v>
       </c>
       <c r="C39">
-        <v>0.6622934195831585</v>
+        <v>0.8536843929908724</v>
       </c>
       <c r="D39">
-        <v>0.2238327476782347</v>
+        <v>0.292432924882146</v>
       </c>
       <c r="E39">
-        <v>0.2037866755461422</v>
+        <v>0.2652341107655946</v>
       </c>
       <c r="F39">
-        <v>0.608035670378053</v>
+        <v>0.3470529330070101</v>
       </c>
       <c r="G39">
-        <v>0.6824538788050546</v>
+        <v>0.5001767813180493</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2349,22 +2349,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9648397500767834</v>
+        <v>0.9549010099313376</v>
       </c>
       <c r="C40">
-        <v>0.9362368077662026</v>
+        <v>0.9307503585589891</v>
       </c>
       <c r="D40">
-        <v>0.04139277503023605</v>
+        <v>0.057208869609626</v>
       </c>
       <c r="E40">
-        <v>0.03965362243595326</v>
+        <v>0.05336459541510122</v>
       </c>
       <c r="F40">
-        <v>0.6142537423214633</v>
+        <v>0.03264228528417835</v>
       </c>
       <c r="G40">
-        <v>0.655240089657887</v>
+        <v>0.05276339687222367</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2372,22 +2372,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9408585339794834</v>
+        <v>0.9378277194767474</v>
       </c>
       <c r="C41">
-        <v>0.9291170352662618</v>
+        <v>0.9202741072242535</v>
       </c>
       <c r="D41">
-        <v>0.02657490872844136</v>
+        <v>0.03450437587636129</v>
       </c>
       <c r="E41">
-        <v>0.0247030842253707</v>
+        <v>0.02885923040411911</v>
       </c>
       <c r="F41">
-        <v>0.6120917770181464</v>
+        <v>0.0856369449088672</v>
       </c>
       <c r="G41">
-        <v>0.651987942200146</v>
+        <v>0.09612979857275711</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2395,22 +2395,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.900306982993356</v>
+        <v>0.9404715785572623</v>
       </c>
       <c r="C42">
-        <v>0.8642739531087571</v>
+        <v>0.9253419285457888</v>
       </c>
       <c r="D42">
-        <v>0.0882700906426796</v>
+        <v>0.1206415254431265</v>
       </c>
       <c r="E42">
-        <v>0.08155590096279208</v>
+        <v>0.1115297854679645</v>
       </c>
       <c r="F42">
-        <v>0.6170499269582269</v>
+        <v>0.1333926668515869</v>
       </c>
       <c r="G42">
-        <v>0.6657738004747387</v>
+        <v>0.2082632351129421</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2421,19 +2421,19 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0.9470887968229368</v>
+        <v>0.9481177528507808</v>
       </c>
       <c r="D43">
-        <v>0.00946650737820064</v>
+        <v>0.02392953234474371</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.01464842320164689</v>
       </c>
       <c r="F43">
-        <v>0.606494168911797</v>
+        <v>0.009327800565588048</v>
       </c>
       <c r="G43">
-        <v>0.6460650127233</v>
+        <v>0.04143684514135911</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2464,22 +2464,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.7966713275954646</v>
+        <v>0.8277976210930251</v>
       </c>
       <c r="C45">
-        <v>0.8372091595257698</v>
+        <v>0.8359294517310334</v>
       </c>
       <c r="D45">
-        <v>0.09090484996201852</v>
+        <v>0.07204358009527329</v>
       </c>
       <c r="E45">
-        <v>0.09090484996201852</v>
+        <v>0.07204358009527329</v>
       </c>
       <c r="F45">
-        <v>0.2515111171187704</v>
+        <v>0.2315942039079192</v>
       </c>
       <c r="G45">
-        <v>0.2515111171187704</v>
+        <v>0.2315942039079192</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2487,22 +2487,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7634062403003202</v>
+        <v>0.8765791360322622</v>
       </c>
       <c r="C46">
-        <v>0.7135923106836676</v>
+        <v>0.8816785745375397</v>
       </c>
       <c r="D46">
-        <v>0.1955714637119744</v>
+        <v>0.2384114963332989</v>
       </c>
       <c r="E46">
-        <v>0.1795955191926753</v>
+        <v>0.2196938230908896</v>
       </c>
       <c r="F46">
-        <v>0.5038883213131513</v>
+        <v>0.2793975072576236</v>
       </c>
       <c r="G46">
-        <v>0.5637283537334711</v>
+        <v>0.4009879759216569</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2513,19 +2513,19 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0.9518569144884885</v>
+        <v>0.9552762428355324</v>
       </c>
       <c r="D47">
-        <v>0.008644107287971296</v>
+        <v>0.02069648728318482</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.01268292155776329</v>
       </c>
       <c r="F47">
-        <v>0.5085434572440993</v>
+        <v>0.0317120622604027</v>
       </c>
       <c r="G47">
-        <v>0.535764368883843</v>
+        <v>0.04719261390495629</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2533,22 +2533,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7714438360668096</v>
+        <v>0.8638801904241983</v>
       </c>
       <c r="C48">
-        <v>0.7233970271061479</v>
+        <v>0.8651171087425894</v>
       </c>
       <c r="D48">
-        <v>0.1867285661055159</v>
+        <v>0.2408381722551477</v>
       </c>
       <c r="E48">
-        <v>0.1716731007987814</v>
+        <v>0.221407945867932</v>
       </c>
       <c r="F48">
-        <v>0.5838745985253319</v>
+        <v>0.286659486402591</v>
       </c>
       <c r="G48">
-        <v>0.6463712301038352</v>
+        <v>0.4086979125697852</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2556,22 +2556,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.8614159854232304</v>
+        <v>0.8805143143993788</v>
       </c>
       <c r="C49">
-        <v>0.8467962087657293</v>
+        <v>0.874164824460284</v>
       </c>
       <c r="D49">
-        <v>0.09543447332121918</v>
+        <v>0.1225384002472756</v>
       </c>
       <c r="E49">
-        <v>0.08952784268265396</v>
+        <v>0.1143409980139655</v>
       </c>
       <c r="F49">
-        <v>0.5963118440369819</v>
+        <v>0.1867820594110638</v>
       </c>
       <c r="G49">
-        <v>0.638826061023068</v>
+        <v>0.2382120320653213</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2579,22 +2579,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.7518673329097415</v>
+        <v>0.8321738614158556</v>
       </c>
       <c r="C50">
-        <v>0.7142321602647032</v>
+        <v>0.8337869935321304</v>
       </c>
       <c r="D50">
-        <v>0.1907669968335349</v>
+        <v>0.2444648892651484</v>
       </c>
       <c r="E50">
-        <v>0.1758816773280526</v>
+        <v>0.22500500011468</v>
       </c>
       <c r="F50">
-        <v>0.5966679227668851</v>
+        <v>0.3124964919536704</v>
       </c>
       <c r="G50">
-        <v>0.6587868705529873</v>
+        <v>0.4250123429993548</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2602,22 +2602,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.8298998214529992</v>
+        <v>0.8934454175279534</v>
       </c>
       <c r="C51">
-        <v>0.7872833071929769</v>
+        <v>0.8890744427853317</v>
       </c>
       <c r="D51">
-        <v>0.1434649554896919</v>
+        <v>0.1903206010352401</v>
       </c>
       <c r="E51">
-        <v>0.1325971419822926</v>
+        <v>0.1760616030794078</v>
       </c>
       <c r="F51">
-        <v>0.6101435052512565</v>
+        <v>0.2217134845529888</v>
       </c>
       <c r="G51">
-        <v>0.6674912864554143</v>
+        <v>0.3240288157913587</v>
       </c>
     </row>
   </sheetData>
@@ -2704,10 +2704,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -2719,7 +2719,7 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2733,13 +2733,13 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -2819,10 +2819,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -2834,7 +2834,7 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2865,10 +2865,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -2880,7 +2880,7 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2894,16 +2894,16 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2934,10 +2934,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -2949,7 +2949,7 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3003,10 +3003,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -3078,13 +3078,13 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -3095,10 +3095,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -3118,10 +3118,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -3133,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3141,10 +3141,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -3187,10 +3187,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -3210,10 +3210,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -3262,16 +3262,16 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3282,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -3294,7 +3294,7 @@
         <v>4</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3308,16 +3308,16 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3440,10 +3440,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -3455,7 +3455,7 @@
         <v>4</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3463,10 +3463,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -3478,7 +3478,7 @@
         <v>4</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3486,10 +3486,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -3509,10 +3509,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -3524,7 +3524,7 @@
         <v>4</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3538,16 +3538,16 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3607,13 +3607,13 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -3670,10 +3670,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -3716,10 +3716,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -3762,10 +3762,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -3864,22 +3864,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1688498481777939</v>
+        <v>0.1693961500459388</v>
       </c>
       <c r="C3">
-        <v>0.1892644719401619</v>
+        <v>0.1785946295355391</v>
       </c>
       <c r="D3">
-        <v>0.4411388190498359</v>
+        <v>0.4411377928503919</v>
       </c>
       <c r="E3">
-        <v>0.4411388190498359</v>
+        <v>0.4411377928503919</v>
       </c>
       <c r="F3">
-        <v>0.8228827631943814</v>
+        <v>0.8223202109614983</v>
       </c>
       <c r="G3">
-        <v>0.8228827631943814</v>
+        <v>0.8223202109614983</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3887,22 +3887,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6879443398294716</v>
+        <v>0.8393485971937127</v>
       </c>
       <c r="C4">
-        <v>0.6225247890874044</v>
+        <v>0.8407724048415182</v>
       </c>
       <c r="D4">
-        <v>0.232192709684979</v>
+        <v>0.3254118905624012</v>
       </c>
       <c r="E4">
-        <v>0.2035363100584565</v>
+        <v>0.2846313966960989</v>
       </c>
       <c r="F4">
-        <v>0.5780064749675284</v>
+        <v>0.2793200013373175</v>
       </c>
       <c r="G4">
-        <v>0.7015330127241665</v>
+        <v>0.5125650802276343</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3916,16 +3916,16 @@
         <v>0.9514117486000614</v>
       </c>
       <c r="D5">
-        <v>0.006929350791369269</v>
+        <v>0.006929350791369314</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5800707288727305</v>
+        <v>0.2772650989256041</v>
       </c>
       <c r="G5">
-        <v>0.5902485152802343</v>
+        <v>0.2874428853331074</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3956,22 +3956,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6780336600897992</v>
+        <v>0.6810125243331898</v>
       </c>
       <c r="C7">
-        <v>0.6518305873135563</v>
+        <v>0.6702913400400825</v>
       </c>
       <c r="D7">
-        <v>0.2037530256485869</v>
+        <v>0.2405544410531786</v>
       </c>
       <c r="E7">
-        <v>0.1926904914524531</v>
+        <v>0.2284471810103213</v>
       </c>
       <c r="F7">
-        <v>0.6064272763677816</v>
+        <v>0.4122415613901774</v>
       </c>
       <c r="G7">
-        <v>0.6626883887157506</v>
+        <v>0.4740543756775005</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3979,22 +3979,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2262133021020751</v>
+        <v>0.2268700793493536</v>
       </c>
       <c r="C8">
-        <v>0.2387446251433886</v>
+        <v>0.2321349174794538</v>
       </c>
       <c r="D8">
-        <v>0.4451752897658128</v>
+        <v>0.4451993836580511</v>
       </c>
       <c r="E8">
-        <v>0.4451749898208757</v>
+        <v>0.445199081861433</v>
       </c>
       <c r="F8">
-        <v>0.7617576670392523</v>
+        <v>0.7610697320449686</v>
       </c>
       <c r="G8">
-        <v>0.7617580325395977</v>
+        <v>0.7610700985177528</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4002,22 +4002,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5242133799630444</v>
+        <v>0.5403336014555183</v>
       </c>
       <c r="C9">
-        <v>0.4968246641172964</v>
+        <v>0.5309199040302407</v>
       </c>
       <c r="D9">
-        <v>0.2935632483732878</v>
+        <v>0.3711201572015638</v>
       </c>
       <c r="E9">
-        <v>0.2719969115822928</v>
+        <v>0.3436336145191924</v>
       </c>
       <c r="F9">
-        <v>0.6289356902955376</v>
+        <v>0.5041448281361235</v>
       </c>
       <c r="G9">
-        <v>0.7162169158441705</v>
+        <v>0.6028934269123501</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4025,22 +4025,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6768849230673557</v>
+        <v>0.6796129784497392</v>
       </c>
       <c r="C10">
-        <v>0.650517400554546</v>
+        <v>0.668730582784603</v>
       </c>
       <c r="D10">
-        <v>0.2044928270584349</v>
+        <v>0.2417745290081391</v>
       </c>
       <c r="E10">
-        <v>0.1933572031152166</v>
+        <v>0.2295559810821491</v>
       </c>
       <c r="F10">
-        <v>0.6084512514835944</v>
+        <v>0.4129772350768765</v>
       </c>
       <c r="G10">
-        <v>0.6651322126870673</v>
+        <v>0.4751859381802519</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4048,22 +4048,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6793658508975499</v>
+        <v>0.8019962749570656</v>
       </c>
       <c r="C11">
-        <v>0.6182940488539787</v>
+        <v>0.8002340178043209</v>
       </c>
       <c r="D11">
-        <v>0.245449678266079</v>
+        <v>0.3369313835327536</v>
       </c>
       <c r="E11">
-        <v>0.2183931359936488</v>
+        <v>0.2988444108206605</v>
       </c>
       <c r="F11">
-        <v>0.5710304934253135</v>
+        <v>0.2853316284022673</v>
       </c>
       <c r="G11">
-        <v>0.6905591157826868</v>
+        <v>0.5058152439007989</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4071,22 +4071,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9155834692840239</v>
+        <v>0.9056908549076456</v>
       </c>
       <c r="C12">
-        <v>0.9014289319500173</v>
+        <v>0.8924278670525156</v>
       </c>
       <c r="D12">
-        <v>0.08534764630720929</v>
+        <v>0.09528550120460343</v>
       </c>
       <c r="E12">
-        <v>0.08459685470979336</v>
+        <v>0.09450978953994754</v>
       </c>
       <c r="F12">
-        <v>0.5732523227403399</v>
+        <v>0.2810260306381648</v>
       </c>
       <c r="G12">
-        <v>0.5830231126304968</v>
+        <v>0.2907295774318998</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4117,22 +4117,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5242133799630444</v>
+        <v>0.5403336014555183</v>
       </c>
       <c r="C14">
-        <v>0.4968246641172964</v>
+        <v>0.5309199040302407</v>
       </c>
       <c r="D14">
-        <v>0.2935632483732878</v>
+        <v>0.3711201572015638</v>
       </c>
       <c r="E14">
-        <v>0.2719969115822928</v>
+        <v>0.3436336145191924</v>
       </c>
       <c r="F14">
-        <v>0.6289356902955376</v>
+        <v>0.5041448281361235</v>
       </c>
       <c r="G14">
-        <v>0.7162169158441705</v>
+        <v>0.6028934269123501</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4140,22 +4140,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6768849230673557</v>
+        <v>0.6796129784497392</v>
       </c>
       <c r="C15">
-        <v>0.650517400554546</v>
+        <v>0.668730582784603</v>
       </c>
       <c r="D15">
-        <v>0.2044928270584349</v>
+        <v>0.2417745290081391</v>
       </c>
       <c r="E15">
-        <v>0.1933572031152166</v>
+        <v>0.2295559810821491</v>
       </c>
       <c r="F15">
-        <v>0.6084512514835944</v>
+        <v>0.4129772350768765</v>
       </c>
       <c r="G15">
-        <v>0.6651322126870673</v>
+        <v>0.4751859381802519</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4163,22 +4163,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8034374075019096</v>
+        <v>0.8813594239788066</v>
       </c>
       <c r="C16">
-        <v>0.7557647881392118</v>
+        <v>0.8747402495742782</v>
       </c>
       <c r="D16">
-        <v>0.1608674783718108</v>
+        <v>0.1971923230882353</v>
       </c>
       <c r="E16">
-        <v>0.1468569780357946</v>
+        <v>0.1815941664666013</v>
       </c>
       <c r="F16">
-        <v>0.5734671335677184</v>
+        <v>0.2807578150511463</v>
       </c>
       <c r="G16">
-        <v>0.6416194110185982</v>
+        <v>0.3931242538775189</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4186,22 +4186,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6835384195304834</v>
+        <v>0.8053463715531896</v>
       </c>
       <c r="C17">
-        <v>0.6232663235235254</v>
+        <v>0.8038898584572085</v>
       </c>
       <c r="D17">
-        <v>0.2429486763515369</v>
+        <v>0.3303431013410459</v>
       </c>
       <c r="E17">
-        <v>0.2164134980123051</v>
+        <v>0.2938212740861124</v>
       </c>
       <c r="F17">
-        <v>0.5670161975804746</v>
+        <v>0.2860663215287765</v>
       </c>
       <c r="G17">
-        <v>0.6847013894915622</v>
+        <v>0.5016646285659644</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4209,22 +4209,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6801874362496424</v>
+        <v>0.6837457635872224</v>
       </c>
       <c r="C18">
-        <v>0.6535651316201929</v>
+        <v>0.6729443505789841</v>
       </c>
       <c r="D18">
-        <v>0.1974525670713319</v>
+        <v>0.2341007628806351</v>
       </c>
       <c r="E18">
-        <v>0.1860745342837902</v>
+        <v>0.221599053630135</v>
       </c>
       <c r="F18">
-        <v>0.6098581025246633</v>
+        <v>0.4129548726581159</v>
       </c>
       <c r="G18">
-        <v>0.6669449631556446</v>
+        <v>0.4756483578885263</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4232,22 +4232,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8113132567936833</v>
+        <v>0.9065014217049906</v>
       </c>
       <c r="C19">
-        <v>0.7611562174965323</v>
+        <v>0.9001316487778614</v>
       </c>
       <c r="D19">
-        <v>0.1504064906355307</v>
+        <v>0.1863645979819809</v>
       </c>
       <c r="E19">
-        <v>0.1353747160542948</v>
+        <v>0.169653780588245</v>
       </c>
       <c r="F19">
-        <v>0.5769057837076831</v>
+        <v>0.2784179811731319</v>
       </c>
       <c r="G19">
-        <v>0.6460782356139226</v>
+        <v>0.3936519997080227</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4258,19 +4258,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.951780540119358</v>
+        <v>0.951882062345848</v>
       </c>
       <c r="D20">
-        <v>0.00687892994364973</v>
+        <v>0.006865038571355051</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5758645728178478</v>
+        <v>0.2778932313861954</v>
       </c>
       <c r="G20">
-        <v>0.5858231332547198</v>
+        <v>0.2878722059760128</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4278,22 +4278,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5288376235336865</v>
+        <v>0.5459532522979862</v>
       </c>
       <c r="C21">
-        <v>0.5011262766691945</v>
+        <v>0.5366610331088455</v>
       </c>
       <c r="D21">
-        <v>0.2841658405216528</v>
+        <v>0.3603391259857738</v>
       </c>
       <c r="E21">
-        <v>0.2624133745270496</v>
+        <v>0.3326880552076275</v>
       </c>
       <c r="F21">
-        <v>0.6316895620863678</v>
+        <v>0.5054983370332874</v>
       </c>
       <c r="G21">
-        <v>0.7202679136964815</v>
+        <v>0.6058746937883974</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4301,22 +4301,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5240277138663791</v>
+        <v>0.5406632455145983</v>
       </c>
       <c r="C22">
-        <v>0.4958704573129494</v>
+        <v>0.5309293363264214</v>
       </c>
       <c r="D22">
-        <v>0.2866194930698385</v>
+        <v>0.36571781990643</v>
       </c>
       <c r="E22">
-        <v>0.2644501494514205</v>
+        <v>0.3370762917856443</v>
       </c>
       <c r="F22">
-        <v>0.6357324848788056</v>
+        <v>0.5082575082136508</v>
       </c>
       <c r="G22">
-        <v>0.7258717357384453</v>
+        <v>0.6104287042931904</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4324,22 +4324,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.692177810002954</v>
+        <v>0.8422841341989602</v>
       </c>
       <c r="C23">
-        <v>0.6276371269266316</v>
+        <v>0.8439399928826826</v>
       </c>
       <c r="D23">
-        <v>0.2297363117921505</v>
+        <v>0.31864361656683</v>
       </c>
       <c r="E23">
-        <v>0.2016236021138804</v>
+        <v>0.2795714219069244</v>
       </c>
       <c r="F23">
-        <v>0.5736936308113151</v>
+        <v>0.2802999919047973</v>
       </c>
       <c r="G23">
-        <v>0.695108515860849</v>
+        <v>0.5080281841298531</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4347,22 +4347,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8104950232424559</v>
+        <v>0.9059444655753093</v>
       </c>
       <c r="C24">
-        <v>0.7600835658203784</v>
+        <v>0.8994819743313123</v>
       </c>
       <c r="D24">
-        <v>0.1510239582964654</v>
+        <v>0.1874677080733528</v>
       </c>
       <c r="E24">
-        <v>0.1359044147785569</v>
+        <v>0.1706141464574505</v>
       </c>
       <c r="F24">
-        <v>0.5790569107922189</v>
+        <v>0.2780301229489924</v>
       </c>
       <c r="G24">
-        <v>0.6487647424211465</v>
+        <v>0.3944348315125121</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4370,22 +4370,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6775520232658676</v>
+        <v>0.6517013294211533</v>
       </c>
       <c r="C25">
-        <v>0.6664418337244606</v>
+        <v>0.6394490734966071</v>
       </c>
       <c r="D25">
-        <v>0.1759856229203224</v>
+        <v>0.1921808401052913</v>
       </c>
       <c r="E25">
-        <v>0.1749955803137377</v>
+        <v>0.1911593224032448</v>
       </c>
       <c r="F25">
-        <v>0.6318454994582169</v>
+        <v>0.4535956083272024</v>
       </c>
       <c r="G25">
-        <v>0.6393829779747217</v>
+        <v>0.4588485296089899</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4393,22 +4393,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.6759803502528191</v>
+        <v>0.6496215928796153</v>
       </c>
       <c r="C26">
-        <v>0.6646839232076528</v>
+        <v>0.6371248445240457</v>
       </c>
       <c r="D26">
-        <v>0.1769756877764534</v>
+        <v>0.1935085316717385</v>
       </c>
       <c r="E26">
-        <v>0.1759687053258516</v>
+        <v>0.1924651374219925</v>
       </c>
       <c r="F26">
-        <v>0.6357909548643877</v>
+        <v>0.4550391313743902</v>
       </c>
       <c r="G26">
-        <v>0.6434929363548126</v>
+        <v>0.4603604407564316</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4416,22 +4416,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.6790336159793292</v>
+        <v>0.6823389871048975</v>
       </c>
       <c r="C27">
-        <v>0.6522434969859171</v>
+        <v>0.671373310577103</v>
       </c>
       <c r="D27">
-        <v>0.1981801215287396</v>
+        <v>0.2353102770556351</v>
       </c>
       <c r="E27">
-        <v>0.1867278145904095</v>
+        <v>0.2226944604443887</v>
       </c>
       <c r="F27">
-        <v>0.6119505193900265</v>
+        <v>0.4137078554987941</v>
       </c>
       <c r="G27">
-        <v>0.6694832442400063</v>
+        <v>0.4768101903782962</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4439,22 +4439,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.3095172093874344</v>
+        <v>0.3102409358709748</v>
       </c>
       <c r="C28">
-        <v>0.315731943315655</v>
+        <v>0.3125027155595407</v>
       </c>
       <c r="D28">
-        <v>0.4526476908258957</v>
+        <v>0.4526977642321404</v>
       </c>
       <c r="E28">
-        <v>0.4526468393095545</v>
+        <v>0.4526969089864953</v>
       </c>
       <c r="F28">
-        <v>0.6702959684382122</v>
+        <v>0.6695007134629085</v>
       </c>
       <c r="G28">
-        <v>0.6702967418596241</v>
+        <v>0.6695014889189497</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4462,22 +4462,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.6588160255237446</v>
+        <v>0.738608191634393</v>
       </c>
       <c r="C29">
-        <v>0.6077079686015013</v>
+        <v>0.7338720184057096</v>
       </c>
       <c r="D29">
-        <v>0.2761797750493591</v>
+        <v>0.3621998881243977</v>
       </c>
       <c r="E29">
-        <v>0.2522697269936299</v>
+        <v>0.3299342607270838</v>
       </c>
       <c r="F29">
-        <v>0.5529560486786227</v>
+        <v>0.2991667094287597</v>
       </c>
       <c r="G29">
-        <v>0.6629369770034776</v>
+        <v>0.4890587632158594</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4485,22 +4485,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8464066046706219</v>
+        <v>0.8305236560658982</v>
       </c>
       <c r="C30">
-        <v>0.8356034601619224</v>
+        <v>0.819974025677515</v>
       </c>
       <c r="D30">
-        <v>0.1548795321963408</v>
+        <v>0.1708446612287546</v>
       </c>
       <c r="E30">
-        <v>0.1539183963740688</v>
+        <v>0.1698366065165777</v>
       </c>
       <c r="F30">
-        <v>0.5555134502062744</v>
+        <v>0.2905765299690981</v>
       </c>
       <c r="G30">
-        <v>0.5642878458488165</v>
+        <v>0.2991061031344845</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4531,22 +4531,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.186594259719799</v>
+        <v>0.1871795933269652</v>
       </c>
       <c r="C32">
-        <v>0.2041055769109959</v>
+        <v>0.1949062828281693</v>
       </c>
       <c r="D32">
-        <v>0.4422611063951681</v>
+        <v>0.4422678483958737</v>
       </c>
       <c r="E32">
-        <v>0.4422610228384005</v>
+        <v>0.4422677642640122</v>
       </c>
       <c r="F32">
-        <v>0.8040758186514758</v>
+        <v>0.8034705241041232</v>
       </c>
       <c r="G32">
-        <v>0.80407594643946</v>
+        <v>0.8034706522457167</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4554,22 +4554,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.3871915013557493</v>
+        <v>0.3845649048395411</v>
       </c>
       <c r="C33">
-        <v>0.3755407852849874</v>
+        <v>0.3770508856372882</v>
       </c>
       <c r="D33">
-        <v>0.3508483259945456</v>
+        <v>0.4037587043266128</v>
       </c>
       <c r="E33">
-        <v>0.3358202287516465</v>
+        <v>0.3879411224217433</v>
       </c>
       <c r="F33">
-        <v>0.7074522939437988</v>
+        <v>0.648421979852179</v>
       </c>
       <c r="G33">
-        <v>0.7613656400295685</v>
+        <v>0.703073969347056</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4577,22 +4577,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.5140557130052807</v>
+        <v>0.4855182895861974</v>
       </c>
       <c r="C34">
-        <v>0.5037690859465077</v>
+        <v>0.4737872280206613</v>
       </c>
       <c r="D34">
-        <v>0.2799711698346532</v>
+        <v>0.2980163671924164</v>
       </c>
       <c r="E34">
-        <v>0.2788844078435678</v>
+        <v>0.2969612985720809</v>
       </c>
       <c r="F34">
-        <v>0.7064346781636288</v>
+        <v>0.5966946736418722</v>
       </c>
       <c r="G34">
-        <v>0.7114400254007558</v>
+        <v>0.6003160493482762</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4600,22 +4600,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1927581390984797</v>
+        <v>0.1933637985589632</v>
       </c>
       <c r="C35">
-        <v>0.2095710120752032</v>
+        <v>0.2007313158772079</v>
       </c>
       <c r="D35">
-        <v>0.4355722621726947</v>
+        <v>0.4355323704828975</v>
       </c>
       <c r="E35">
-        <v>0.4355722621726947</v>
+        <v>0.4355323704828975</v>
       </c>
       <c r="F35">
-        <v>0.8118981819109097</v>
+        <v>0.8113096306283732</v>
       </c>
       <c r="G35">
-        <v>0.8118981819109097</v>
+        <v>0.8113096306283732</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4623,22 +4623,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.6856978165056284</v>
+        <v>0.8284714878563353</v>
       </c>
       <c r="C36">
-        <v>0.6214279216021886</v>
+        <v>0.8288155640474745</v>
       </c>
       <c r="D36">
-        <v>0.2356964422688013</v>
+        <v>0.3284901944306312</v>
       </c>
       <c r="E36">
-        <v>0.2074824146952163</v>
+        <v>0.2884358158069097</v>
       </c>
       <c r="F36">
-        <v>0.5762104595236389</v>
+        <v>0.2809076256640937</v>
       </c>
       <c r="G36">
-        <v>0.6986875257055128</v>
+        <v>0.5108117513265716</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4646,22 +4646,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.6238264657174208</v>
+        <v>0.6848964042840716</v>
       </c>
       <c r="C37">
-        <v>0.5766665809116589</v>
+        <v>0.6772565122556827</v>
       </c>
       <c r="D37">
-        <v>0.2497887558226455</v>
+        <v>0.3392225398495773</v>
       </c>
       <c r="E37">
-        <v>0.2234502134699252</v>
+        <v>0.3025637038250547</v>
       </c>
       <c r="F37">
-        <v>0.5963202751261311</v>
+        <v>0.3836396725532591</v>
       </c>
       <c r="G37">
-        <v>0.7087898241811241</v>
+        <v>0.5472344126831382</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4669,22 +4669,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7413822981113213</v>
+        <v>0.8685607945241142</v>
       </c>
       <c r="C38">
-        <v>0.6814396531214724</v>
+        <v>0.8670674202321716</v>
       </c>
       <c r="D38">
-        <v>0.1994764501988099</v>
+        <v>0.2621572169210191</v>
       </c>
       <c r="E38">
-        <v>0.1770979338526508</v>
+        <v>0.2345920800004243</v>
       </c>
       <c r="F38">
-        <v>0.5784311713170998</v>
+        <v>0.2787106666436026</v>
       </c>
       <c r="G38">
-        <v>0.6807667270158451</v>
+        <v>0.4613803013014395</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4692,22 +4692,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.6890215351034299</v>
+        <v>0.8400988033387695</v>
       </c>
       <c r="C39">
-        <v>0.623826572430302</v>
+        <v>0.8415834928654822</v>
       </c>
       <c r="D39">
-        <v>0.2315704860795664</v>
+        <v>0.3236729796711754</v>
       </c>
       <c r="E39">
-        <v>0.2030525994757882</v>
+        <v>0.2833372767810858</v>
       </c>
       <c r="F39">
-        <v>0.5769114424988419</v>
+        <v>0.2795709852591174</v>
       </c>
       <c r="G39">
-        <v>0.6998942677415902</v>
+        <v>0.5114083288020308</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -4715,22 +4715,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9557589978172278</v>
+        <v>0.9502654774297127</v>
       </c>
       <c r="C40">
-        <v>0.9341652921480841</v>
+        <v>0.930243793815422</v>
       </c>
       <c r="D40">
-        <v>0.04510425355481763</v>
+        <v>0.05058470591252145</v>
       </c>
       <c r="E40">
-        <v>0.04433782120978588</v>
+        <v>0.04984292997876376</v>
       </c>
       <c r="F40">
-        <v>0.5783168047333068</v>
+        <v>0.2782371542152907</v>
       </c>
       <c r="G40">
-        <v>0.5883885007585521</v>
+        <v>0.2882916767667309</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4738,22 +4738,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.8061114397878844</v>
+        <v>0.7868372368231128</v>
       </c>
       <c r="C41">
-        <v>0.7953163167230147</v>
+        <v>0.7753164402540129</v>
       </c>
       <c r="D41">
-        <v>0.09974545375190098</v>
+        <v>0.110711981953103</v>
       </c>
       <c r="E41">
-        <v>0.09896106754240545</v>
+        <v>0.1098958502969101</v>
       </c>
       <c r="F41">
-        <v>0.5976211029375721</v>
+        <v>0.3490010662937013</v>
       </c>
       <c r="G41">
-        <v>0.6069653517748237</v>
+        <v>0.3564784040730675</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -4761,22 +4761,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.8844497997748362</v>
+        <v>0.9444636632565001</v>
       </c>
       <c r="C42">
-        <v>0.8464602244959728</v>
+        <v>0.9293096283157852</v>
       </c>
       <c r="D42">
-        <v>0.09379275032085883</v>
+        <v>0.1125854151252637</v>
       </c>
       <c r="E42">
-        <v>0.08503835860506956</v>
+        <v>0.103163736032868</v>
       </c>
       <c r="F42">
-        <v>0.5796694706472376</v>
+        <v>0.2775304459526384</v>
       </c>
       <c r="G42">
-        <v>0.6147417822619367</v>
+        <v>0.3312192930303403</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4787,19 +4787,19 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0.951504752760846</v>
+        <v>0.951530640860206</v>
       </c>
       <c r="D43">
-        <v>0.006916641459699375</v>
+        <v>0.006913103028445603</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.5790032657347239</v>
+        <v>0.2774244182175941</v>
       </c>
       <c r="G43">
-        <v>0.5891248959725899</v>
+        <v>0.2875517533439875</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -4830,22 +4830,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.3512879581184322</v>
+        <v>0.3521744186980657</v>
       </c>
       <c r="C45">
-        <v>0.3566365349351627</v>
+        <v>0.3539129099336636</v>
       </c>
       <c r="D45">
-        <v>0.3743681649382559</v>
+        <v>0.3740115163014838</v>
       </c>
       <c r="E45">
-        <v>0.3743681649382559</v>
+        <v>0.3740115163014838</v>
       </c>
       <c r="F45">
-        <v>0.7134540702727897</v>
+        <v>0.7126839341390711</v>
       </c>
       <c r="G45">
-        <v>0.7134540702727897</v>
+        <v>0.7126839341390711</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -4853,22 +4853,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7037866636148467</v>
+        <v>0.8501629009288705</v>
       </c>
       <c r="C46">
-        <v>0.6416078272608714</v>
+        <v>0.8523625319599364</v>
       </c>
       <c r="D46">
-        <v>0.2228503097500567</v>
+        <v>0.3009196922050229</v>
       </c>
       <c r="E46">
-        <v>0.196217639644884</v>
+        <v>0.2660362030847396</v>
       </c>
       <c r="F46">
-        <v>0.5617414697318753</v>
+        <v>0.2828987419281443</v>
       </c>
       <c r="G46">
-        <v>0.677679307304085</v>
+        <v>0.4957159932364843</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -4879,19 +4879,19 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0.9528377139340554</v>
+        <v>0.9532138518289194</v>
       </c>
       <c r="D47">
-        <v>0.006734038977538315</v>
+        <v>0.006682362468747105</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.5641820094509896</v>
+        <v>0.2796412985938177</v>
       </c>
       <c r="G47">
-        <v>0.573558961003216</v>
+        <v>0.2890683427392461</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4899,22 +4899,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.6854368749440488</v>
+        <v>0.7356853500460024</v>
       </c>
       <c r="C48">
-        <v>0.6412994505370903</v>
+        <v>0.7278087804771266</v>
       </c>
       <c r="D48">
-        <v>0.2147276433507088</v>
+        <v>0.2747919819420253</v>
       </c>
       <c r="E48">
-        <v>0.194484918854007</v>
+        <v>0.2502603721731766</v>
       </c>
       <c r="F48">
-        <v>0.5898110593329545</v>
+        <v>0.3591544531719744</v>
       </c>
       <c r="G48">
-        <v>0.683150816090185</v>
+        <v>0.4914933281327273</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4922,22 +4922,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.6772868784248383</v>
+        <v>0.6597145585545697</v>
       </c>
       <c r="C49">
-        <v>0.6610923846916751</v>
+        <v>0.6477076900484177</v>
       </c>
       <c r="D49">
-        <v>0.184240442361676</v>
+        <v>0.2072296849620101</v>
       </c>
       <c r="E49">
-        <v>0.1795601872479767</v>
+        <v>0.2023086385113849</v>
       </c>
       <c r="F49">
-        <v>0.6263147654495375</v>
+        <v>0.4419354229070209</v>
       </c>
       <c r="G49">
-        <v>0.6524144587081863</v>
+        <v>0.4654017619510652</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4945,22 +4945,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.5881834058736102</v>
+        <v>0.5977183949317392</v>
       </c>
       <c r="C50">
-        <v>0.55990962655469</v>
+        <v>0.5872018865539718</v>
       </c>
       <c r="D50">
-        <v>0.2523578831667995</v>
+        <v>0.3104710241024676</v>
       </c>
       <c r="E50">
-        <v>0.2350971727070221</v>
+        <v>0.2901456757325201</v>
       </c>
       <c r="F50">
-        <v>0.6261267617675216</v>
+        <v>0.4719989061649842</v>
       </c>
       <c r="G50">
-        <v>0.7038599157928492</v>
+        <v>0.5568627109412169</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4968,22 +4968,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.7626826754129413</v>
+        <v>0.8001341099570012</v>
       </c>
       <c r="C51">
-        <v>0.7237333296704069</v>
+        <v>0.7914019408429467</v>
       </c>
       <c r="D51">
-        <v>0.1652642665019257</v>
+        <v>0.2018608643601346</v>
       </c>
       <c r="E51">
-        <v>0.1515688668630754</v>
+        <v>0.1865872810786141</v>
       </c>
       <c r="F51">
-        <v>0.5879094414350255</v>
+        <v>0.3272896572962964</v>
       </c>
       <c r="G51">
-        <v>0.6538648383403647</v>
+        <v>0.4204483849835452</v>
       </c>
     </row>
   </sheetData>
@@ -5073,19 +5073,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5142,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -5154,7 +5154,7 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5185,10 +5185,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -5197,7 +5197,7 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5211,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -5223,7 +5223,7 @@
         <v>4</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5231,22 +5231,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5300,10 +5300,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -5312,7 +5312,7 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -5338,7 +5338,7 @@
         <v>4</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5369,22 +5369,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5395,7 +5395,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -5407,7 +5407,7 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5461,10 +5461,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -5473,7 +5473,7 @@
         <v>6</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -5484,10 +5484,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -5496,7 +5496,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -5510,19 +5510,19 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>6</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5602,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -5614,7 +5614,7 @@
         <v>4</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5645,22 +5645,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5737,16 +5737,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -5809,19 +5809,19 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5829,10 +5829,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -5841,10 +5841,10 @@
         <v>6</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5878,19 +5878,19 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6036,22 +6036,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <v>6</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -6085,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -6097,7 +6097,7 @@
         <v>4</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -6128,10 +6128,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -6140,10 +6140,10 @@
         <v>6</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -6230,22 +6230,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.395865052189259</v>
+        <v>0.3984886720235777</v>
       </c>
       <c r="C3">
-        <v>0.4254096160704566</v>
+        <v>0.4207568824612923</v>
       </c>
       <c r="D3">
-        <v>0.3495531025042473</v>
+        <v>0.348332134918419</v>
       </c>
       <c r="E3">
-        <v>0.3495531025042473</v>
+        <v>0.348332134918419</v>
       </c>
       <c r="F3">
-        <v>0.5828865337739092</v>
+        <v>0.5802484581094014</v>
       </c>
       <c r="G3">
-        <v>0.5828865337739092</v>
+        <v>0.5802484581094014</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6253,22 +6253,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.721456472301332</v>
+        <v>0.8449850311722866</v>
       </c>
       <c r="C4">
-        <v>0.6632519572152543</v>
+        <v>0.8600043910589805</v>
       </c>
       <c r="D4">
-        <v>0.2364417355651339</v>
+        <v>0.3210566408743118</v>
       </c>
       <c r="E4">
-        <v>0.2038942491518844</v>
+        <v>0.277014875217352</v>
       </c>
       <c r="F4">
-        <v>0.5594595503775098</v>
+        <v>0.2426901462468489</v>
       </c>
       <c r="G4">
-        <v>0.7022103630589875</v>
+        <v>0.5099041530816424</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6279,19 +6279,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9406961971013826</v>
+        <v>0.9429846364536536</v>
       </c>
       <c r="D5">
-        <v>0.01063007791172252</v>
+        <v>0.04880828829615134</v>
       </c>
       <c r="E5">
+        <v>0.0385884081697629</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0.5751760569348728</v>
-      </c>
       <c r="G5">
-        <v>0.6218214846003001</v>
+        <v>0.04484545486342015</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6322,22 +6322,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7345187230533458</v>
+        <v>0.7296188466985399</v>
       </c>
       <c r="C7">
-        <v>0.7086972327987382</v>
+        <v>0.7219760947999742</v>
       </c>
       <c r="D7">
-        <v>0.1840807427987334</v>
+        <v>0.2345726242431369</v>
       </c>
       <c r="E7">
-        <v>0.1697874119446888</v>
+        <v>0.2169496744174239</v>
       </c>
       <c r="F7">
-        <v>0.5651616214556009</v>
+        <v>0.2881100074377145</v>
       </c>
       <c r="G7">
-        <v>0.6439026336326292</v>
+        <v>0.3756196976299295</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6345,22 +6345,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4016232883862484</v>
+        <v>0.4041445320123682</v>
       </c>
       <c r="C8">
-        <v>0.4289911887624629</v>
+        <v>0.4246670224368864</v>
       </c>
       <c r="D8">
-        <v>0.3691138280804961</v>
+        <v>0.3682693626203959</v>
       </c>
       <c r="E8">
-        <v>0.3648964214413216</v>
+        <v>0.3639953120857906</v>
       </c>
       <c r="F8">
-        <v>0.5731669253193655</v>
+        <v>0.5705662284448407</v>
       </c>
       <c r="G8">
-        <v>0.5755410293511879</v>
+        <v>0.5729620434068906</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6368,22 +6368,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.600871697930641</v>
+        <v>0.6228306044596379</v>
       </c>
       <c r="C9">
-        <v>0.5783709189418169</v>
+        <v>0.6216797474542651</v>
       </c>
       <c r="D9">
-        <v>0.271028657319288</v>
+        <v>0.3371689421246118</v>
       </c>
       <c r="E9">
-        <v>0.2448674138446027</v>
+        <v>0.3053288215103232</v>
       </c>
       <c r="F9">
-        <v>0.5637140844447808</v>
+        <v>0.4084890628280872</v>
       </c>
       <c r="G9">
-        <v>0.6662896445929493</v>
+        <v>0.5350248200228028</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6391,22 +6391,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.73278158807164</v>
+        <v>0.7271564399533752</v>
       </c>
       <c r="C10">
-        <v>0.70667358905764</v>
+        <v>0.7192597521716892</v>
       </c>
       <c r="D10">
-        <v>0.1853075637554928</v>
+        <v>0.2371160546799684</v>
       </c>
       <c r="E10">
-        <v>0.1708608125217213</v>
+        <v>0.2191737834566359</v>
       </c>
       <c r="F10">
-        <v>0.5686786141701254</v>
+        <v>0.2881520882402471</v>
       </c>
       <c r="G10">
-        <v>0.648546558549529</v>
+        <v>0.3767597936476013</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6414,22 +6414,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7127398446482147</v>
+        <v>0.8165413343244967</v>
       </c>
       <c r="C11">
-        <v>0.6577847482435425</v>
+        <v>0.8256025769938913</v>
       </c>
       <c r="D11">
-        <v>0.2479474750067758</v>
+        <v>0.3323640519337229</v>
       </c>
       <c r="E11">
-        <v>0.2148759930228784</v>
+        <v>0.2879650229655665</v>
       </c>
       <c r="F11">
-        <v>0.5557483365290629</v>
+        <v>0.2491489346847622</v>
       </c>
       <c r="G11">
-        <v>0.6966365094076337</v>
+        <v>0.5075530446387363</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6437,22 +6437,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9292565302763288</v>
+        <v>0.9124552656719012</v>
       </c>
       <c r="C12">
-        <v>0.9070733504513238</v>
+        <v>0.8943251327159186</v>
       </c>
       <c r="D12">
-        <v>0.07681959554694534</v>
+        <v>0.1068443392701087</v>
       </c>
       <c r="E12">
-        <v>0.07044830887402202</v>
+        <v>0.09669109388835349</v>
       </c>
       <c r="F12">
-        <v>0.57148399086418</v>
+        <v>0.06080149816792085</v>
       </c>
       <c r="G12">
-        <v>0.6179828532347424</v>
+        <v>0.08381538328548455</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6483,22 +6483,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.600871697930641</v>
+        <v>0.6228306044596379</v>
       </c>
       <c r="C14">
-        <v>0.5783709189418169</v>
+        <v>0.6216797474542651</v>
       </c>
       <c r="D14">
-        <v>0.271028657319288</v>
+        <v>0.3371689421246118</v>
       </c>
       <c r="E14">
-        <v>0.2448674138446027</v>
+        <v>0.3053288215103232</v>
       </c>
       <c r="F14">
-        <v>0.5637140844447808</v>
+        <v>0.4084890628280872</v>
       </c>
       <c r="G14">
-        <v>0.6662896445929493</v>
+        <v>0.5350248200228028</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6506,22 +6506,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.73278158807164</v>
+        <v>0.7271564399533752</v>
       </c>
       <c r="C15">
-        <v>0.70667358905764</v>
+        <v>0.7192597521716892</v>
       </c>
       <c r="D15">
-        <v>0.1853075637554928</v>
+        <v>0.2371160546799684</v>
       </c>
       <c r="E15">
-        <v>0.1708608125217213</v>
+        <v>0.2191737834566359</v>
       </c>
       <c r="F15">
-        <v>0.5686786141701254</v>
+        <v>0.2881520882402471</v>
       </c>
       <c r="G15">
-        <v>0.648546558549529</v>
+        <v>0.3767597936476013</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6529,22 +6529,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8273198792164813</v>
+        <v>0.8842622735387182</v>
       </c>
       <c r="C16">
-        <v>0.7825757271715619</v>
+        <v>0.8820844881450334</v>
       </c>
       <c r="D16">
-        <v>0.1587961751737645</v>
+        <v>0.2114699605734612</v>
       </c>
       <c r="E16">
-        <v>0.141361580424211</v>
+        <v>0.1896572888584794</v>
       </c>
       <c r="F16">
-        <v>0.561694870351839</v>
+        <v>0.1563064112196774</v>
       </c>
       <c r="G16">
-        <v>0.6550256581788898</v>
+        <v>0.3198547922000943</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6552,22 +6552,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7194565414086144</v>
+        <v>0.8219992774093614</v>
       </c>
       <c r="C17">
-        <v>0.6658155924174961</v>
+        <v>0.8311943426474034</v>
       </c>
       <c r="D17">
-        <v>0.2432010295404256</v>
+        <v>0.3209225510606168</v>
       </c>
       <c r="E17">
-        <v>0.2112543048668246</v>
+        <v>0.2795244428672535</v>
       </c>
       <c r="F17">
-        <v>0.5476582206495803</v>
+        <v>0.2512122945192355</v>
       </c>
       <c r="G17">
-        <v>0.6839820366478909</v>
+        <v>0.4982934583377664</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6575,22 +6575,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7371822370459556</v>
+        <v>0.7331874970043057</v>
       </c>
       <c r="C18">
-        <v>0.7109954063370154</v>
+        <v>0.7255770297637408</v>
       </c>
       <c r="D18">
-        <v>0.1778891155239828</v>
+        <v>0.2278674321697471</v>
       </c>
       <c r="E18">
-        <v>0.1641330627165644</v>
+        <v>0.2108205670271552</v>
       </c>
       <c r="F18">
-        <v>0.5666895791453052</v>
+        <v>0.287125101538842</v>
       </c>
       <c r="G18">
-        <v>0.6456634826972298</v>
+        <v>0.3750611240476984</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6598,22 +6598,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.834101899444902</v>
+        <v>0.9039118176856328</v>
       </c>
       <c r="C19">
-        <v>0.7874463103116217</v>
+        <v>0.9033547067083668</v>
       </c>
       <c r="D19">
-        <v>0.1502120587927865</v>
+        <v>0.2021393999072506</v>
       </c>
       <c r="E19">
-        <v>0.1331465572916082</v>
+        <v>0.1807448090553823</v>
       </c>
       <c r="F19">
-        <v>0.5634865037246173</v>
+        <v>0.1509808510812249</v>
       </c>
       <c r="G19">
-        <v>0.6572525201725695</v>
+        <v>0.3183438710046946</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6624,19 +6624,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.94148905090952</v>
+        <v>0.9441818934724822</v>
       </c>
       <c r="D20">
-        <v>0.01049477226664768</v>
+        <v>0.04779183928332174</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.03779297786092253</v>
       </c>
       <c r="F20">
-        <v>0.5669861708870062</v>
+        <v>0.05519884655909391</v>
       </c>
       <c r="G20">
-        <v>0.6116338135697045</v>
+        <v>0.07125565834875085</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6644,22 +6644,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6100820851565607</v>
+        <v>0.6335886339083463</v>
       </c>
       <c r="C21">
-        <v>0.5874426827226299</v>
+        <v>0.6326934108201927</v>
       </c>
       <c r="D21">
-        <v>0.2591436074416499</v>
+        <v>0.3212695831165623</v>
       </c>
       <c r="E21">
-        <v>0.2344912897672203</v>
+        <v>0.2917495917087637</v>
       </c>
       <c r="F21">
-        <v>0.5602820752704273</v>
+        <v>0.4056779569266208</v>
       </c>
       <c r="G21">
-        <v>0.6612238491248742</v>
+        <v>0.5301057405165841</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6667,22 +6667,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6030993518864363</v>
+        <v>0.6260765522568901</v>
       </c>
       <c r="C22">
-        <v>0.5800517298275508</v>
+        <v>0.624971178666704</v>
       </c>
       <c r="D22">
-        <v>0.2633265169273009</v>
+        <v>0.3296283128197046</v>
       </c>
       <c r="E22">
-        <v>0.2378740921717979</v>
+        <v>0.2984500435953585</v>
       </c>
       <c r="F22">
-        <v>0.5664502763016033</v>
+        <v>0.4090325683372456</v>
       </c>
       <c r="G22">
-        <v>0.6697032443856943</v>
+        <v>0.537014093136414</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6690,22 +6690,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7281385818292807</v>
+        <v>0.8498260105832358</v>
       </c>
       <c r="C23">
-        <v>0.6713390192186692</v>
+        <v>0.8647507541272953</v>
       </c>
       <c r="D23">
-        <v>0.2318054636287001</v>
+        <v>0.3096128112913875</v>
       </c>
       <c r="E23">
-        <v>0.2003780136905109</v>
+        <v>0.2686258837599124</v>
       </c>
       <c r="F23">
-        <v>0.5510405771098476</v>
+        <v>0.2452522397903442</v>
       </c>
       <c r="G23">
-        <v>0.6889347726712046</v>
+        <v>0.5002397716080587</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6713,22 +6713,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.83281364741177</v>
+        <v>0.9027568173600077</v>
       </c>
       <c r="C24">
-        <v>0.7857046178524252</v>
+        <v>0.9020722855109681</v>
       </c>
       <c r="D24">
-        <v>0.1513261791749957</v>
+        <v>0.2047071571315372</v>
       </c>
       <c r="E24">
-        <v>0.1340819294459815</v>
+        <v>0.1829057736887454</v>
       </c>
       <c r="F24">
-        <v>0.5677208538512152</v>
+        <v>0.146865583053857</v>
       </c>
       <c r="G24">
-        <v>0.6631775974496994</v>
+        <v>0.3189060850253556</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -6736,22 +6736,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7430513320093823</v>
+        <v>0.703021646778679</v>
       </c>
       <c r="C25">
-        <v>0.732661658438041</v>
+        <v>0.6919121468064431</v>
       </c>
       <c r="D25">
-        <v>0.137106062628811</v>
+        <v>0.1693500222924152</v>
       </c>
       <c r="E25">
-        <v>0.1357445807146673</v>
+        <v>0.1667324633421206</v>
       </c>
       <c r="F25">
-        <v>0.5712765968385966</v>
+        <v>0.2999690776728302</v>
       </c>
       <c r="G25">
-        <v>0.6037992439317461</v>
+        <v>0.3095599947718347</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6759,22 +6759,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.7407501036160152</v>
+        <v>0.6991553582291219</v>
       </c>
       <c r="C26">
-        <v>0.7300539286850141</v>
+        <v>0.6876049027915736</v>
       </c>
       <c r="D26">
-        <v>0.1385088496476126</v>
+        <v>0.172040376947712</v>
       </c>
       <c r="E26">
-        <v>0.1371090028439928</v>
+        <v>0.1693420191181888</v>
       </c>
       <c r="F26">
-        <v>0.5773139945848267</v>
+        <v>0.3002462946397459</v>
       </c>
       <c r="G26">
-        <v>0.610864793146231</v>
+        <v>0.3100383493658741</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6782,22 +6782,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7354498141801562</v>
+        <v>0.7307328123762316</v>
       </c>
       <c r="C27">
-        <v>0.7089728999805731</v>
+        <v>0.7228670630333892</v>
       </c>
       <c r="D27">
-        <v>0.1790872273632691</v>
+        <v>0.2303727275297299</v>
       </c>
       <c r="E27">
-        <v>0.1651812545937778</v>
+        <v>0.2130112450383381</v>
       </c>
       <c r="F27">
-        <v>0.5702657714865136</v>
+        <v>0.2871534882969783</v>
       </c>
       <c r="G27">
-        <v>0.6503897511823543</v>
+        <v>0.3762051022541351</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6805,22 +6805,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.4152282436953643</v>
+        <v>0.4174805478982616</v>
       </c>
       <c r="C28">
-        <v>0.4376560350498475</v>
+        <v>0.4340885695663554</v>
       </c>
       <c r="D28">
-        <v>0.4085155079137255</v>
+        <v>0.4082280581685608</v>
       </c>
       <c r="E28">
-        <v>0.3962717482251292</v>
+        <v>0.3958703646398643</v>
       </c>
       <c r="F28">
-        <v>0.5494464199953208</v>
+        <v>0.5469656016706997</v>
       </c>
       <c r="G28">
-        <v>0.5575145249531428</v>
+        <v>0.5551056381700294</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6828,22 +6828,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.6907829637137894</v>
+        <v>0.7616970514173772</v>
       </c>
       <c r="C29">
-        <v>0.6434624754282359</v>
+        <v>0.7639670219539814</v>
       </c>
       <c r="D29">
-        <v>0.2762744138644739</v>
+        <v>0.3595206303952622</v>
       </c>
       <c r="E29">
-        <v>0.2418841638125496</v>
+        <v>0.3143929021652648</v>
       </c>
       <c r="F29">
-        <v>0.5455781876021433</v>
+        <v>0.2650980165157408</v>
       </c>
       <c r="G29">
-        <v>0.681571278182679</v>
+        <v>0.5013109849836196</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -6851,22 +6851,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8687676433653506</v>
+        <v>0.8406908461593816</v>
       </c>
       <c r="C30">
-        <v>0.8532174489441396</v>
+        <v>0.8270361773222766</v>
       </c>
       <c r="D30">
-        <v>0.1410700463791259</v>
+        <v>0.1800911786280888</v>
       </c>
       <c r="E30">
-        <v>0.1306947866248579</v>
+        <v>0.1665221058492614</v>
       </c>
       <c r="F30">
-        <v>0.5613054766242046</v>
+        <v>0.1129854463511536</v>
       </c>
       <c r="G30">
-        <v>0.6074609621637772</v>
+        <v>0.1391009282858287</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6897,22 +6897,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.3973767059486368</v>
+        <v>0.3999740907176222</v>
       </c>
       <c r="C32">
-        <v>0.4263448288254725</v>
+        <v>0.421778808951914</v>
       </c>
       <c r="D32">
-        <v>0.3548973284342778</v>
+        <v>0.3537865454584105</v>
       </c>
       <c r="E32">
-        <v>0.3537245256347995</v>
+        <v>0.3525958279080936</v>
       </c>
       <c r="F32">
-        <v>0.5803513068471438</v>
+        <v>0.577722349173145</v>
       </c>
       <c r="G32">
-        <v>0.5809735943790548</v>
+        <v>0.5783503566011783</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6920,22 +6920,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.504335070903818</v>
+        <v>0.5082386082773941</v>
       </c>
       <c r="C33">
-        <v>0.504667456679739</v>
+        <v>0.5137953943996523</v>
       </c>
       <c r="D33">
-        <v>0.2985501768535443</v>
+        <v>0.3386970491507839</v>
       </c>
       <c r="E33">
-        <v>0.2823248170869187</v>
+        <v>0.3219501890880686</v>
       </c>
       <c r="F33">
-        <v>0.5742098931035232</v>
+        <v>0.5036291285536639</v>
       </c>
       <c r="G33">
-        <v>0.6312902053056052</v>
+        <v>0.5601020498548701</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6943,22 +6943,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.6058675153762603</v>
+        <v>0.5644421879897547</v>
       </c>
       <c r="C34">
-        <v>0.6012992743443744</v>
+        <v>0.5600025488818055</v>
       </c>
       <c r="D34">
-        <v>0.221904058436929</v>
+        <v>0.2541133053975513</v>
       </c>
       <c r="E34">
-        <v>0.2204890992909036</v>
+        <v>0.2524136572216985</v>
       </c>
       <c r="F34">
-        <v>0.579844322804226</v>
+        <v>0.4304726339085019</v>
       </c>
       <c r="G34">
-        <v>0.5980773607289622</v>
+        <v>0.4385688821315263</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6966,22 +6966,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.4090219638069447</v>
+        <v>0.4116733627174367</v>
       </c>
       <c r="C35">
-        <v>0.4362247126676917</v>
+        <v>0.4319446766799193</v>
       </c>
       <c r="D35">
-        <v>0.3422159460815317</v>
+        <v>0.3409421529847184</v>
       </c>
       <c r="E35">
-        <v>0.3422159460815317</v>
+        <v>0.3409421529847184</v>
       </c>
       <c r="F35">
-        <v>0.5772906588163893</v>
+        <v>0.574654190868324</v>
       </c>
       <c r="G35">
-        <v>0.5772906588163893</v>
+        <v>0.574654190868324</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6989,22 +6989,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7191977553415178</v>
+        <v>0.8370227943771472</v>
       </c>
       <c r="C36">
-        <v>0.661847766977756</v>
+        <v>0.8501100268213182</v>
       </c>
       <c r="D36">
-        <v>0.2394411196236221</v>
+        <v>0.3240179459237783</v>
       </c>
       <c r="E36">
-        <v>0.2067583860557204</v>
+        <v>0.2798800011220079</v>
       </c>
       <c r="F36">
-        <v>0.5585152246175213</v>
+        <v>0.2443702211304787</v>
       </c>
       <c r="G36">
-        <v>0.7007877381971015</v>
+        <v>0.5093021342136049</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -7012,22 +7012,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.6769365333317174</v>
+        <v>0.7394236684826679</v>
       </c>
       <c r="C37">
-        <v>0.6337049623540362</v>
+        <v>0.7405152839235742</v>
       </c>
       <c r="D37">
-        <v>0.244722789691313</v>
+        <v>0.3238624149472293</v>
       </c>
       <c r="E37">
-        <v>0.2144248491851722</v>
+        <v>0.2839695976947912</v>
       </c>
       <c r="F37">
-        <v>0.5617120852403208</v>
+        <v>0.3163837399057057</v>
       </c>
       <c r="G37">
-        <v>0.691872912113549</v>
+        <v>0.5194781989261398</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -7035,22 +7035,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7702129674079984</v>
+        <v>0.8687747263707061</v>
       </c>
       <c r="C38">
-        <v>0.7157655854761977</v>
+        <v>0.8777927256717446</v>
       </c>
       <c r="D38">
-        <v>0.201547646175282</v>
+        <v>0.2717039399972793</v>
       </c>
       <c r="E38">
-        <v>0.1761945738899802</v>
+        <v>0.2388829272137888</v>
       </c>
       <c r="F38">
-        <v>0.5628698377703971</v>
+        <v>0.2013189285271025</v>
       </c>
       <c r="G38">
-        <v>0.686743200936861</v>
+        <v>0.4244506960556803</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -7058,22 +7058,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7231790220066032</v>
+        <v>0.8462417201034169</v>
       </c>
       <c r="C39">
-        <v>0.6653390075959729</v>
+        <v>0.8612402203460759</v>
       </c>
       <c r="D39">
-        <v>0.2352539454632581</v>
+        <v>0.3180584559035605</v>
       </c>
       <c r="E39">
-        <v>0.2029963828692955</v>
+        <v>0.2748347702505748</v>
       </c>
       <c r="F39">
-        <v>0.557290980983183</v>
+        <v>0.2433613989382539</v>
       </c>
       <c r="G39">
-        <v>0.6987536744266007</v>
+        <v>0.5073916675589032</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7081,22 +7081,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9632604421720916</v>
+        <v>0.9540846434156141</v>
       </c>
       <c r="C40">
-        <v>0.9303076943290204</v>
+        <v>0.9267305732629169</v>
       </c>
       <c r="D40">
-        <v>0.04095485869362978</v>
+        <v>0.06944917985244652</v>
       </c>
       <c r="E40">
-        <v>0.0365827059774852</v>
+        <v>0.06011025784357241</v>
       </c>
       <c r="F40">
-        <v>0.5742377216063775</v>
+        <v>0.03148079815322674</v>
       </c>
       <c r="G40">
-        <v>0.6208447605204345</v>
+        <v>0.05776070401004119</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -7104,22 +7104,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.8485015528704403</v>
+        <v>0.8183168241561886</v>
       </c>
       <c r="C41">
-        <v>0.8349396282167942</v>
+        <v>0.8048701472249462</v>
       </c>
       <c r="D41">
-        <v>0.07725686857332305</v>
+        <v>0.1057639644587509</v>
       </c>
       <c r="E41">
-        <v>0.07594570422496758</v>
+        <v>0.1015522589018634</v>
       </c>
       <c r="F41">
-        <v>0.5758509041548713</v>
+        <v>0.1821613899345033</v>
       </c>
       <c r="G41">
-        <v>0.618345470547438</v>
+        <v>0.1918904505641793</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -7127,22 +7127,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.8989437040419563</v>
+        <v>0.9411324551079395</v>
       </c>
       <c r="C42">
-        <v>0.8606785627823218</v>
+        <v>0.9257762798164416</v>
       </c>
       <c r="D42">
-        <v>0.09353710555439072</v>
+        <v>0.1314833339165908</v>
       </c>
       <c r="E42">
-        <v>0.08330362781543993</v>
+        <v>0.1176762875558397</v>
       </c>
       <c r="F42">
-        <v>0.5722823032923018</v>
+        <v>0.08862005609470566</v>
       </c>
       <c r="G42">
-        <v>0.6387845788628654</v>
+        <v>0.2045033751705342</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -7153,19 +7153,19 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0.9408974921772638</v>
+        <v>0.943291305419786</v>
       </c>
       <c r="D43">
-        <v>0.01059575965435095</v>
+        <v>0.0485480031490812</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.03838478762250087</v>
       </c>
       <c r="F43">
-        <v>0.5730701138309839</v>
+        <v>0.0286072707517759</v>
       </c>
       <c r="G43">
-        <v>0.6191899337482664</v>
+        <v>0.05307331578900538</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -7196,22 +7196,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5252230852019089</v>
+        <v>0.5279548123128619</v>
       </c>
       <c r="C45">
-        <v>0.5380820776934179</v>
+        <v>0.5361914661233127</v>
       </c>
       <c r="D45">
-        <v>0.2718407929659925</v>
+        <v>0.2703088081894266</v>
       </c>
       <c r="E45">
-        <v>0.2718407929659925</v>
+        <v>0.2703088081894266</v>
       </c>
       <c r="F45">
-        <v>0.5167372231517031</v>
+        <v>0.5142014092676628</v>
       </c>
       <c r="G45">
-        <v>0.5167372231517031</v>
+        <v>0.5142014092676628</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -7219,22 +7219,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7453625290817368</v>
+        <v>0.8619045236409768</v>
       </c>
       <c r="C46">
-        <v>0.6920850829661468</v>
+        <v>0.8764337400022196</v>
       </c>
       <c r="D46">
-        <v>0.2195062344895122</v>
+        <v>0.2821551882196282</v>
       </c>
       <c r="E46">
-        <v>0.1909020904213352</v>
+        <v>0.2477799379289138</v>
       </c>
       <c r="F46">
-        <v>0.5292557099933903</v>
+        <v>0.2513554102026727</v>
       </c>
       <c r="G46">
-        <v>0.6560644891405379</v>
+        <v>0.4762899209256207</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -7245,19 +7245,19 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0.9436861321117416</v>
+        <v>0.9473595976671833</v>
       </c>
       <c r="D47">
-        <v>0.01011798501984874</v>
+        <v>0.04509054373754719</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.03567573067444453</v>
       </c>
       <c r="F47">
-        <v>0.5456195776680125</v>
+        <v>0.1017372325363263</v>
       </c>
       <c r="G47">
-        <v>0.5855761697936414</v>
+        <v>0.1121744346885862</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -7265,22 +7265,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7330314713761056</v>
+        <v>0.7783021075117953</v>
       </c>
       <c r="C48">
-        <v>0.6915167587704788</v>
+        <v>0.7769098704337732</v>
       </c>
       <c r="D48">
-        <v>0.2074849913713858</v>
+        <v>0.2715409760039469</v>
       </c>
       <c r="E48">
-        <v>0.1843009211201033</v>
+        <v>0.242467731306934</v>
       </c>
       <c r="F48">
-        <v>0.5581163478455298</v>
+        <v>0.2697383399027627</v>
       </c>
       <c r="G48">
-        <v>0.6702877489269765</v>
+        <v>0.4363279766917012</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -7288,22 +7288,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.7396176990285376</v>
+        <v>0.7096396544780059</v>
       </c>
       <c r="C49">
-        <v>0.7237313792971453</v>
+        <v>0.6992617958289219</v>
       </c>
       <c r="D49">
-        <v>0.153255960986918</v>
+        <v>0.1927979636738124</v>
       </c>
       <c r="E49">
-        <v>0.147172494089984</v>
+        <v>0.184752722308378</v>
       </c>
       <c r="F49">
-        <v>0.5734992549991698</v>
+        <v>0.2962397440529991</v>
       </c>
       <c r="G49">
-        <v>0.624020635963224</v>
+        <v>0.3326118676383701</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -7311,22 +7311,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6579062085905882</v>
+        <v>0.6663990427341744</v>
       </c>
       <c r="C50">
-        <v>0.6322842498725382</v>
+        <v>0.6621854390931802</v>
       </c>
       <c r="D50">
-        <v>0.2299586703913833</v>
+        <v>0.2899211545028393</v>
       </c>
       <c r="E50">
-        <v>0.209821388057247</v>
+        <v>0.265306895390518</v>
       </c>
       <c r="F50">
-        <v>0.5665402277985621</v>
+        <v>0.3615803203775388</v>
       </c>
       <c r="G50">
-        <v>0.6609554548329729</v>
+        <v>0.4715213452166019</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -7334,22 +7334,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.7994239338549104</v>
+        <v>0.8271151777734401</v>
       </c>
       <c r="C51">
-        <v>0.7612180502890504</v>
+        <v>0.8215758463195891</v>
       </c>
       <c r="D51">
-        <v>0.1590674228444933</v>
+        <v>0.2115987134381645</v>
       </c>
       <c r="E51">
-        <v>0.1429693836190481</v>
+        <v>0.1912976918561653</v>
       </c>
       <c r="F51">
-        <v>0.5674223921430258</v>
+        <v>0.2031621883576039</v>
       </c>
       <c r="G51">
-        <v>0.6581176426428534</v>
+        <v>0.3365683724939346</v>
       </c>
     </row>
   </sheetData>
@@ -7436,22 +7436,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7465,16 +7465,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7551,10 +7551,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -7566,7 +7566,7 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7597,22 +7597,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7626,16 +7626,16 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7666,10 +7666,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -7681,7 +7681,7 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7718,13 +7718,13 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -7735,22 +7735,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -7787,13 +7787,13 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -7827,10 +7827,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -7842,7 +7842,7 @@
         <v>4</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -7850,10 +7850,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -7865,7 +7865,7 @@
         <v>4</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7873,22 +7873,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -7902,13 +7902,13 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -8011,22 +8011,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -8040,16 +8040,16 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -8103,10 +8103,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -8115,7 +8115,7 @@
         <v>6</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -8172,22 +8172,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -8198,19 +8198,19 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>6</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -8218,19 +8218,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -8241,22 +8241,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -8270,16 +8270,16 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -8316,13 +8316,13 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -8339,13 +8339,13 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -8402,19 +8402,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <v>6</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -8454,13 +8454,13 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <v>6</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -8494,10 +8494,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -8509,7 +8509,7 @@
         <v>4</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -8523,13 +8523,13 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51">
         <v>6</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -8596,22 +8596,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5833895055644225</v>
+        <v>0.5951196566582958</v>
       </c>
       <c r="C3">
-        <v>0.6280551362330471</v>
+        <v>0.6240788893025111</v>
       </c>
       <c r="D3">
-        <v>0.1985333026051571</v>
+        <v>0.1907851954994328</v>
       </c>
       <c r="E3">
-        <v>0.1985333026051571</v>
+        <v>0.1907851954994328</v>
       </c>
       <c r="F3">
-        <v>0.4628341810338829</v>
+        <v>0.4554053614461894</v>
       </c>
       <c r="G3">
-        <v>0.4628341810338829</v>
+        <v>0.4554053614461894</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8619,22 +8619,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7435680852362336</v>
+        <v>0.8476969941189317</v>
       </c>
       <c r="C4">
-        <v>0.6917449036121875</v>
+        <v>0.8722532135372763</v>
       </c>
       <c r="D4">
-        <v>0.23935587700309</v>
+        <v>0.3185587575977052</v>
       </c>
       <c r="E4">
-        <v>0.2042567346366666</v>
+        <v>0.2726378202225888</v>
       </c>
       <c r="F4">
-        <v>0.5456866578773005</v>
+        <v>0.2169738378266709</v>
       </c>
       <c r="G4">
-        <v>0.7014722026517229</v>
+        <v>0.5056558525387763</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8645,19 +8645,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9443430416140326</v>
+        <v>0.9447074177795957</v>
       </c>
       <c r="D5">
-        <v>0.01020096751786845</v>
+        <v>0.01668100499373585</v>
       </c>
       <c r="E5">
+        <v>0.006546821388193756</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0.566466602471534</v>
-      </c>
       <c r="G5">
-        <v>0.6086211022113494</v>
+        <v>0.04187852175930987</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8688,22 +8688,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8219744593095141</v>
+        <v>0.8500945625099057</v>
       </c>
       <c r="C7">
-        <v>0.7896748229030255</v>
+        <v>0.8503363725774528</v>
       </c>
       <c r="D7">
-        <v>0.160440388046465</v>
+        <v>0.2043986443957695</v>
       </c>
       <c r="E7">
-        <v>0.1438247023337661</v>
+        <v>0.1848509838369918</v>
       </c>
       <c r="F7">
-        <v>0.5366699850559408</v>
+        <v>0.1892086942943544</v>
       </c>
       <c r="G7">
-        <v>0.6255252883821359</v>
+        <v>0.3261605695971081</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8711,22 +8711,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5843089823222606</v>
+        <v>0.5932820735487194</v>
       </c>
       <c r="C8">
-        <v>0.6193957971826224</v>
+        <v>0.6161497293859199</v>
       </c>
       <c r="D8">
-        <v>0.2902455819787311</v>
+        <v>0.2876870677719717</v>
       </c>
       <c r="E8">
-        <v>0.2882782263977948</v>
+        <v>0.2856693600617614</v>
       </c>
       <c r="F8">
-        <v>0.444559457256994</v>
+        <v>0.4379864376091883</v>
       </c>
       <c r="G8">
-        <v>0.4455601803370643</v>
+        <v>0.4390172312979095</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8734,22 +8734,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.714651965128249</v>
+        <v>0.7758330122719101</v>
       </c>
       <c r="C9">
-        <v>0.6793943771217213</v>
+        <v>0.7858907391438799</v>
       </c>
       <c r="D9">
-        <v>0.2459377384239179</v>
+        <v>0.3131200282710405</v>
       </c>
       <c r="E9">
-        <v>0.214822003240078</v>
+        <v>0.27479136092631</v>
       </c>
       <c r="F9">
-        <v>0.530052162342065</v>
+        <v>0.2842091971292479</v>
       </c>
       <c r="G9">
-        <v>0.6641243156979756</v>
+        <v>0.4918126081400808</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8757,22 +8757,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8194764550120452</v>
+        <v>0.8469824246088478</v>
       </c>
       <c r="C10">
-        <v>0.7865721849293582</v>
+        <v>0.8469820055519486</v>
       </c>
       <c r="D10">
-        <v>0.1626222917185124</v>
+        <v>0.2088708650444519</v>
       </c>
       <c r="E10">
-        <v>0.1456763365141797</v>
+        <v>0.1886629071491414</v>
       </c>
       <c r="F10">
-        <v>0.5476700687692874</v>
+        <v>0.1899509262486499</v>
       </c>
       <c r="G10">
-        <v>0.6398434663162177</v>
+        <v>0.3308898893296461</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8780,22 +8780,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7358706798548288</v>
+        <v>0.8233040493604927</v>
       </c>
       <c r="C11">
-        <v>0.6873137341850685</v>
+        <v>0.8399280705919095</v>
       </c>
       <c r="D11">
-        <v>0.2499759341231451</v>
+        <v>0.3283290476465134</v>
       </c>
       <c r="E11">
-        <v>0.2161368868823259</v>
+        <v>0.2842567995250644</v>
       </c>
       <c r="F11">
-        <v>0.539822035680332</v>
+        <v>0.2262223467927361</v>
       </c>
       <c r="G11">
-        <v>0.6909521507862704</v>
+        <v>0.4992890769825788</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8803,22 +8803,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9327694662477559</v>
+        <v>0.9157346172385337</v>
       </c>
       <c r="C12">
-        <v>0.9122589219199219</v>
+        <v>0.8982618332417387</v>
       </c>
       <c r="D12">
-        <v>0.07592287242464962</v>
+        <v>0.0960127061710437</v>
       </c>
       <c r="E12">
-        <v>0.07382461310251895</v>
+        <v>0.0931733707161243</v>
       </c>
       <c r="F12">
-        <v>0.5605305375630468</v>
+        <v>0.06868524977345637</v>
       </c>
       <c r="G12">
-        <v>0.6013145995603716</v>
+        <v>0.08240992908321357</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8849,22 +8849,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.714651965128249</v>
+        <v>0.7758330122719101</v>
       </c>
       <c r="C14">
-        <v>0.6793943771217213</v>
+        <v>0.7858907391438799</v>
       </c>
       <c r="D14">
-        <v>0.2459377384239179</v>
+        <v>0.3131200282710405</v>
       </c>
       <c r="E14">
-        <v>0.214822003240078</v>
+        <v>0.27479136092631</v>
       </c>
       <c r="F14">
-        <v>0.530052162342065</v>
+        <v>0.2842091971292479</v>
       </c>
       <c r="G14">
-        <v>0.6641243156979756</v>
+        <v>0.4918126081400808</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8872,22 +8872,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8194764550120452</v>
+        <v>0.8469824246088478</v>
       </c>
       <c r="C15">
-        <v>0.7865721849293582</v>
+        <v>0.8469820055519486</v>
       </c>
       <c r="D15">
-        <v>0.1626222917185124</v>
+        <v>0.2088708650444519</v>
       </c>
       <c r="E15">
-        <v>0.1456763365141797</v>
+        <v>0.1886629071491414</v>
       </c>
       <c r="F15">
-        <v>0.5476700687692874</v>
+        <v>0.1899509262486499</v>
       </c>
       <c r="G15">
-        <v>0.6398434663162177</v>
+        <v>0.3308898893296461</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8895,22 +8895,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8410682132455329</v>
+        <v>0.8872269726660514</v>
       </c>
       <c r="C16">
-        <v>0.801706201714644</v>
+        <v>0.8903331030092863</v>
       </c>
       <c r="D16">
-        <v>0.1588920659407104</v>
+        <v>0.2051259934593872</v>
       </c>
       <c r="E16">
-        <v>0.1415487091102623</v>
+        <v>0.1845323629835954</v>
       </c>
       <c r="F16">
-        <v>0.5415948487677894</v>
+        <v>0.143493892746652</v>
       </c>
       <c r="G16">
-        <v>0.6358066752868893</v>
+        <v>0.31462417927175</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8918,22 +8918,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7470201432373555</v>
+        <v>0.83260010677978</v>
       </c>
       <c r="C17">
-        <v>0.7005570689029704</v>
+        <v>0.8489358462586465</v>
       </c>
       <c r="D17">
-        <v>0.240965113194176</v>
+        <v>0.3083763560734182</v>
       </c>
       <c r="E17">
-        <v>0.2093080459556971</v>
+        <v>0.2695085351877028</v>
       </c>
       <c r="F17">
-        <v>0.517231541059055</v>
+        <v>0.2206472101224455</v>
       </c>
       <c r="G17">
-        <v>0.6574047268174024</v>
+        <v>0.4721846387861456</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -8941,22 +8941,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8271143106456827</v>
+        <v>0.8603120025547002</v>
       </c>
       <c r="C18">
-        <v>0.7936382344762944</v>
+        <v>0.8614244704734002</v>
       </c>
       <c r="D18">
-        <v>0.152698679472447</v>
+        <v>0.1960121277416655</v>
       </c>
       <c r="E18">
-        <v>0.1354013841012693</v>
+        <v>0.1757058663319002</v>
       </c>
       <c r="F18">
-        <v>0.5390863827629346</v>
+        <v>0.185108448407239</v>
       </c>
       <c r="G18">
-        <v>0.6289722517390027</v>
+        <v>0.3256172726615949</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -8964,22 +8964,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8475998186744035</v>
+        <v>0.9046833722088445</v>
       </c>
       <c r="C19">
-        <v>0.8063819212626475</v>
+        <v>0.9105760672275562</v>
       </c>
       <c r="D19">
-        <v>0.1507408682216615</v>
+        <v>0.1963044659683472</v>
       </c>
       <c r="E19">
-        <v>0.1326130103577668</v>
+        <v>0.1748519746721046</v>
       </c>
       <c r="F19">
-        <v>0.5442581441537566</v>
+        <v>0.1359770791955513</v>
       </c>
       <c r="G19">
-        <v>0.6396906233557944</v>
+        <v>0.313818811895596</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8990,19 +8990,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.9457499323218186</v>
+        <v>0.9469453411338554</v>
       </c>
       <c r="D20">
-        <v>0.009954375714789243</v>
+        <v>0.01603030228704647</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.006293845659503139</v>
       </c>
       <c r="F20">
-        <v>0.5430928632667487</v>
+        <v>0.04871494378924283</v>
       </c>
       <c r="G20">
-        <v>0.5809897925706353</v>
+        <v>0.06366259225252957</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -9010,22 +9010,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.731040071400233</v>
+        <v>0.7984621074009194</v>
       </c>
       <c r="C21">
-        <v>0.6951571409783771</v>
+        <v>0.8102002538311343</v>
       </c>
       <c r="D21">
-        <v>0.228005181013826</v>
+        <v>0.2871817325521159</v>
       </c>
       <c r="E21">
-        <v>0.1976991064911388</v>
+        <v>0.2513855071966606</v>
       </c>
       <c r="F21">
-        <v>0.5147719495975697</v>
+        <v>0.2723428691372125</v>
       </c>
       <c r="G21">
-        <v>0.643674371649812</v>
+        <v>0.4732592705357561</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -9033,22 +9033,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7200879734936692</v>
+        <v>0.7884136811388788</v>
       </c>
       <c r="C22">
-        <v>0.6828842087620238</v>
+        <v>0.8003649802521665</v>
       </c>
       <c r="D22">
-        <v>0.2359880680485373</v>
+        <v>0.3036717556432076</v>
       </c>
       <c r="E22">
-        <v>0.2038039946359754</v>
+        <v>0.2638738265487157</v>
       </c>
       <c r="F22">
-        <v>0.534832627113517</v>
+        <v>0.2809237255949701</v>
       </c>
       <c r="G22">
-        <v>0.6720663332091996</v>
+        <v>0.4967416556222352</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -9056,22 +9056,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7547767118758423</v>
+        <v>0.8561661323173948</v>
       </c>
       <c r="C23">
-        <v>0.705237758938833</v>
+        <v>0.8799224874837892</v>
       </c>
       <c r="D23">
-        <v>0.2304893921460696</v>
+        <v>0.2984184702564165</v>
       </c>
       <c r="E23">
-        <v>0.1976312000374882</v>
+        <v>0.2579665404123095</v>
       </c>
       <c r="F23">
-        <v>0.5218293183542845</v>
+        <v>0.211998124226778</v>
       </c>
       <c r="G23">
-        <v>0.6652753682433966</v>
+        <v>0.4766371544247019</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -9079,22 +9079,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8453220364348094</v>
+        <v>0.9024750907512443</v>
       </c>
       <c r="C24">
-        <v>0.8033347299654435</v>
+        <v>0.9082928993638937</v>
       </c>
       <c r="D24">
-        <v>0.1528962543925768</v>
+        <v>0.2009387250344504</v>
       </c>
       <c r="E24">
-        <v>0.1344059655225006</v>
+        <v>0.1787301687386245</v>
       </c>
       <c r="F24">
-        <v>0.5566416455273053</v>
+        <v>0.1340730162113874</v>
       </c>
       <c r="G24">
-        <v>0.6563269530722595</v>
+        <v>0.3186449049908016</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -9102,22 +9102,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8861314775072059</v>
+        <v>0.8672764215887244</v>
       </c>
       <c r="C25">
-        <v>0.877636402200477</v>
+        <v>0.8563270510506636</v>
       </c>
       <c r="D25">
-        <v>0.05179029835402697</v>
+        <v>0.06155980545642803</v>
       </c>
       <c r="E25">
-        <v>0.05054164717922704</v>
+        <v>0.05964883361237149</v>
       </c>
       <c r="F25">
-        <v>0.5343044779211554</v>
+        <v>0.1692003386767018</v>
       </c>
       <c r="G25">
-        <v>0.5678973537054072</v>
+        <v>0.1772297746101483</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -9125,22 +9125,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.883746224154051</v>
+        <v>0.8629465915642107</v>
       </c>
       <c r="C26">
-        <v>0.8748386963339527</v>
+        <v>0.8512697167309554</v>
       </c>
       <c r="D26">
-        <v>0.05295800533947284</v>
+        <v>0.06375531019990212</v>
       </c>
       <c r="E26">
-        <v>0.05166097114065428</v>
+        <v>0.06174154582862463</v>
       </c>
       <c r="F26">
-        <v>0.5540568009890522</v>
+        <v>0.1691235688221149</v>
       </c>
       <c r="G26">
-        <v>0.5906796721403067</v>
+        <v>0.1776741597987491</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -9148,22 +9148,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.8246550481550924</v>
+        <v>0.8573453331251499</v>
       </c>
       <c r="C27">
-        <v>0.7905538593300415</v>
+        <v>0.8582412221563157</v>
       </c>
       <c r="D27">
-        <v>0.1548043800906592</v>
+        <v>0.2003811256224902</v>
       </c>
       <c r="E27">
-        <v>0.1371696531106175</v>
+        <v>0.1793977730015627</v>
       </c>
       <c r="F27">
-        <v>0.5503742428575992</v>
+        <v>0.1857066916966458</v>
       </c>
       <c r="G27">
-        <v>0.6437495026310829</v>
+        <v>0.3304073564239175</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -9171,22 +9171,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.5855664371561965</v>
+        <v>0.5908294505494531</v>
       </c>
       <c r="C28">
-        <v>0.6069424719170079</v>
+        <v>0.6048542683722559</v>
       </c>
       <c r="D28">
-        <v>0.3787357737619018</v>
+        <v>0.3782090669234779</v>
       </c>
       <c r="E28">
-        <v>0.3752526393391849</v>
+        <v>0.3746931945584946</v>
       </c>
       <c r="F28">
-        <v>0.4144140612333595</v>
+        <v>0.409545055265208</v>
       </c>
       <c r="G28">
-        <v>0.4171392273633343</v>
+        <v>0.4123341894275096</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -9194,22 +9194,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7171055442389606</v>
+        <v>0.7764770653772642</v>
       </c>
       <c r="C29">
-        <v>0.6761003970447271</v>
+        <v>0.7841235651999127</v>
       </c>
       <c r="D29">
-        <v>0.2759550743322068</v>
+        <v>0.35148000685717</v>
       </c>
       <c r="E29">
-        <v>0.2447391285745194</v>
+        <v>0.3116420953230343</v>
       </c>
       <c r="F29">
-        <v>0.5244116676613697</v>
+        <v>0.2472351803812298</v>
       </c>
       <c r="G29">
-        <v>0.6642528256382223</v>
+        <v>0.483311398119991</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -9217,22 +9217,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.875711540274725</v>
+        <v>0.8478334488707201</v>
       </c>
       <c r="C30">
-        <v>0.861623831006457</v>
+        <v>0.8351047554446072</v>
       </c>
       <c r="D30">
-        <v>0.1391453943274232</v>
+        <v>0.1713449648907186</v>
       </c>
       <c r="E30">
-        <v>0.1362462116539925</v>
+        <v>0.1678014043642222</v>
       </c>
       <c r="F30">
-        <v>0.5448072553077312</v>
+        <v>0.125575240448783</v>
       </c>
       <c r="G30">
-        <v>0.582207652025269</v>
+        <v>0.1369087583082246</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -9263,22 +9263,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5836672518551845</v>
+        <v>0.5945605515888774</v>
       </c>
       <c r="C32">
-        <v>0.6254761860760419</v>
+        <v>0.6217111293900414</v>
       </c>
       <c r="D32">
-        <v>0.2312465837336578</v>
+        <v>0.2259335047271575</v>
       </c>
       <c r="E32">
-        <v>0.2304420084854075</v>
+        <v>0.2250884336244149</v>
       </c>
       <c r="F32">
-        <v>0.4575862677987951</v>
+        <v>0.4503904587096078</v>
       </c>
       <c r="G32">
-        <v>0.457871429523614</v>
+        <v>0.4506847831125348</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -9286,22 +9286,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.6796632500471376</v>
+        <v>0.7163584619374379</v>
       </c>
       <c r="C33">
-        <v>0.6668176701229993</v>
+        <v>0.726653614273438</v>
       </c>
       <c r="D33">
-        <v>0.2285769351690749</v>
+        <v>0.2751048547074359</v>
       </c>
       <c r="E33">
-        <v>0.2027931667949132</v>
+        <v>0.2462947774332559</v>
       </c>
       <c r="F33">
-        <v>0.5146496466967279</v>
+        <v>0.3534885115916857</v>
       </c>
       <c r="G33">
-        <v>0.6186765980342933</v>
+        <v>0.4824200287892448</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -9309,22 +9309,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.7995875762143853</v>
+        <v>0.7725113785174949</v>
       </c>
       <c r="C34">
-        <v>0.7996808598931262</v>
+        <v>0.7674405745577753</v>
       </c>
       <c r="D34">
-        <v>0.09347356296583163</v>
+        <v>0.1070229895120647</v>
       </c>
       <c r="E34">
-        <v>0.09240628298143788</v>
+        <v>0.1056904148305841</v>
       </c>
       <c r="F34">
-        <v>0.5301818021049729</v>
+        <v>0.2727912427014754</v>
       </c>
       <c r="G34">
-        <v>0.5568809236768685</v>
+        <v>0.2805609333572353</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -9332,22 +9332,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.6196388551718811</v>
+        <v>0.6309939415095885</v>
       </c>
       <c r="C35">
-        <v>0.6555631745939313</v>
+        <v>0.6525525599913667</v>
       </c>
       <c r="D35">
-        <v>0.1817170984451955</v>
+        <v>0.1743374022581143</v>
       </c>
       <c r="E35">
-        <v>0.1817170984451955</v>
+        <v>0.1743374022581143</v>
       </c>
       <c r="F35">
-        <v>0.4357916642934527</v>
+        <v>0.4285618494628151</v>
       </c>
       <c r="G35">
-        <v>0.4357916642934527</v>
+        <v>0.4285618494628151</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -9355,22 +9355,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.741559878526424</v>
+        <v>0.8408870631881331</v>
       </c>
       <c r="C36">
-        <v>0.6905987261490665</v>
+        <v>0.8628689254962787</v>
       </c>
       <c r="D36">
-        <v>0.2421271902683078</v>
+        <v>0.3211240636191786</v>
       </c>
       <c r="E36">
-        <v>0.2073704927983214</v>
+        <v>0.2756943046940091</v>
       </c>
       <c r="F36">
-        <v>0.5441813680015597</v>
+        <v>0.2194258936619453</v>
       </c>
       <c r="G36">
-        <v>0.6987494391206576</v>
+        <v>0.504005891381582</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -9378,22 +9378,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.7368776095302655</v>
+        <v>0.8283254229734686</v>
       </c>
       <c r="C37">
-        <v>0.6892666787128793</v>
+        <v>0.8469732670365685</v>
       </c>
       <c r="D37">
-        <v>0.2384576799179927</v>
+        <v>0.3144474731652419</v>
       </c>
       <c r="E37">
-        <v>0.2041364090418625</v>
+        <v>0.2702468990339033</v>
       </c>
       <c r="F37">
-        <v>0.542669938304744</v>
+        <v>0.2380894879738843</v>
       </c>
       <c r="G37">
-        <v>0.6931900723881417</v>
+        <v>0.5030821902874502</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -9401,22 +9401,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7877382822391741</v>
+        <v>0.8698168449311983</v>
       </c>
       <c r="C38">
-        <v>0.7392898721575212</v>
+        <v>0.8872251519567281</v>
       </c>
       <c r="D38">
-        <v>0.2038331915164492</v>
+        <v>0.2688996876908689</v>
       </c>
       <c r="E38">
-        <v>0.1765573024400094</v>
+        <v>0.2348203440131126</v>
       </c>
       <c r="F38">
-        <v>0.5502183910992186</v>
+        <v>0.1820157624715618</v>
       </c>
       <c r="G38">
-        <v>0.6835257650317658</v>
+        <v>0.4227424022178289</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -9424,22 +9424,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7465302188505748</v>
+        <v>0.8499621384236506</v>
       </c>
       <c r="C39">
-        <v>0.695316751182267</v>
+        <v>0.8743141841248887</v>
       </c>
       <c r="D39">
-        <v>0.2370336328950051</v>
+        <v>0.3130848573798959</v>
       </c>
       <c r="E39">
-        <v>0.2025327341253426</v>
+        <v>0.2687074385236159</v>
       </c>
       <c r="F39">
-        <v>0.5392659542761921</v>
+        <v>0.2156193895715785</v>
       </c>
       <c r="G39">
-        <v>0.6914307741283627</v>
+        <v>0.497677031333035</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -9447,22 +9447,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9650821125609175</v>
+        <v>0.9557408907349942</v>
       </c>
       <c r="C40">
-        <v>0.9343880464354545</v>
+        <v>0.9291719856838252</v>
       </c>
       <c r="D40">
-        <v>0.04044050686315206</v>
+        <v>0.05242191893080121</v>
       </c>
       <c r="E40">
-        <v>0.03842614986778301</v>
+        <v>0.04935395029372732</v>
       </c>
       <c r="F40">
-        <v>0.5649454367503762</v>
+        <v>0.03580196384481558</v>
       </c>
       <c r="G40">
-        <v>0.606743436347738</v>
+        <v>0.05564783058167459</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -9470,22 +9470,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9375352638866411</v>
+        <v>0.9249970984827637</v>
       </c>
       <c r="C41">
-        <v>0.9184482258637575</v>
+        <v>0.9066274422632704</v>
       </c>
       <c r="D41">
-        <v>0.02897513110696572</v>
+        <v>0.03660021914636272</v>
       </c>
       <c r="E41">
-        <v>0.02699640890365447</v>
+        <v>0.03322355844181979</v>
       </c>
       <c r="F41">
-        <v>0.5630456322128969</v>
+        <v>0.09429621761649165</v>
       </c>
       <c r="G41">
-        <v>0.6036423744318898</v>
+        <v>0.1046793927989877</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -9493,22 +9493,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9066106823183097</v>
+        <v>0.9404710565816832</v>
       </c>
       <c r="C42">
-        <v>0.872119610890123</v>
+        <v>0.9293382755696104</v>
       </c>
       <c r="D42">
-        <v>0.09443766466114327</v>
+        <v>0.1248946837769235</v>
       </c>
       <c r="E42">
-        <v>0.08353288243293981</v>
+        <v>0.1118891878724057</v>
       </c>
       <c r="F42">
-        <v>0.5626591997308986</v>
+        <v>0.08127339221248669</v>
       </c>
       <c r="G42">
-        <v>0.62821813677942</v>
+        <v>0.2045233710421654</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -9519,19 +9519,19 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0.9447052042030372</v>
+        <v>0.9452938659930052</v>
       </c>
       <c r="D43">
-        <v>0.01013759929995139</v>
+        <v>0.01651088529568628</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.006480721558118199</v>
       </c>
       <c r="F43">
-        <v>0.5601957602396633</v>
+        <v>0.02555305386556565</v>
       </c>
       <c r="G43">
-        <v>0.60113257346264</v>
+        <v>0.04873421891289208</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -9562,22 +9562,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.7831893359622574</v>
+        <v>0.7913063140978893</v>
       </c>
       <c r="C45">
-        <v>0.7958176351048862</v>
+        <v>0.7953149951906463</v>
       </c>
       <c r="D45">
-        <v>0.1005673868737842</v>
+        <v>0.09583033761289843</v>
       </c>
       <c r="E45">
-        <v>0.1005673868737842</v>
+        <v>0.09583033761289843</v>
       </c>
       <c r="F45">
-        <v>0.2959237302188225</v>
+        <v>0.2909478835497425</v>
       </c>
       <c r="G45">
-        <v>0.2959237302188225</v>
+        <v>0.2909478835497425</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -9585,22 +9585,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7806774458383453</v>
+        <v>0.8747660946794792</v>
       </c>
       <c r="C46">
-        <v>0.7362208730482079</v>
+        <v>0.8964406339566774</v>
       </c>
       <c r="D46">
-        <v>0.209206766544608</v>
+        <v>0.2567391550407586</v>
       </c>
       <c r="E46">
-        <v>0.1812685789115424</v>
+        <v>0.2258907506721728</v>
       </c>
       <c r="F46">
-        <v>0.470329613104297</v>
+        <v>0.2019500614207097</v>
       </c>
       <c r="G46">
-        <v>0.594141802991048</v>
+        <v>0.4189523376539666</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -9611,19 +9611,19 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0.9493970834970579</v>
+        <v>0.95229681242279</v>
       </c>
       <c r="D47">
-        <v>0.009309982338673771</v>
+        <v>0.01445862353657368</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.005681290301124722</v>
       </c>
       <c r="F47">
-        <v>0.4919671513808326</v>
+        <v>0.0859478186869549</v>
       </c>
       <c r="G47">
-        <v>0.5226491511247882</v>
+        <v>0.09467823263904175</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -9631,22 +9631,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7873519008177162</v>
+        <v>0.858080848762489</v>
       </c>
       <c r="C48">
-        <v>0.7436479183401954</v>
+        <v>0.8709257019315724</v>
       </c>
       <c r="D48">
-        <v>0.1985022368689943</v>
+        <v>0.2557319861156861</v>
       </c>
       <c r="E48">
-        <v>0.1727811631993164</v>
+        <v>0.2249260654833032</v>
       </c>
       <c r="F48">
-        <v>0.5290463997388355</v>
+        <v>0.1992485177661545</v>
       </c>
       <c r="G48">
-        <v>0.6508948844613186</v>
+        <v>0.4096842081726439</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -9654,22 +9654,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.861587740518329</v>
+        <v>0.8620169034933552</v>
       </c>
       <c r="C49">
-        <v>0.8409709747611275</v>
+        <v>0.8547378067918692</v>
       </c>
       <c r="D49">
-        <v>0.1022287808301736</v>
+        <v>0.1304419023980224</v>
       </c>
       <c r="E49">
-        <v>0.09276506697320534</v>
+        <v>0.119169182545016</v>
       </c>
       <c r="F49">
-        <v>0.5483074641585679</v>
+        <v>0.1746947142829705</v>
       </c>
       <c r="G49">
-        <v>0.6063402258511904</v>
+        <v>0.2433481456200598</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -9677,22 +9677,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.7657465634796642</v>
+        <v>0.816867049559945</v>
       </c>
       <c r="C50">
-        <v>0.7290757775677701</v>
+        <v>0.8244298929874655</v>
       </c>
       <c r="D50">
-        <v>0.2022073695219828</v>
+        <v>0.2593423287709773</v>
       </c>
       <c r="E50">
-        <v>0.176931991516813</v>
+        <v>0.2289609162523097</v>
       </c>
       <c r="F50">
-        <v>0.5365653650419249</v>
+        <v>0.2416964565526179</v>
       </c>
       <c r="G50">
-        <v>0.6552144741810474</v>
+        <v>0.423600807283849</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -9700,22 +9700,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.8402450639123783</v>
+        <v>0.8890045066132273</v>
       </c>
       <c r="C51">
-        <v>0.800693931358348</v>
+        <v>0.8927762741373388</v>
       </c>
       <c r="D51">
-        <v>0.1528443900228251</v>
+        <v>0.1996197827520216</v>
       </c>
       <c r="E51">
-        <v>0.1346675677725746</v>
+        <v>0.1779216104991737</v>
       </c>
       <c r="F51">
-        <v>0.5518532253045774</v>
+        <v>0.1503847461142124</v>
       </c>
       <c r="G51">
-        <v>0.6487724736651354</v>
+        <v>0.3205662803780874</v>
       </c>
     </row>
   </sheetData>
@@ -9802,22 +9802,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9831,13 +9831,13 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -9871,19 +9871,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -9917,19 +9917,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -9946,13 +9946,13 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -9963,22 +9963,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9992,16 +9992,16 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -10032,19 +10032,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>6</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -10061,13 +10061,13 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>6</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -10078,19 +10078,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -10101,19 +10101,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -10124,19 +10124,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>6</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -10147,19 +10147,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -10193,19 +10193,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -10216,19 +10216,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>6</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -10239,19 +10239,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -10262,19 +10262,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -10331,19 +10331,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -10377,19 +10377,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -10406,16 +10406,16 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -10469,10 +10469,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -10492,10 +10492,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -10538,22 +10538,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -10561,22 +10561,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -10584,19 +10584,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -10607,19 +10607,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -10636,13 +10636,13 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -10682,13 +10682,13 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -10768,19 +10768,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -10814,19 +10814,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -10860,19 +10860,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>6</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -10883,19 +10883,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -10962,22 +10962,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4648782791769475</v>
+        <v>0.4661397809511107</v>
       </c>
       <c r="C3">
-        <v>0.4922410243221242</v>
+        <v>0.4909718014790235</v>
       </c>
       <c r="D3">
-        <v>0.3108568753453836</v>
+        <v>0.3101993332722164</v>
       </c>
       <c r="E3">
-        <v>0.3108568753453836</v>
+        <v>0.3101993332722164</v>
       </c>
       <c r="F3">
-        <v>0.5109017199831495</v>
+        <v>0.509635581125375</v>
       </c>
       <c r="G3">
-        <v>0.5109017199831495</v>
+        <v>0.509635581125375</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10985,22 +10985,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6905920867886948</v>
+        <v>0.8389166165138354</v>
       </c>
       <c r="C4">
-        <v>0.6257770385027164</v>
+        <v>0.8449450733897832</v>
       </c>
       <c r="D4">
-        <v>0.2378261315480352</v>
+        <v>0.3354433853295836</v>
       </c>
       <c r="E4">
-        <v>0.2039882598457161</v>
+        <v>0.288153224604947</v>
       </c>
       <c r="F4">
-        <v>0.5528435249474821</v>
+        <v>0.236112569668924</v>
       </c>
       <c r="G4">
-        <v>0.7035957731349092</v>
+        <v>0.5115604266896212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -11011,19 +11011,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9560030347745875</v>
+        <v>0.9560030347745876</v>
       </c>
       <c r="D5">
-        <v>0.007291688338287276</v>
+        <v>0.007291688338287144</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7013359694557243</v>
+        <v>0.05118204313706091</v>
       </c>
       <c r="G5">
-        <v>0.7314681577624442</v>
+        <v>0.08131423144378071</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -11054,22 +11054,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7572516228056326</v>
+        <v>0.7631679326097723</v>
       </c>
       <c r="C7">
-        <v>0.7299033453148885</v>
+        <v>0.7591410334662237</v>
       </c>
       <c r="D7">
-        <v>0.1675091768930958</v>
+        <v>0.2100973371616638</v>
       </c>
       <c r="E7">
-        <v>0.1549279269578382</v>
+        <v>0.1958108639933343</v>
       </c>
       <c r="F7">
-        <v>0.5863994948264433</v>
+        <v>0.2756620077928171</v>
       </c>
       <c r="G7">
-        <v>0.6502024230938431</v>
+        <v>0.3620550282716046</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11077,22 +11077,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4702019985395788</v>
+        <v>0.471390934770155</v>
       </c>
       <c r="C8">
-        <v>0.4951892416768263</v>
+        <v>0.4940234131622339</v>
       </c>
       <c r="D8">
-        <v>0.3327779882369519</v>
+        <v>0.3323120266311594</v>
       </c>
       <c r="E8">
-        <v>0.3327552066936167</v>
+        <v>0.3322891209099932</v>
       </c>
       <c r="F8">
-        <v>0.5045765446448373</v>
+        <v>0.5033617457672216</v>
       </c>
       <c r="G8">
-        <v>0.50458788472573</v>
+        <v>0.503373140648017</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -11100,22 +11100,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6098872093334684</v>
+        <v>0.6453323176935112</v>
       </c>
       <c r="C9">
-        <v>0.5801448671291186</v>
+        <v>0.6457764388292218</v>
       </c>
       <c r="D9">
-        <v>0.2621629271393284</v>
+        <v>0.3343318092782813</v>
       </c>
       <c r="E9">
-        <v>0.2362849975798527</v>
+        <v>0.3030914457863078</v>
       </c>
       <c r="F9">
-        <v>0.5375667664871538</v>
+        <v>0.377997053261784</v>
       </c>
       <c r="G9">
-        <v>0.6455405162290865</v>
+        <v>0.5082193101054986</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -11123,22 +11123,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7466590452419998</v>
+        <v>0.7479607981613532</v>
       </c>
       <c r="C10">
-        <v>0.7177246084425141</v>
+        <v>0.7428603545808705</v>
       </c>
       <c r="D10">
-        <v>0.1748783374618938</v>
+        <v>0.2251681212657509</v>
       </c>
       <c r="E10">
-        <v>0.1614295318749628</v>
+        <v>0.2092229551704601</v>
       </c>
       <c r="F10">
-        <v>0.6092998819011992</v>
+        <v>0.2719598901399469</v>
       </c>
       <c r="G10">
-        <v>0.6791645959589167</v>
+        <v>0.366877600342862</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -11146,22 +11146,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6838851512024854</v>
+        <v>0.808686458287968</v>
       </c>
       <c r="C11">
-        <v>0.6224701806156009</v>
+        <v>0.8110224929426025</v>
       </c>
       <c r="D11">
-        <v>0.2485685034416558</v>
+        <v>0.3450253033854663</v>
       </c>
       <c r="E11">
-        <v>0.2162345282099882</v>
+        <v>0.3001788559195678</v>
       </c>
       <c r="F11">
-        <v>0.548758173597823</v>
+        <v>0.2482967370279354</v>
       </c>
       <c r="G11">
-        <v>0.6953864180457345</v>
+        <v>0.5073452131231907</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -11169,22 +11169,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9302039548616193</v>
+        <v>0.9107680424970154</v>
       </c>
       <c r="C12">
-        <v>0.9167030139263097</v>
+        <v>0.8991541252499464</v>
       </c>
       <c r="D12">
-        <v>0.0725241837154387</v>
+        <v>0.09251741630735007</v>
       </c>
       <c r="E12">
-        <v>0.07171925709336303</v>
+        <v>0.09166733802709379</v>
       </c>
       <c r="F12">
-        <v>0.6930114835177912</v>
+        <v>0.09144221431229375</v>
       </c>
       <c r="G12">
-        <v>0.7216419222592469</v>
+        <v>0.1105772639555334</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -11215,22 +11215,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6098872093334684</v>
+        <v>0.6453323176935112</v>
       </c>
       <c r="C14">
-        <v>0.5801448671291186</v>
+        <v>0.6457764388292218</v>
       </c>
       <c r="D14">
-        <v>0.2621629271393284</v>
+        <v>0.3343318092782813</v>
       </c>
       <c r="E14">
-        <v>0.2362849975798527</v>
+        <v>0.3030914457863078</v>
       </c>
       <c r="F14">
-        <v>0.5375667664871538</v>
+        <v>0.377997053261784</v>
       </c>
       <c r="G14">
-        <v>0.6455405162290865</v>
+        <v>0.5082193101054986</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -11238,22 +11238,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7466590452419998</v>
+        <v>0.7479607981613532</v>
       </c>
       <c r="C15">
-        <v>0.7177246084425141</v>
+        <v>0.7428603545808705</v>
       </c>
       <c r="D15">
-        <v>0.1748783374618938</v>
+        <v>0.2251681212657509</v>
       </c>
       <c r="E15">
-        <v>0.1614295318749628</v>
+        <v>0.2092229551704601</v>
       </c>
       <c r="F15">
-        <v>0.6092998819011992</v>
+        <v>0.2719598901399469</v>
       </c>
       <c r="G15">
-        <v>0.6791645959589167</v>
+        <v>0.366877600342862</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -11261,22 +11261,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8229779403972274</v>
+        <v>0.8899118347405712</v>
       </c>
       <c r="C16">
-        <v>0.7796591495605236</v>
+        <v>0.8877567550863482</v>
       </c>
       <c r="D16">
-        <v>0.1488360723681743</v>
+        <v>0.1928737602676383</v>
       </c>
       <c r="E16">
-        <v>0.1339064519680262</v>
+        <v>0.1756165717782755</v>
       </c>
       <c r="F16">
-        <v>0.5992691312502734</v>
+        <v>0.1841859127903719</v>
       </c>
       <c r="G16">
-        <v>0.6732353043933447</v>
+        <v>0.3253939093320863</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -11284,22 +11284,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7272358071187174</v>
+        <v>0.8421254523017822</v>
       </c>
       <c r="C17">
-        <v>0.6739035743974632</v>
+        <v>0.8459312764338771</v>
       </c>
       <c r="D17">
-        <v>0.2200304975131563</v>
+        <v>0.2780400944133468</v>
       </c>
       <c r="E17">
-        <v>0.1940377909223095</v>
+        <v>0.2485926996451586</v>
       </c>
       <c r="F17">
-        <v>0.5085187044544055</v>
+        <v>0.2670408289476807</v>
       </c>
       <c r="G17">
-        <v>0.6324777100981831</v>
+        <v>0.4629196658519881</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -11307,22 +11307,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7601113718247209</v>
+        <v>0.7674879009026384</v>
       </c>
       <c r="C18">
-        <v>0.7322293377432333</v>
+        <v>0.7635146119387786</v>
       </c>
       <c r="D18">
-        <v>0.1614778240154079</v>
+        <v>0.2035611694595067</v>
       </c>
       <c r="E18">
-        <v>0.1484283076653557</v>
+        <v>0.1887217484162544</v>
       </c>
       <c r="F18">
-        <v>0.5881803397398637</v>
+        <v>0.2735965808852694</v>
       </c>
       <c r="G18">
-        <v>0.6525975243034611</v>
+        <v>0.3614704476338252</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -11330,22 +11330,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8287887330965263</v>
+        <v>0.9095629932203704</v>
       </c>
       <c r="C19">
-        <v>0.7837200287332486</v>
+        <v>0.9083601739889513</v>
       </c>
       <c r="D19">
-        <v>0.1409616367353773</v>
+        <v>0.1842620976203346</v>
       </c>
       <c r="E19">
-        <v>0.1251168673890899</v>
+        <v>0.1659874228292609</v>
       </c>
       <c r="F19">
-        <v>0.601541438047113</v>
+        <v>0.177825462886911</v>
       </c>
       <c r="G19">
-        <v>0.6764293437696753</v>
+        <v>0.3240421617148518</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -11356,19 +11356,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.9594076557840231</v>
+        <v>0.9614007348445432</v>
       </c>
       <c r="D20">
-        <v>0.006745254822744831</v>
+        <v>0.006422707430007855</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6339769648167035</v>
+        <v>0.1455454260291701</v>
       </c>
       <c r="G20">
-        <v>0.655502736014275</v>
+        <v>0.1571182991293699</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -11376,22 +11376,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6538723586383619</v>
+        <v>0.6928681931431673</v>
       </c>
       <c r="C21">
-        <v>0.6258386807249166</v>
+        <v>0.6938487202903914</v>
       </c>
       <c r="D21">
-        <v>0.2296578282979189</v>
+        <v>0.2783013982450631</v>
       </c>
       <c r="E21">
-        <v>0.2076833933711914</v>
+        <v>0.2547015617931962</v>
       </c>
       <c r="F21">
-        <v>0.5108218795709776</v>
+        <v>0.3654731633124741</v>
       </c>
       <c r="G21">
-        <v>0.6089155514455135</v>
+        <v>0.4791992749364459</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -11399,22 +11399,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.61187992039582</v>
+        <v>0.6491461694860153</v>
       </c>
       <c r="C22">
-        <v>0.5812519951369617</v>
+        <v>0.6496683636633607</v>
       </c>
       <c r="D22">
-        <v>0.2545273750454631</v>
+        <v>0.3273141041394023</v>
       </c>
       <c r="E22">
-        <v>0.2278784535327328</v>
+        <v>0.2948984214943631</v>
       </c>
       <c r="F22">
-        <v>0.5401687706386217</v>
+        <v>0.3770626738131139</v>
       </c>
       <c r="G22">
-        <v>0.6499827173537405</v>
+        <v>0.5108058366530126</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -11422,22 +11422,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7341698571832963</v>
+        <v>0.8685102629338857</v>
       </c>
       <c r="C23">
-        <v>0.6780279195953963</v>
+        <v>0.8751767015284894</v>
       </c>
       <c r="D23">
-        <v>0.2098446440216495</v>
+        <v>0.2679731976780143</v>
       </c>
       <c r="E23">
-        <v>0.1825376488439826</v>
+        <v>0.2369450868741212</v>
       </c>
       <c r="F23">
-        <v>0.5107943386004333</v>
+        <v>0.2599787047450495</v>
       </c>
       <c r="G23">
-        <v>0.6369931483555459</v>
+        <v>0.4646077624585439</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -11445,22 +11445,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8201202040434171</v>
+        <v>0.9019641867536925</v>
       </c>
       <c r="C24">
-        <v>0.7724443240595812</v>
+        <v>0.9000272064949008</v>
       </c>
       <c r="D24">
-        <v>0.1478196627124898</v>
+        <v>0.1996822997569619</v>
       </c>
       <c r="E24">
-        <v>0.1309184784512289</v>
+        <v>0.1792058779647956</v>
       </c>
       <c r="F24">
-        <v>0.6316413183896546</v>
+        <v>0.1482677209968468</v>
       </c>
       <c r="G24">
-        <v>0.7171377387353818</v>
+        <v>0.3258496887599208</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -11468,22 +11468,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7863534313641088</v>
+        <v>0.7507643327620064</v>
       </c>
       <c r="C25">
-        <v>0.7807408852575213</v>
+        <v>0.7457726748200623</v>
       </c>
       <c r="D25">
-        <v>0.1118838343540779</v>
+        <v>0.1326721249048786</v>
       </c>
       <c r="E25">
-        <v>0.1111783280768344</v>
+        <v>0.1320043957757978</v>
       </c>
       <c r="F25">
-        <v>0.6061468413176495</v>
+        <v>0.283585664333862</v>
       </c>
       <c r="G25">
-        <v>0.622671418447709</v>
+        <v>0.2907670659825423</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -11491,22 +11491,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.7738771070745654</v>
+        <v>0.7287865266217046</v>
       </c>
       <c r="C26">
-        <v>0.7671868989896814</v>
+        <v>0.7223522111310315</v>
       </c>
       <c r="D26">
-        <v>0.1192282139365887</v>
+        <v>0.1460021719072971</v>
       </c>
       <c r="E26">
-        <v>0.1183899196010863</v>
+        <v>0.145124178122818</v>
       </c>
       <c r="F26">
-        <v>0.6474673488804471</v>
+        <v>0.2798216030319365</v>
       </c>
       <c r="G26">
-        <v>0.6672286861419094</v>
+        <v>0.2879987132662532</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -11514,22 +11514,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7495478871194318</v>
+        <v>0.752354198532727</v>
       </c>
       <c r="C27">
-        <v>0.7200479662854303</v>
+        <v>0.7473019466193738</v>
       </c>
       <c r="D27">
-        <v>0.1686647663294061</v>
+        <v>0.218397013538064</v>
       </c>
       <c r="E27">
-        <v>0.1547313053031233</v>
+        <v>0.2018567821403989</v>
       </c>
       <c r="F27">
-        <v>0.6115767343859637</v>
+        <v>0.269589034183337</v>
       </c>
       <c r="G27">
-        <v>0.6823032216492769</v>
+        <v>0.36630401714856</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -11537,22 +11537,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.4821557273189938</v>
+        <v>0.4831686315919509</v>
       </c>
       <c r="C28">
-        <v>0.5019836989520304</v>
+        <v>0.5010470778230877</v>
       </c>
       <c r="D28">
-        <v>0.3737114577578333</v>
+        <v>0.3735053798910811</v>
       </c>
       <c r="E28">
-        <v>0.373650062651294</v>
+        <v>0.3734437748113615</v>
       </c>
       <c r="F28">
-        <v>0.4896793018110299</v>
+        <v>0.4885976896367121</v>
       </c>
       <c r="G28">
-        <v>0.4897174009827385</v>
+        <v>0.4886359576527398</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -11560,22 +11560,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.6670765125861321</v>
+        <v>0.7529623590883427</v>
       </c>
       <c r="C29">
-        <v>0.6138812493219249</v>
+        <v>0.751225041259956</v>
       </c>
       <c r="D29">
-        <v>0.274799967472672</v>
+        <v>0.3673960060878689</v>
       </c>
       <c r="E29">
-        <v>0.2456016381978327</v>
+        <v>0.3281094376792494</v>
       </c>
       <c r="F29">
-        <v>0.5378698778356902</v>
+        <v>0.2755047883362751</v>
       </c>
       <c r="G29">
-        <v>0.6740395691222848</v>
+        <v>0.4966116886616903</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -11583,22 +11583,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8707594074787521</v>
+        <v>0.8386924927247026</v>
       </c>
       <c r="C30">
-        <v>0.8609405955058009</v>
+        <v>0.8294223865415143</v>
       </c>
       <c r="D30">
-        <v>0.1337291603630358</v>
+        <v>0.1668013741202195</v>
       </c>
       <c r="E30">
-        <v>0.1327362778157486</v>
+        <v>0.1656901968398697</v>
       </c>
       <c r="F30">
-        <v>0.6714133556295639</v>
+        <v>0.1487456839418282</v>
       </c>
       <c r="G30">
-        <v>0.6966297307027</v>
+        <v>0.1611690994767743</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -11629,22 +11629,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.4662917055962411</v>
+        <v>0.4675342824022418</v>
       </c>
       <c r="C32">
-        <v>0.4930190678254341</v>
+        <v>0.4917773672272109</v>
       </c>
       <c r="D32">
-        <v>0.316965360838177</v>
+        <v>0.316365366928516</v>
       </c>
       <c r="E32">
-        <v>0.3169588116075742</v>
+        <v>0.3163587752530237</v>
       </c>
       <c r="F32">
-        <v>0.5092400172495991</v>
+        <v>0.5079870752247932</v>
       </c>
       <c r="G32">
-        <v>0.5092429973597028</v>
+        <v>0.5079900700538391</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -11652,22 +11652,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.5400954029262263</v>
+        <v>0.5490225316933964</v>
       </c>
       <c r="C33">
-        <v>0.5374569865731276</v>
+        <v>0.5585865359934707</v>
       </c>
       <c r="D33">
-        <v>0.2772540498118862</v>
+        <v>0.3189106716405988</v>
       </c>
       <c r="E33">
-        <v>0.2605274853986938</v>
+        <v>0.3022166043970002</v>
       </c>
       <c r="F33">
-        <v>0.5262750283964243</v>
+        <v>0.4535871537205228</v>
       </c>
       <c r="G33">
-        <v>0.5891238922732909</v>
+        <v>0.510173364786667</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -11675,22 +11675,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.6514797605689602</v>
+        <v>0.6065687541914072</v>
       </c>
       <c r="C34">
-        <v>0.6503421718406928</v>
+        <v>0.60789858841844</v>
       </c>
       <c r="D34">
-        <v>0.1935803727778383</v>
+        <v>0.2220760289909766</v>
       </c>
       <c r="E34">
-        <v>0.1927086361366239</v>
+        <v>0.2212856467249803</v>
       </c>
       <c r="F34">
-        <v>0.5870975559447447</v>
+        <v>0.3938655230779732</v>
       </c>
       <c r="G34">
-        <v>0.5979963940102332</v>
+        <v>0.3992876992996551</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -11698,22 +11698,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.5241483628462134</v>
+        <v>0.5254127827414238</v>
       </c>
       <c r="C35">
-        <v>0.5423769835266946</v>
+        <v>0.541535521328367</v>
       </c>
       <c r="D35">
-        <v>0.2738700308359531</v>
+        <v>0.2731711959572634</v>
       </c>
       <c r="E35">
-        <v>0.2738700308359531</v>
+        <v>0.2731711959572634</v>
       </c>
       <c r="F35">
-        <v>0.4894602040933523</v>
+        <v>0.48824765979719</v>
       </c>
       <c r="G35">
-        <v>0.4894602040933523</v>
+        <v>0.48824765979719</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -11721,22 +11721,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.6888531543409832</v>
+        <v>0.8303548203573435</v>
       </c>
       <c r="C36">
-        <v>0.6249264175205559</v>
+        <v>0.8351855418255482</v>
       </c>
       <c r="D36">
-        <v>0.2406305910540397</v>
+        <v>0.3379671762990114</v>
       </c>
       <c r="E36">
-        <v>0.207201262673597</v>
+        <v>0.291326910167189</v>
       </c>
       <c r="F36">
-        <v>0.5517981383709973</v>
+        <v>0.2393581010775403</v>
       </c>
       <c r="G36">
-        <v>0.7014828915917258</v>
+        <v>0.5104716229309276</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -11744,22 +11744,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.6627389402418959</v>
+        <v>0.7492861543811175</v>
       </c>
       <c r="C37">
-        <v>0.6107149896784247</v>
+        <v>0.7487806934234865</v>
       </c>
       <c r="D37">
-        <v>0.2428926338549317</v>
+        <v>0.3327622144603387</v>
       </c>
       <c r="E37">
-        <v>0.2112548098284298</v>
+        <v>0.2903428548154717</v>
       </c>
       <c r="F37">
-        <v>0.5487407959442904</v>
+        <v>0.2983767256043388</v>
       </c>
       <c r="G37">
-        <v>0.6861486346000197</v>
+        <v>0.5112932122630558</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -11767,22 +11767,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7492991367172176</v>
+        <v>0.8656337395279123</v>
       </c>
       <c r="C38">
-        <v>0.6911698243186687</v>
+        <v>0.8686796651946501</v>
       </c>
       <c r="D38">
-        <v>0.199915171567746</v>
+        <v>0.274847270518377</v>
       </c>
       <c r="E38">
-        <v>0.1743124239758144</v>
+        <v>0.2419001050008423</v>
       </c>
       <c r="F38">
-        <v>0.5863430978047371</v>
+        <v>0.1980261582458208</v>
       </c>
       <c r="G38">
-        <v>0.7089281021086142</v>
+        <v>0.4290423730117257</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -11790,22 +11790,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7037510002332462</v>
+        <v>0.8482571903112905</v>
       </c>
       <c r="C39">
-        <v>0.6416401960018021</v>
+        <v>0.8546271680723966</v>
       </c>
       <c r="D39">
-        <v>0.2296885807171118</v>
+        <v>0.3131856784442346</v>
       </c>
       <c r="E39">
-        <v>0.1978652489751188</v>
+        <v>0.2719130249264471</v>
       </c>
       <c r="F39">
-        <v>0.5404374989294063</v>
+        <v>0.2440719898344215</v>
       </c>
       <c r="G39">
-        <v>0.6831308313103861</v>
+        <v>0.4969950240279264</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -11813,22 +11813,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9637426693018943</v>
+        <v>0.9530877536663306</v>
       </c>
       <c r="C40">
-        <v>0.9429382053142006</v>
+        <v>0.9354557462179416</v>
       </c>
       <c r="D40">
-        <v>0.03818923701904217</v>
+        <v>0.04905119517468397</v>
       </c>
       <c r="E40">
-        <v>0.03728000258337662</v>
+        <v>0.0482245193975537</v>
       </c>
       <c r="F40">
-        <v>0.6991924372190512</v>
+        <v>0.06438437804750301</v>
       </c>
       <c r="G40">
-        <v>0.7289265842641758</v>
+        <v>0.08992371163357681</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -11836,22 +11836,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.8697460581636556</v>
+        <v>0.8375855511401566</v>
       </c>
       <c r="C41">
-        <v>0.8608294497949667</v>
+        <v>0.8288323800453437</v>
       </c>
       <c r="D41">
-        <v>0.06574089055464753</v>
+        <v>0.08318661768484728</v>
       </c>
       <c r="E41">
-        <v>0.06497798366263827</v>
+        <v>0.08241362535264991</v>
       </c>
       <c r="F41">
-        <v>0.6837360265305548</v>
+        <v>0.1736807443383305</v>
       </c>
       <c r="G41">
-        <v>0.7100434132847174</v>
+        <v>0.1850220104863876</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -11859,22 +11859,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.8919909185270971</v>
+        <v>0.9413076559880443</v>
       </c>
       <c r="C42">
-        <v>0.8569012927404227</v>
+        <v>0.931000539895262</v>
       </c>
       <c r="D42">
-        <v>0.09017893630422777</v>
+        <v>0.1213924280319212</v>
       </c>
       <c r="E42">
-        <v>0.0804666964133552</v>
+        <v>0.1098948000631325</v>
       </c>
       <c r="F42">
-        <v>0.6737913488488321</v>
+        <v>0.09764627160961303</v>
       </c>
       <c r="G42">
-        <v>0.7256303169253618</v>
+        <v>0.2146195380759935</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -11885,19 +11885,19 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0.9569350966703932</v>
+        <v>0.9575649888584161</v>
       </c>
       <c r="D43">
-        <v>0.007142693829385482</v>
+        <v>0.007041741782148756</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.6805854087040157</v>
+        <v>0.09154712184763263</v>
       </c>
       <c r="G43">
-        <v>0.7075027059659086</v>
+        <v>0.1102414252447398</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -11928,22 +11928,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.7399002541897198</v>
+        <v>0.7408748036184882</v>
       </c>
       <c r="C45">
-        <v>0.7432284791068883</v>
+        <v>0.743121350717513</v>
       </c>
       <c r="D45">
-        <v>0.138401107034183</v>
+        <v>0.1378815755550028</v>
       </c>
       <c r="E45">
-        <v>0.138401107034183</v>
+        <v>0.1378815755550028</v>
       </c>
       <c r="F45">
-        <v>0.3828144104424474</v>
+        <v>0.3821129346217245</v>
       </c>
       <c r="G45">
-        <v>0.3828144104424474</v>
+        <v>0.3821129346217245</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -11951,22 +11951,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7977856367349836</v>
+        <v>0.9061129516092828</v>
       </c>
       <c r="C46">
-        <v>0.753557444373295</v>
+        <v>0.9120538386666657</v>
       </c>
       <c r="D46">
-        <v>0.1642183309012901</v>
+        <v>0.1904250619137453</v>
       </c>
       <c r="E46">
-        <v>0.1454125312049329</v>
+        <v>0.1719964527620683</v>
       </c>
       <c r="F46">
-        <v>0.445871280243976</v>
+        <v>0.2841253258026608</v>
       </c>
       <c r="G46">
-        <v>0.5414668295820021</v>
+        <v>0.4034252263771828</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -11977,19 +11977,19 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0.966218227132326</v>
+        <v>0.9702691933342686</v>
       </c>
       <c r="D47">
-        <v>0.005635917913312836</v>
+        <v>0.004967649849887458</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.5381285469886035</v>
+        <v>0.2179377063080752</v>
       </c>
       <c r="G47">
-        <v>0.5526818331461718</v>
+        <v>0.224349185469845</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -11997,22 +11997,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7469189347158942</v>
+        <v>0.8113775579469037</v>
       </c>
       <c r="C48">
-        <v>0.7032213530553044</v>
+        <v>0.8108815010184146</v>
       </c>
       <c r="D48">
-        <v>0.189176573221663</v>
+        <v>0.2404654133266701</v>
       </c>
       <c r="E48">
-        <v>0.1681462056372267</v>
+        <v>0.216648826297428</v>
       </c>
       <c r="F48">
-        <v>0.5450485165393008</v>
+        <v>0.2669979046440942</v>
       </c>
       <c r="G48">
-        <v>0.6433645971183237</v>
+        <v>0.4172134584066979</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -12020,22 +12020,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.7692153254657605</v>
+        <v>0.7413429855998273</v>
       </c>
       <c r="C49">
-        <v>0.7546669129588819</v>
+        <v>0.7356672241705677</v>
       </c>
       <c r="D49">
-        <v>0.1359239570197019</v>
+        <v>0.1690640950307868</v>
       </c>
       <c r="E49">
-        <v>0.1301484885757016</v>
+        <v>0.1624302914178724</v>
       </c>
       <c r="F49">
-        <v>0.6250962437429742</v>
+        <v>0.2777855552022025</v>
       </c>
       <c r="G49">
-        <v>0.6614809944209363</v>
+        <v>0.3155797424673693</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -12043,22 +12043,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6765249899375052</v>
+        <v>0.6969957787673127</v>
       </c>
       <c r="C50">
-        <v>0.6458222860661582</v>
+        <v>0.6951568152554407</v>
       </c>
       <c r="D50">
-        <v>0.2159766469235324</v>
+        <v>0.2743527184416087</v>
       </c>
       <c r="E50">
-        <v>0.1959403182955103</v>
+        <v>0.2509688477888202</v>
       </c>
       <c r="F50">
-        <v>0.5598230293064708</v>
+        <v>0.3352388090601821</v>
       </c>
       <c r="G50">
-        <v>0.6509966707241969</v>
+        <v>0.4492657809403762</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -12066,22 +12066,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.7998200808655624</v>
+        <v>0.8411455339985697</v>
       </c>
       <c r="C51">
-        <v>0.7594937020659676</v>
+        <v>0.8371152798183386</v>
       </c>
       <c r="D51">
-        <v>0.1518826189144517</v>
+        <v>0.2008986615106187</v>
       </c>
       <c r="E51">
-        <v>0.1361814145889428</v>
+        <v>0.1822041863997325</v>
       </c>
       <c r="F51">
-        <v>0.6181577993989538</v>
+        <v>0.2000608805755231</v>
       </c>
       <c r="G51">
-        <v>0.6964700134888092</v>
+        <v>0.3374315474131732</v>
       </c>
     </row>
   </sheetData>
@@ -12171,19 +12171,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -12286,7 +12286,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -12298,7 +12298,7 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -12332,19 +12332,19 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -12358,13 +12358,13 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -12401,7 +12401,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -12413,7 +12413,7 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -12450,13 +12450,13 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>6</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -12467,19 +12467,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>6</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -12519,13 +12519,13 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>6</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -12559,10 +12559,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -12585,7 +12585,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -12597,7 +12597,7 @@
         <v>4</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -12605,19 +12605,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>6</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -12634,13 +12634,13 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -12743,22 +12743,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -12772,16 +12772,16 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -12838,7 +12838,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -12850,7 +12850,7 @@
         <v>4</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -12858,10 +12858,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -12907,19 +12907,19 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -12927,22 +12927,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>6</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -12950,22 +12950,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -12973,22 +12973,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -13048,13 +13048,13 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -13134,10 +13134,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -13229,7 +13229,7 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -13241,7 +13241,7 @@
         <v>4</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -13255,13 +13255,13 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51">
         <v>6</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G51">
         <v>3</v>

--- a/dmsan/comparison/results/baseline_performance.xlsx
+++ b/dmsan/comparison/results/baseline_performance.xlsx
@@ -50,13 +50,13 @@
     <t>brA</t>
   </si>
   <si>
+    <t>reB</t>
+  </si>
+  <si>
     <t>ngA</t>
   </si>
   <si>
     <t>ngB</t>
-  </si>
-  <si>
-    <t>reB</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -482,19 +482,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -588,13 +588,13 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -625,16 +625,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -688,13 +688,13 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -745,16 +745,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -788,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -828,13 +828,13 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -848,13 +848,13 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -862,19 +862,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -888,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -948,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -985,10 +985,10 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -1074,7 +1074,7 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1082,7 +1082,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1122,19 +1122,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1145,16 +1145,16 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1165,16 +1165,16 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1182,19 +1182,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1322,19 +1322,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1368,13 +1368,13 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1408,13 +1408,13 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1428,7 +1428,7 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -1458,13 +1458,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -1521,22 +1521,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8472878867153144</v>
+        <v>0.8497659742163995</v>
       </c>
       <c r="C4">
-        <v>0.850979426456252</v>
+        <v>0.8127820252190063</v>
       </c>
       <c r="D4">
-        <v>0.2977165729428822</v>
+        <v>0.2879945339228006</v>
       </c>
       <c r="E4">
-        <v>0.2695308602202488</v>
+        <v>0.2603212005141709</v>
       </c>
       <c r="F4">
-        <v>0.3540285180706567</v>
+        <v>0.4172935256433652</v>
       </c>
       <c r="G4">
-        <v>0.5109739990089083</v>
+        <v>0.5558713268227921</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1547,19 +1547,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9475065789209375</v>
+        <v>0.9441264977735067</v>
       </c>
       <c r="D5">
-        <v>0.02420334632538573</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01481445884586873</v>
+        <v>0.007161046630854646</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.02750013685480103</v>
       </c>
       <c r="G5">
-        <v>0.04085988707805049</v>
+        <v>0.007927787823418098</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1590,22 +1590,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.860855833204056</v>
+        <v>0.861042198608968</v>
       </c>
       <c r="C7">
-        <v>0.8574475667233504</v>
+        <v>0.8415329187332342</v>
       </c>
       <c r="D7">
-        <v>0.1957342579158136</v>
+        <v>0.1916408147193052</v>
       </c>
       <c r="E7">
-        <v>0.1828466988099479</v>
+        <v>0.1805433801894254</v>
       </c>
       <c r="F7">
-        <v>0.2356955842310177</v>
+        <v>0.2752454148496515</v>
       </c>
       <c r="G7">
-        <v>0.3247679930600877</v>
+        <v>0.3535055923177033</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1616,7 +1616,7 @@
         <v>0.6211666803687429</v>
       </c>
       <c r="C8">
-        <v>0.6492860562122675</v>
+        <v>0.6492860562122674</v>
       </c>
       <c r="D8">
         <v>0.2890731654950394</v>
@@ -1636,22 +1636,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7896203971882076</v>
+        <v>0.7933789367684725</v>
       </c>
       <c r="C9">
-        <v>0.792389260557997</v>
+        <v>0.7713075339556649</v>
       </c>
       <c r="D9">
-        <v>0.2963077028853768</v>
+        <v>0.2881617193278422</v>
       </c>
       <c r="E9">
-        <v>0.2722985689095056</v>
+        <v>0.2643228054352849</v>
       </c>
       <c r="F9">
-        <v>0.3684889460830501</v>
+        <v>0.4175124794556616</v>
       </c>
       <c r="G9">
-        <v>0.494106693757826</v>
+        <v>0.533548249551857</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1659,22 +1659,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8576202682739645</v>
+        <v>0.8578524094111286</v>
       </c>
       <c r="C10">
-        <v>0.8538463125660576</v>
+        <v>0.8375506867014575</v>
       </c>
       <c r="D10">
-        <v>0.2004463245606953</v>
+        <v>0.1960500102684784</v>
       </c>
       <c r="E10">
-        <v>0.1870714816229954</v>
+        <v>0.1845924627709928</v>
       </c>
       <c r="F10">
-        <v>0.2409147977756103</v>
+        <v>0.2815033225861308</v>
       </c>
       <c r="G10">
-        <v>0.3321902643817884</v>
+        <v>0.3610069804956038</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1682,22 +1682,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8221907560029876</v>
+        <v>0.8253946915790907</v>
       </c>
       <c r="C11">
-        <v>0.8227734581712109</v>
+        <v>0.793148068817743</v>
       </c>
       <c r="D11">
-        <v>0.3097098254126089</v>
+        <v>0.2999851192798159</v>
       </c>
       <c r="E11">
-        <v>0.2826863614148484</v>
+        <v>0.2733717508309065</v>
       </c>
       <c r="F11">
-        <v>0.3520607238346614</v>
+        <v>0.4127221140520257</v>
       </c>
       <c r="G11">
-        <v>0.5027291926443069</v>
+        <v>0.5468008880858293</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1705,22 +1705,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9142723605108745</v>
+        <v>0.9137299776166922</v>
       </c>
       <c r="C12">
-        <v>0.8984528744095701</v>
+        <v>0.8962462360446263</v>
       </c>
       <c r="D12">
-        <v>0.101523752853529</v>
+        <v>0.09778931325968111</v>
       </c>
       <c r="E12">
-        <v>0.09844273882912839</v>
+        <v>0.0977393393274371</v>
       </c>
       <c r="F12">
-        <v>0.06275214889583162</v>
+        <v>0.06951558996867456</v>
       </c>
       <c r="G12">
-        <v>0.07658988784544189</v>
+        <v>0.06547098762696801</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1751,22 +1751,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7896203971882076</v>
+        <v>0.7933789367684725</v>
       </c>
       <c r="C14">
-        <v>0.792389260557997</v>
+        <v>0.7713075339556649</v>
       </c>
       <c r="D14">
-        <v>0.2963077028853768</v>
+        <v>0.2881617193278422</v>
       </c>
       <c r="E14">
-        <v>0.2722985689095056</v>
+        <v>0.2643228054352849</v>
       </c>
       <c r="F14">
-        <v>0.3684889460830501</v>
+        <v>0.4175124794556616</v>
       </c>
       <c r="G14">
-        <v>0.494106693757826</v>
+        <v>0.533548249551857</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1774,22 +1774,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8576202682739645</v>
+        <v>0.8578524094111286</v>
       </c>
       <c r="C15">
-        <v>0.8538463125660576</v>
+        <v>0.8375506867014575</v>
       </c>
       <c r="D15">
-        <v>0.2004463245606953</v>
+        <v>0.1960500102684784</v>
       </c>
       <c r="E15">
-        <v>0.1870714816229954</v>
+        <v>0.1845924627709928</v>
       </c>
       <c r="F15">
-        <v>0.2409147977756103</v>
+        <v>0.2815033225861308</v>
       </c>
       <c r="G15">
-        <v>0.3321902643817884</v>
+        <v>0.3610069804956038</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1797,22 +1797,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8868083337535929</v>
+        <v>0.8866734057659746</v>
       </c>
       <c r="C16">
-        <v>0.8815822746729207</v>
+        <v>0.8609637626230118</v>
       </c>
       <c r="D16">
-        <v>0.1973414560308743</v>
+        <v>0.1930280079749042</v>
       </c>
       <c r="E16">
-        <v>0.1839077149954141</v>
+        <v>0.1814859399819258</v>
       </c>
       <c r="F16">
-        <v>0.2141593403422579</v>
+        <v>0.2604417950813105</v>
       </c>
       <c r="G16">
-        <v>0.3160666647308254</v>
+        <v>0.3479292036547352</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1820,22 +1820,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.832433923319177</v>
+        <v>0.8349536519215626</v>
       </c>
       <c r="C17">
-        <v>0.8338798547413853</v>
+        <v>0.805720467869415</v>
       </c>
       <c r="D17">
-        <v>0.2903251630117095</v>
+        <v>0.2825102620300148</v>
       </c>
       <c r="E17">
-        <v>0.2666174310566214</v>
+        <v>0.2589507898652059</v>
       </c>
       <c r="F17">
-        <v>0.3281785573578546</v>
+        <v>0.385363091671705</v>
       </c>
       <c r="G17">
-        <v>0.4669938683618057</v>
+        <v>0.5102872607159227</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1843,22 +1843,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8729816181517879</v>
+        <v>0.8730315866891735</v>
       </c>
       <c r="C18">
-        <v>0.8701591184716454</v>
+        <v>0.8521307535229553</v>
       </c>
       <c r="D18">
-        <v>0.1858560553774352</v>
+        <v>0.1818538153338232</v>
       </c>
       <c r="E18">
-        <v>0.1724342866638559</v>
+        <v>0.1702244358470073</v>
       </c>
       <c r="F18">
-        <v>0.2340677842954903</v>
+        <v>0.2745075425997756</v>
       </c>
       <c r="G18">
-        <v>0.3248069898754589</v>
+        <v>0.3539420386553627</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1866,22 +1866,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9048344929218816</v>
+        <v>0.9043960244418509</v>
       </c>
       <c r="C19">
-        <v>0.9001655625982981</v>
+        <v>0.8751237002165991</v>
       </c>
       <c r="D19">
-        <v>0.187107675283047</v>
+        <v>0.1828925440764381</v>
       </c>
       <c r="E19">
-        <v>0.1730924983817636</v>
+        <v>0.170771798232302</v>
       </c>
       <c r="F19">
-        <v>0.2117708996318773</v>
+        <v>0.2593242062060608</v>
       </c>
       <c r="G19">
-        <v>0.3159573816107879</v>
+        <v>0.3483107359684972</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1892,19 +1892,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.9498286407585612</v>
+        <v>0.9466389117738157</v>
       </c>
       <c r="D20">
-        <v>0.02316108012076408</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01418207241772959</v>
+        <v>0.00685349322069773</v>
       </c>
       <c r="F20">
-        <v>0.01792475887834732</v>
+        <v>0.03190213607662482</v>
       </c>
       <c r="G20">
-        <v>0.04297215695957723</v>
+        <v>0.01963161937622647</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1912,22 +1912,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8154622665917395</v>
+        <v>0.818293442190029</v>
       </c>
       <c r="C21">
-        <v>0.8202150396898332</v>
+        <v>0.7965740839323454</v>
       </c>
       <c r="D21">
-        <v>0.2682958953762118</v>
+        <v>0.2616606131299236</v>
       </c>
       <c r="E21">
-        <v>0.2459694092956433</v>
+        <v>0.2394067864362355</v>
       </c>
       <c r="F21">
-        <v>0.3481811697377395</v>
+        <v>0.3962445214941253</v>
       </c>
       <c r="G21">
-        <v>0.4686564009908109</v>
+        <v>0.5081127694594892</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1935,22 +1935,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8049786701920566</v>
+        <v>0.8084806418031484</v>
       </c>
       <c r="C22">
-        <v>0.809325638279615</v>
+        <v>0.7845846276067989</v>
       </c>
       <c r="D22">
-        <v>0.2846486380616266</v>
+        <v>0.276548889288971</v>
       </c>
       <c r="E22">
-        <v>0.2596670485509918</v>
+        <v>0.2518114140437769</v>
       </c>
       <c r="F22">
-        <v>0.3708077539485202</v>
+        <v>0.4215334543843222</v>
       </c>
       <c r="G22">
-        <v>0.5007104674226419</v>
+        <v>0.5408131990655907</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1958,22 +1958,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8566268911136325</v>
+        <v>0.8584750098730337</v>
       </c>
       <c r="C23">
-        <v>0.8609531268342111</v>
+        <v>0.8248333297417749</v>
       </c>
       <c r="D23">
-        <v>0.2783077652999504</v>
+        <v>0.2705590546140391</v>
       </c>
       <c r="E23">
-        <v>0.2536004633219189</v>
+        <v>0.2460730197240667</v>
       </c>
       <c r="F23">
-        <v>0.3287596801881659</v>
+        <v>0.3881988941219583</v>
       </c>
       <c r="G23">
-        <v>0.4725161064253275</v>
+        <v>0.5166137655689456</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1981,22 +1981,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9024002512482031</v>
+        <v>0.9019851293673586</v>
       </c>
       <c r="C24">
-        <v>0.8973537092128379</v>
+        <v>0.8716561443195054</v>
       </c>
       <c r="D24">
-        <v>0.1919410468026785</v>
+        <v>0.1873945946083153</v>
       </c>
       <c r="E24">
-        <v>0.1773753143231314</v>
+        <v>0.1748654317053349</v>
       </c>
       <c r="F24">
-        <v>0.2168121632012132</v>
+        <v>0.2656851363861137</v>
       </c>
       <c r="G24">
-        <v>0.3237361127487127</v>
+        <v>0.3562216522791016</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2004,22 +2004,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8889853873731571</v>
+        <v>0.8883762198183288</v>
       </c>
       <c r="C25">
-        <v>0.8811516038675959</v>
+        <v>0.8793221120859784</v>
       </c>
       <c r="D25">
-        <v>0.05082822174220981</v>
+        <v>0.04551722676878615</v>
       </c>
       <c r="E25">
-        <v>0.04760438046995741</v>
+        <v>0.04620520124388781</v>
       </c>
       <c r="F25">
-        <v>0.1505624237370087</v>
+        <v>0.1558365628528744</v>
       </c>
       <c r="G25">
-        <v>0.1582611623913207</v>
+        <v>0.1523547537046922</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2027,22 +2027,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.8848768986198</v>
+        <v>0.8841939274260648</v>
       </c>
       <c r="C26">
-        <v>0.8764103858475736</v>
+        <v>0.8744252229105718</v>
       </c>
       <c r="D26">
-        <v>0.05289006794390728</v>
+        <v>0.04731642148989891</v>
       </c>
       <c r="E26">
-        <v>0.04950890039367351</v>
+        <v>0.04805421547361539</v>
       </c>
       <c r="F26">
-        <v>0.1550798732193444</v>
+        <v>0.1608488109609338</v>
       </c>
       <c r="G26">
-        <v>0.1634249512215674</v>
+        <v>0.1570633546591821</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2050,22 +2050,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.8699492223563119</v>
+        <v>0.8700402324135433</v>
       </c>
       <c r="C27">
-        <v>0.8667851690703763</v>
+        <v>0.8483165004210083</v>
       </c>
       <c r="D27">
-        <v>0.1904232267848078</v>
+        <v>0.1861222114304835</v>
       </c>
       <c r="E27">
-        <v>0.1765018255030237</v>
+        <v>0.1741203543517215</v>
       </c>
       <c r="F27">
-        <v>0.2393359825706247</v>
+        <v>0.2808539827451278</v>
       </c>
       <c r="G27">
-        <v>0.3323555267536916</v>
+        <v>0.3615706498031151</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2096,22 +2096,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.774961913024603</v>
+        <v>0.7789932019741913</v>
       </c>
       <c r="C29">
-        <v>0.7719725514551913</v>
+        <v>0.753658997370142</v>
       </c>
       <c r="D29">
-        <v>0.3375165098821838</v>
+        <v>0.3280006728467235</v>
       </c>
       <c r="E29">
-        <v>0.3130439397385426</v>
+        <v>0.3037121273121702</v>
       </c>
       <c r="F29">
-        <v>0.3472190152456081</v>
+        <v>0.4012571084156633</v>
       </c>
       <c r="G29">
-        <v>0.4821996500626221</v>
+        <v>0.5239585160024759</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2119,22 +2119,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8458193210589837</v>
+        <v>0.8449675124262763</v>
       </c>
       <c r="C30">
-        <v>0.8341624950857831</v>
+        <v>0.8322305581122029</v>
       </c>
       <c r="D30">
-        <v>0.1789028473186184</v>
+        <v>0.1755718271684379</v>
       </c>
       <c r="E30">
-        <v>0.1755296181278216</v>
+        <v>0.1751684995483344</v>
       </c>
       <c r="F30">
-        <v>0.1149473953689453</v>
+        <v>0.1203470267818555</v>
       </c>
       <c r="G30">
-        <v>0.1260145764912212</v>
+        <v>0.1190750419626334</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2188,22 +2188,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.7458915969424181</v>
+        <v>0.7497335949869771</v>
       </c>
       <c r="C33">
-        <v>0.7558393971091057</v>
+        <v>0.7433410385694823</v>
       </c>
       <c r="D33">
-        <v>0.2576532309118089</v>
+        <v>0.252362817507279</v>
       </c>
       <c r="E33">
-        <v>0.2387435052565523</v>
+        <v>0.2333697268913068</v>
       </c>
       <c r="F33">
-        <v>0.3967114455779936</v>
+        <v>0.428671716953162</v>
       </c>
       <c r="G33">
-        <v>0.4828320752428206</v>
+        <v>0.5132131828785439</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2211,22 +2211,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.8046473437689678</v>
+        <v>0.8037314093418113</v>
       </c>
       <c r="C34">
-        <v>0.8049570530192602</v>
+        <v>0.8033038367678562</v>
       </c>
       <c r="D34">
-        <v>0.08591576323270524</v>
+        <v>0.08278222885637664</v>
       </c>
       <c r="E34">
-        <v>0.08403736330665497</v>
+        <v>0.08338524591921748</v>
       </c>
       <c r="F34">
-        <v>0.2542403814914928</v>
+        <v>0.2601526658799451</v>
       </c>
       <c r="G34">
-        <v>0.2618282161157544</v>
+        <v>0.2566046228698587</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2240,10 +2240,10 @@
         <v>0.7002301851747997</v>
       </c>
       <c r="D35">
-        <v>0.1409598015829119</v>
+        <v>0.1409598015829118</v>
       </c>
       <c r="E35">
-        <v>0.1409598015829119</v>
+        <v>0.1409598015829118</v>
       </c>
       <c r="F35">
         <v>0.4032762446947621</v>
@@ -2257,22 +2257,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8402434196845647</v>
+        <v>0.8429471537944669</v>
       </c>
       <c r="C36">
-        <v>0.8429485309965791</v>
+        <v>0.8073967034958317</v>
       </c>
       <c r="D36">
-        <v>0.3008827060936615</v>
+        <v>0.2911548018720091</v>
       </c>
       <c r="E36">
-        <v>0.2730094831593303</v>
+        <v>0.2637666258323151</v>
       </c>
       <c r="F36">
-        <v>0.3535165942247096</v>
+        <v>0.4161088892373789</v>
       </c>
       <c r="G36">
-        <v>0.5088332482955812</v>
+        <v>0.5535214592963226</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2280,22 +2280,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.8342357995226816</v>
+        <v>0.8371014679875455</v>
       </c>
       <c r="C37">
-        <v>0.8378243948845486</v>
+        <v>0.8043391669740948</v>
       </c>
       <c r="D37">
-        <v>0.2941727196701232</v>
+        <v>0.2849084375010358</v>
       </c>
       <c r="E37">
-        <v>0.2668745400126967</v>
+        <v>0.2580415635269785</v>
       </c>
       <c r="F37">
-        <v>0.3589340377450015</v>
+        <v>0.4185018270349888</v>
       </c>
       <c r="G37">
-        <v>0.508073503448337</v>
+        <v>0.5516674418425711</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2303,22 +2303,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.869584121480748</v>
+        <v>0.8704768040815458</v>
       </c>
       <c r="C38">
-        <v>0.8702008721514229</v>
+        <v>0.8366512994777829</v>
       </c>
       <c r="D38">
-        <v>0.2540507234543832</v>
+        <v>0.2470876594879072</v>
       </c>
       <c r="E38">
-        <v>0.2325217831284244</v>
+        <v>0.2267908537884559</v>
       </c>
       <c r="F38">
-        <v>0.2941336110351192</v>
+        <v>0.3524015850137873</v>
       </c>
       <c r="G38">
-        <v>0.4282852783197808</v>
+        <v>0.4676939413061626</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2326,22 +2326,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.849802926887459</v>
+        <v>0.852101953425016</v>
       </c>
       <c r="C39">
-        <v>0.8536843929908724</v>
+        <v>0.816044339794151</v>
       </c>
       <c r="D39">
-        <v>0.292432924882146</v>
+        <v>0.2832793176645291</v>
       </c>
       <c r="E39">
-        <v>0.2652341107655946</v>
+        <v>0.2565013258594147</v>
       </c>
       <c r="F39">
-        <v>0.3470529330070101</v>
+        <v>0.4092541200032032</v>
       </c>
       <c r="G39">
-        <v>0.5001767813180493</v>
+        <v>0.5448759957844451</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2349,22 +2349,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9549010099313376</v>
+        <v>0.9545984522815374</v>
       </c>
       <c r="C40">
-        <v>0.9307503585589891</v>
+        <v>0.9280047205254159</v>
       </c>
       <c r="D40">
-        <v>0.057208869609626</v>
+        <v>0.05163006010771555</v>
       </c>
       <c r="E40">
-        <v>0.05336459541510122</v>
+        <v>0.05193000122334854</v>
       </c>
       <c r="F40">
-        <v>0.03264228528417835</v>
+        <v>0.0429664600554317</v>
       </c>
       <c r="G40">
-        <v>0.05276339687222367</v>
+        <v>0.03473199850308255</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2372,22 +2372,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9378277194767474</v>
+        <v>0.9374214245567115</v>
       </c>
       <c r="C41">
-        <v>0.9202741072242535</v>
+        <v>0.9177902439049302</v>
       </c>
       <c r="D41">
-        <v>0.03450437587636129</v>
+        <v>0.02488148896501892</v>
       </c>
       <c r="E41">
-        <v>0.02885923040411911</v>
+        <v>0.02597873254001654</v>
       </c>
       <c r="F41">
-        <v>0.0856369449088672</v>
+        <v>0.09166810582936112</v>
       </c>
       <c r="G41">
-        <v>0.09612979857275711</v>
+        <v>0.0870775007783936</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2395,22 +2395,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9404715785572623</v>
+        <v>0.9396898152831841</v>
       </c>
       <c r="C42">
-        <v>0.9253419285457888</v>
+        <v>0.9100417793359085</v>
       </c>
       <c r="D42">
-        <v>0.1206415254431265</v>
+        <v>0.1170715521333908</v>
       </c>
       <c r="E42">
-        <v>0.1115297854679645</v>
+        <v>0.1105617096181735</v>
       </c>
       <c r="F42">
-        <v>0.1333926668515869</v>
+        <v>0.1683635100636746</v>
       </c>
       <c r="G42">
-        <v>0.2082632351129421</v>
+        <v>0.2305062449714541</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2421,19 +2421,19 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0.9481177528507808</v>
+        <v>0.9447883860371027</v>
       </c>
       <c r="D43">
-        <v>0.02392953234474371</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0.01464842320164689</v>
+        <v>0.007080282770356387</v>
       </c>
       <c r="F43">
-        <v>0.009327800565588048</v>
+        <v>0.02874884712727173</v>
       </c>
       <c r="G43">
-        <v>0.04143684514135911</v>
+        <v>0.01224727661001059</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2470,10 +2470,10 @@
         <v>0.8359294517310334</v>
       </c>
       <c r="D45">
-        <v>0.07204358009527329</v>
+        <v>0.07204358009527326</v>
       </c>
       <c r="E45">
-        <v>0.07204358009527329</v>
+        <v>0.07204358009527326</v>
       </c>
       <c r="F45">
         <v>0.2315942039079192</v>
@@ -2487,22 +2487,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.8765791360322622</v>
+        <v>0.8773816091948254</v>
       </c>
       <c r="C46">
-        <v>0.8816785745375397</v>
+        <v>0.8500783439457776</v>
       </c>
       <c r="D46">
-        <v>0.2384114963332989</v>
+        <v>0.2338137146644776</v>
       </c>
       <c r="E46">
-        <v>0.2196938230908896</v>
+        <v>0.2150219510086816</v>
       </c>
       <c r="F46">
-        <v>0.2793975072576236</v>
+        <v>0.3313754837206121</v>
       </c>
       <c r="G46">
-        <v>0.4009879759216569</v>
+        <v>0.4427480533335012</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2513,19 +2513,19 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0.9552762428355324</v>
+        <v>0.9525097704309919</v>
       </c>
       <c r="D47">
-        <v>0.02069648728318482</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0.01268292155776329</v>
+        <v>0.006125005571756758</v>
       </c>
       <c r="F47">
-        <v>0.0317120622604027</v>
+        <v>0.03970666525429841</v>
       </c>
       <c r="G47">
-        <v>0.04719261390495629</v>
+        <v>0.03270902864907546</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2533,22 +2533,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.8638801904241983</v>
+        <v>0.8648181314306446</v>
       </c>
       <c r="C48">
-        <v>0.8651171087425894</v>
+        <v>0.8365588809808792</v>
       </c>
       <c r="D48">
-        <v>0.2408381722551477</v>
+        <v>0.2350363116286285</v>
       </c>
       <c r="E48">
-        <v>0.221407945867932</v>
+        <v>0.2165771048013993</v>
       </c>
       <c r="F48">
-        <v>0.286659486402591</v>
+        <v>0.3394436752632016</v>
       </c>
       <c r="G48">
-        <v>0.4086979125697852</v>
+        <v>0.4468034359201858</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2556,22 +2556,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.8805143143993788</v>
+        <v>0.880043666076248</v>
       </c>
       <c r="C49">
-        <v>0.874164824460284</v>
+        <v>0.8659385461798053</v>
       </c>
       <c r="D49">
-        <v>0.1225384002472756</v>
+        <v>0.1192636524199831</v>
       </c>
       <c r="E49">
-        <v>0.1143409980139655</v>
+        <v>0.1134487258684928</v>
       </c>
       <c r="F49">
-        <v>0.1867820594110638</v>
+        <v>0.2101292527018601</v>
       </c>
       <c r="G49">
-        <v>0.2382120320653213</v>
+        <v>0.2537427564634893</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2579,22 +2579,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.8321738614158556</v>
+        <v>0.8338445565544989</v>
       </c>
       <c r="C50">
-        <v>0.8337869935321304</v>
+        <v>0.8114107682175251</v>
       </c>
       <c r="D50">
-        <v>0.2444648892651484</v>
+        <v>0.2385158219641854</v>
       </c>
       <c r="E50">
-        <v>0.22500500011468</v>
+        <v>0.2200456989237778</v>
       </c>
       <c r="F50">
-        <v>0.3124964919536704</v>
+        <v>0.3598747404841064</v>
       </c>
       <c r="G50">
-        <v>0.4250123429993548</v>
+        <v>0.4603540699474942</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2602,22 +2602,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.8934454175279534</v>
+        <v>0.8931985062252421</v>
       </c>
       <c r="C51">
-        <v>0.8890744427853317</v>
+        <v>0.8659532141609539</v>
       </c>
       <c r="D51">
-        <v>0.1903206010352401</v>
+        <v>0.1859228850891584</v>
       </c>
       <c r="E51">
-        <v>0.1760616030794078</v>
+        <v>0.1736335287114907</v>
       </c>
       <c r="F51">
-        <v>0.2217134845529888</v>
+        <v>0.2681366776362534</v>
       </c>
       <c r="G51">
-        <v>0.3240288157913587</v>
+        <v>0.3556060265804775</v>
       </c>
     </row>
   </sheetData>
@@ -2641,13 +2641,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -2704,10 +2704,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -2733,16 +2733,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2819,10 +2819,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -2865,10 +2865,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -2900,10 +2900,10 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2934,10 +2934,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -3003,10 +3003,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -3078,16 +3078,16 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3095,10 +3095,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -3118,10 +3118,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -3141,10 +3141,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -3193,16 +3193,16 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3216,16 +3216,16 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3314,10 +3314,10 @@
         <v>4</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3371,10 +3371,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -3394,22 +3394,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3440,10 +3440,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -3463,10 +3463,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -3486,10 +3486,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -3509,10 +3509,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -3538,16 +3538,16 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3561,16 +3561,16 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3607,16 +3607,16 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E43">
         <v>5</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3670,10 +3670,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -3699,16 +3699,16 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3716,10 +3716,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -3762,10 +3762,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -3824,13 +3824,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -3887,22 +3887,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8393485971937127</v>
+        <v>0.830817968368771</v>
       </c>
       <c r="C4">
-        <v>0.8407724048415182</v>
+        <v>0.7616965136757805</v>
       </c>
       <c r="D4">
-        <v>0.3254118905624012</v>
+        <v>0.3032763460197358</v>
       </c>
       <c r="E4">
-        <v>0.2846313966960989</v>
+        <v>0.2640725899832918</v>
       </c>
       <c r="F4">
-        <v>0.2793200013373175</v>
+        <v>0.3392306925777902</v>
       </c>
       <c r="G4">
-        <v>0.5125650802276343</v>
+        <v>0.5568122969934557</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3913,19 +3913,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9514117486000614</v>
+        <v>0.9495449466861349</v>
       </c>
       <c r="D5">
-        <v>0.006929350791369314</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.007296060585773544</v>
       </c>
       <c r="F5">
-        <v>0.2772650989256041</v>
+        <v>0.3207216406730221</v>
       </c>
       <c r="G5">
-        <v>0.2874428853331074</v>
+        <v>0.2786415194037254</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3956,22 +3956,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6810125243331898</v>
+        <v>0.6835484903945829</v>
       </c>
       <c r="C7">
-        <v>0.6702913400400825</v>
+        <v>0.6635314578700957</v>
       </c>
       <c r="D7">
-        <v>0.2405544410531786</v>
+        <v>0.2344561914678158</v>
       </c>
       <c r="E7">
-        <v>0.2284471810103213</v>
+        <v>0.2234717848370391</v>
       </c>
       <c r="F7">
-        <v>0.4122415613901774</v>
+        <v>0.436353940211175</v>
       </c>
       <c r="G7">
-        <v>0.4740543756775005</v>
+        <v>0.4869824777921546</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4002,22 +4002,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5403336014555183</v>
+        <v>0.5470798286053556</v>
       </c>
       <c r="C9">
-        <v>0.5309199040302407</v>
+        <v>0.5218909620964501</v>
       </c>
       <c r="D9">
-        <v>0.3711201572015638</v>
+        <v>0.353330091540026</v>
       </c>
       <c r="E9">
-        <v>0.3436336145191924</v>
+        <v>0.3255813278651697</v>
       </c>
       <c r="F9">
-        <v>0.5041448281361235</v>
+        <v>0.5155697789792163</v>
       </c>
       <c r="G9">
-        <v>0.6028934269123501</v>
+        <v>0.6230077853059436</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4025,22 +4025,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6796129784497392</v>
+        <v>0.6822010500706656</v>
       </c>
       <c r="C10">
-        <v>0.668730582784603</v>
+        <v>0.6619715789836605</v>
       </c>
       <c r="D10">
-        <v>0.2417745290081391</v>
+        <v>0.235572390653168</v>
       </c>
       <c r="E10">
-        <v>0.2295559810821491</v>
+        <v>0.2245007808376386</v>
       </c>
       <c r="F10">
-        <v>0.4129772350768765</v>
+        <v>0.4372455073490859</v>
       </c>
       <c r="G10">
-        <v>0.4751859381802519</v>
+        <v>0.4881221024455495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4048,22 +4048,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8019962749570656</v>
+        <v>0.7979939937468425</v>
       </c>
       <c r="C11">
-        <v>0.8002340178043209</v>
+        <v>0.7410045296075115</v>
       </c>
       <c r="D11">
-        <v>0.3369313835327536</v>
+        <v>0.3152049716213028</v>
       </c>
       <c r="E11">
-        <v>0.2988444108206605</v>
+        <v>0.2783069764110523</v>
       </c>
       <c r="F11">
-        <v>0.2853316284022673</v>
+        <v>0.3407437968021723</v>
       </c>
       <c r="G11">
-        <v>0.5058152439007989</v>
+        <v>0.5491163196426532</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4071,22 +4071,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9056908549076456</v>
+        <v>0.9065306410725713</v>
       </c>
       <c r="C12">
-        <v>0.8924278670525156</v>
+        <v>0.8923463720676953</v>
       </c>
       <c r="D12">
-        <v>0.09528550120460343</v>
+        <v>0.09366870314532134</v>
       </c>
       <c r="E12">
-        <v>0.09450978953994754</v>
+        <v>0.09449295624716722</v>
       </c>
       <c r="F12">
-        <v>0.2810260306381648</v>
+        <v>0.3225270183262801</v>
       </c>
       <c r="G12">
-        <v>0.2907295774318998</v>
+        <v>0.2822672705193776</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4117,22 +4117,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5403336014555183</v>
+        <v>0.5470798286053556</v>
       </c>
       <c r="C14">
-        <v>0.5309199040302407</v>
+        <v>0.5218909620964501</v>
       </c>
       <c r="D14">
-        <v>0.3711201572015638</v>
+        <v>0.353330091540026</v>
       </c>
       <c r="E14">
-        <v>0.3436336145191924</v>
+        <v>0.3255813278651697</v>
       </c>
       <c r="F14">
-        <v>0.5041448281361235</v>
+        <v>0.5155697789792163</v>
       </c>
       <c r="G14">
-        <v>0.6028934269123501</v>
+        <v>0.6230077853059436</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4140,22 +4140,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6796129784497392</v>
+        <v>0.6822010500706656</v>
       </c>
       <c r="C15">
-        <v>0.668730582784603</v>
+        <v>0.6619715789836605</v>
       </c>
       <c r="D15">
-        <v>0.2417745290081391</v>
+        <v>0.235572390653168</v>
       </c>
       <c r="E15">
-        <v>0.2295559810821491</v>
+        <v>0.2245007808376386</v>
       </c>
       <c r="F15">
-        <v>0.4129772350768765</v>
+        <v>0.4372455073490859</v>
       </c>
       <c r="G15">
-        <v>0.4751859381802519</v>
+        <v>0.4881221024455495</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4163,22 +4163,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8813594239788066</v>
+        <v>0.8769771760026056</v>
       </c>
       <c r="C16">
-        <v>0.8747402495742782</v>
+        <v>0.8364985082000465</v>
       </c>
       <c r="D16">
-        <v>0.1971923230882353</v>
+        <v>0.1917204738320034</v>
       </c>
       <c r="E16">
-        <v>0.1815941664666013</v>
+        <v>0.1772245497493211</v>
       </c>
       <c r="F16">
-        <v>0.2807578150511463</v>
+        <v>0.3290697701167557</v>
       </c>
       <c r="G16">
-        <v>0.3931242538775189</v>
+        <v>0.4190871198928336</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4186,22 +4186,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8053463715531896</v>
+        <v>0.8011827233501227</v>
       </c>
       <c r="C17">
-        <v>0.8038898584572085</v>
+        <v>0.7454045934315466</v>
       </c>
       <c r="D17">
-        <v>0.3303431013410459</v>
+        <v>0.3099869453104643</v>
       </c>
       <c r="E17">
-        <v>0.2938212740861124</v>
+        <v>0.2743565310054216</v>
       </c>
       <c r="F17">
-        <v>0.2860663215287765</v>
+        <v>0.340016991923818</v>
       </c>
       <c r="G17">
-        <v>0.5016646285659644</v>
+        <v>0.5446426877100814</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4209,22 +4209,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6837457635872224</v>
+        <v>0.6862661933013745</v>
       </c>
       <c r="C18">
-        <v>0.6729443505789841</v>
+        <v>0.6659542186596488</v>
       </c>
       <c r="D18">
-        <v>0.2341007628806351</v>
+        <v>0.2280826017555423</v>
       </c>
       <c r="E18">
-        <v>0.221599053630135</v>
+        <v>0.2166994576672227</v>
       </c>
       <c r="F18">
-        <v>0.4129548726581159</v>
+        <v>0.43742006711713</v>
       </c>
       <c r="G18">
-        <v>0.4756483578885263</v>
+        <v>0.488644391628505</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4232,22 +4232,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9065014217049906</v>
+        <v>0.899577119516531</v>
       </c>
       <c r="C19">
-        <v>0.9001316487778614</v>
+        <v>0.8517694865633351</v>
       </c>
       <c r="D19">
-        <v>0.1863645979819809</v>
+        <v>0.1811407008492705</v>
       </c>
       <c r="E19">
-        <v>0.169653780588245</v>
+        <v>0.1655159061588038</v>
       </c>
       <c r="F19">
-        <v>0.2784179811731319</v>
+        <v>0.3281768342357997</v>
       </c>
       <c r="G19">
-        <v>0.3936519997080227</v>
+        <v>0.4200206572942515</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4258,19 +4258,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.951882062345848</v>
+        <v>0.9500247141259155</v>
       </c>
       <c r="D20">
-        <v>0.006865038571355051</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.007229644511365782</v>
       </c>
       <c r="F20">
-        <v>0.2778932313861954</v>
+        <v>0.3205357707897339</v>
       </c>
       <c r="G20">
-        <v>0.2878722059760128</v>
+        <v>0.2792307485283535</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4278,22 +4278,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5459532522979862</v>
+        <v>0.5525615154678394</v>
       </c>
       <c r="C21">
-        <v>0.5366610331088455</v>
+        <v>0.5273417387091326</v>
       </c>
       <c r="D21">
-        <v>0.3603391259857738</v>
+        <v>0.3430116555139556</v>
       </c>
       <c r="E21">
-        <v>0.3326880552076275</v>
+        <v>0.3151096619053985</v>
       </c>
       <c r="F21">
-        <v>0.5054983370332874</v>
+        <v>0.5170271914189364</v>
       </c>
       <c r="G21">
-        <v>0.6058746937883974</v>
+        <v>0.6261018971042248</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4301,22 +4301,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5406632455145983</v>
+        <v>0.5476176545287819</v>
       </c>
       <c r="C22">
-        <v>0.5309293363264214</v>
+        <v>0.5215907536157716</v>
       </c>
       <c r="D22">
-        <v>0.36571781990643</v>
+        <v>0.347494527925486</v>
       </c>
       <c r="E22">
-        <v>0.3370762917856443</v>
+        <v>0.3187257808795155</v>
       </c>
       <c r="F22">
-        <v>0.5082575082136508</v>
+        <v>0.5198263009856702</v>
       </c>
       <c r="G22">
-        <v>0.6104287042931904</v>
+        <v>0.6306962151945034</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4324,22 +4324,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8422841341989602</v>
+        <v>0.8336817453909853</v>
       </c>
       <c r="C23">
-        <v>0.8439399928826826</v>
+        <v>0.7660045967682346</v>
       </c>
       <c r="D23">
-        <v>0.31864361656683</v>
+        <v>0.2979793399218667</v>
       </c>
       <c r="E23">
-        <v>0.2795714219069244</v>
+        <v>0.2601361749144023</v>
       </c>
       <c r="F23">
-        <v>0.2802999919047973</v>
+        <v>0.3385014419815029</v>
       </c>
       <c r="G23">
-        <v>0.5080281841298531</v>
+        <v>0.551944249245619</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4347,22 +4347,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9059444655753093</v>
+        <v>0.8990035580892645</v>
       </c>
       <c r="C24">
-        <v>0.8994819743313123</v>
+        <v>0.8508672346093695</v>
       </c>
       <c r="D24">
-        <v>0.1874677080733528</v>
+        <v>0.1821393573504608</v>
       </c>
       <c r="E24">
-        <v>0.1706141464574505</v>
+        <v>0.166399230109928</v>
       </c>
       <c r="F24">
-        <v>0.2780301229489924</v>
+        <v>0.3283673987951327</v>
       </c>
       <c r="G24">
-        <v>0.3944348315125121</v>
+        <v>0.4209379232375045</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4370,22 +4370,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6517013294211533</v>
+        <v>0.6539023755984246</v>
       </c>
       <c r="C25">
-        <v>0.6394490734966071</v>
+        <v>0.6411465627837231</v>
       </c>
       <c r="D25">
-        <v>0.1921808401052913</v>
+        <v>0.1897787507238192</v>
       </c>
       <c r="E25">
-        <v>0.1911593224032448</v>
+        <v>0.1908554313001286</v>
       </c>
       <c r="F25">
-        <v>0.4535956083272024</v>
+        <v>0.4749194386826547</v>
       </c>
       <c r="G25">
-        <v>0.4588485296089899</v>
+        <v>0.4524388012092083</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4393,22 +4393,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.6496215928796153</v>
+        <v>0.6518690612858017</v>
       </c>
       <c r="C26">
-        <v>0.6371248445240457</v>
+        <v>0.6388632521934192</v>
       </c>
       <c r="D26">
-        <v>0.1935085316717385</v>
+        <v>0.1910540638367159</v>
       </c>
       <c r="E26">
-        <v>0.1924651374219925</v>
+        <v>0.1921533470012665</v>
       </c>
       <c r="F26">
-        <v>0.4550391313743902</v>
+        <v>0.4766298632351219</v>
       </c>
       <c r="G26">
-        <v>0.4603604407564316</v>
+        <v>0.4538537092987404</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4416,22 +4416,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.6823389871048975</v>
+        <v>0.6849123086103784</v>
       </c>
       <c r="C27">
-        <v>0.671373310577103</v>
+        <v>0.664383386478767</v>
       </c>
       <c r="D27">
-        <v>0.2353102770556351</v>
+        <v>0.2291877662072331</v>
       </c>
       <c r="E27">
-        <v>0.2226944604443887</v>
+        <v>0.2177149711934317</v>
       </c>
       <c r="F27">
-        <v>0.4137078554987941</v>
+        <v>0.4383339562438368</v>
       </c>
       <c r="G27">
-        <v>0.4768101903782962</v>
+        <v>0.4898131757519523</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4462,22 +4462,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.738608191634393</v>
+        <v>0.7393100390013</v>
       </c>
       <c r="C29">
-        <v>0.7338720184057096</v>
+        <v>0.6988642016275025</v>
       </c>
       <c r="D29">
-        <v>0.3621998881243977</v>
+        <v>0.3419756277707239</v>
       </c>
       <c r="E29">
-        <v>0.3299342607270838</v>
+        <v>0.3100711824140002</v>
       </c>
       <c r="F29">
-        <v>0.2991667094287597</v>
+        <v>0.3444343406010296</v>
       </c>
       <c r="G29">
-        <v>0.4890587632158594</v>
+        <v>0.5297088267396104</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4485,22 +4485,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8305236560658982</v>
+        <v>0.8318539567747243</v>
       </c>
       <c r="C30">
-        <v>0.819974025677515</v>
+        <v>0.8207159257607041</v>
       </c>
       <c r="D30">
-        <v>0.1708446612287546</v>
+        <v>0.1685040242815741</v>
       </c>
       <c r="E30">
-        <v>0.1698366065165777</v>
+        <v>0.1695645991458846</v>
       </c>
       <c r="F30">
-        <v>0.2905765299690981</v>
+        <v>0.3271825382094053</v>
       </c>
       <c r="G30">
-        <v>0.2991061031344845</v>
+        <v>0.291507084000018</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4554,22 +4554,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.3845649048395411</v>
+        <v>0.391531641210047</v>
       </c>
       <c r="C33">
-        <v>0.3770508856372882</v>
+        <v>0.3746254525859045</v>
       </c>
       <c r="D33">
-        <v>0.4037587043266128</v>
+        <v>0.3925206362797524</v>
       </c>
       <c r="E33">
-        <v>0.3879411224217433</v>
+        <v>0.3755767493295811</v>
       </c>
       <c r="F33">
-        <v>0.648421979852179</v>
+        <v>0.6511011137661308</v>
       </c>
       <c r="G33">
-        <v>0.703073969347056</v>
+        <v>0.7106176938556792</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4577,22 +4577,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.4855182895861974</v>
+        <v>0.4879030136665251</v>
       </c>
       <c r="C34">
-        <v>0.4737872280206613</v>
+        <v>0.4756525127478182</v>
       </c>
       <c r="D34">
-        <v>0.2980163671924164</v>
+        <v>0.2954680065641969</v>
       </c>
       <c r="E34">
-        <v>0.2969612985720809</v>
+        <v>0.296583632728404</v>
       </c>
       <c r="F34">
-        <v>0.5966946736418722</v>
+        <v>0.6105097950672073</v>
       </c>
       <c r="G34">
-        <v>0.6003160493482762</v>
+        <v>0.5951516034296779</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4623,22 +4623,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8284714878563353</v>
+        <v>0.8214385473571334</v>
       </c>
       <c r="C36">
-        <v>0.8288155640474745</v>
+        <v>0.7560451704226864</v>
       </c>
       <c r="D36">
-        <v>0.3284901944306312</v>
+        <v>0.3064481837240546</v>
       </c>
       <c r="E36">
-        <v>0.2884358158069097</v>
+        <v>0.2678663969608978</v>
       </c>
       <c r="F36">
-        <v>0.2809076256640937</v>
+        <v>0.3396250600646692</v>
       </c>
       <c r="G36">
-        <v>0.5108117513265716</v>
+        <v>0.5548195294886333</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4646,22 +4646,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.6848964042840716</v>
+        <v>0.6883501190274316</v>
       </c>
       <c r="C37">
-        <v>0.6772565122556827</v>
+        <v>0.6504542041511969</v>
       </c>
       <c r="D37">
-        <v>0.3392225398495773</v>
+        <v>0.3180875258528061</v>
       </c>
       <c r="E37">
-        <v>0.3025637038250547</v>
+        <v>0.2823909019085893</v>
       </c>
       <c r="F37">
-        <v>0.3836396725532591</v>
+        <v>0.4137826200378949</v>
       </c>
       <c r="G37">
-        <v>0.5472344126831382</v>
+        <v>0.5815101832724275</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4669,22 +4669,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8685607945241142</v>
+        <v>0.86025560403264</v>
       </c>
       <c r="C38">
-        <v>0.8670674202321716</v>
+        <v>0.8004297744876704</v>
       </c>
       <c r="D38">
-        <v>0.2621572169210191</v>
+        <v>0.2500107198380235</v>
       </c>
       <c r="E38">
-        <v>0.2345920800004243</v>
+        <v>0.2232742724941015</v>
       </c>
       <c r="F38">
-        <v>0.2787106666436026</v>
+        <v>0.3343773429397899</v>
       </c>
       <c r="G38">
-        <v>0.4613803013014395</v>
+        <v>0.4992242020346318</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4692,22 +4692,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.8400988033387695</v>
+        <v>0.8315487010797473</v>
       </c>
       <c r="C39">
-        <v>0.8415834928654822</v>
+        <v>0.7627981293170965</v>
       </c>
       <c r="D39">
-        <v>0.3236729796711754</v>
+        <v>0.3019218175666953</v>
       </c>
       <c r="E39">
-        <v>0.2833372767810858</v>
+        <v>0.2630697540367688</v>
       </c>
       <c r="F39">
-        <v>0.2795709852591174</v>
+        <v>0.3390448514925824</v>
       </c>
       <c r="G39">
-        <v>0.5114083288020308</v>
+        <v>0.5555727040461615</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -4715,22 +4715,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9502654774297127</v>
+        <v>0.9507347455908538</v>
       </c>
       <c r="C40">
-        <v>0.930243793815422</v>
+        <v>0.9292906485033814</v>
       </c>
       <c r="D40">
-        <v>0.05058470591252145</v>
+        <v>0.04937290764979603</v>
       </c>
       <c r="E40">
-        <v>0.04984292997876376</v>
+        <v>0.05017842593869124</v>
       </c>
       <c r="F40">
-        <v>0.2782371542152907</v>
+        <v>0.3211866911435511</v>
       </c>
       <c r="G40">
-        <v>0.2882916767667309</v>
+        <v>0.2795779286967118</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4738,22 +4738,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7868372368231128</v>
+        <v>0.7885060697844019</v>
       </c>
       <c r="C41">
-        <v>0.7753164402540129</v>
+        <v>0.7764410977441218</v>
       </c>
       <c r="D41">
-        <v>0.110711981953103</v>
+        <v>0.1089441682336096</v>
       </c>
       <c r="E41">
-        <v>0.1098958502969101</v>
+        <v>0.1098092595993636</v>
       </c>
       <c r="F41">
-        <v>0.3490010662937013</v>
+        <v>0.3806910882986186</v>
       </c>
       <c r="G41">
-        <v>0.3564784040730675</v>
+        <v>0.3489140775430276</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -4761,22 +4761,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9444636632565001</v>
+        <v>0.9399013137885611</v>
       </c>
       <c r="C42">
-        <v>0.9293096283157852</v>
+        <v>0.9021439179161256</v>
       </c>
       <c r="D42">
-        <v>0.1125854151252637</v>
+        <v>0.1104853657518481</v>
       </c>
       <c r="E42">
-        <v>0.103163736032868</v>
+        <v>0.1023663357771144</v>
       </c>
       <c r="F42">
-        <v>0.2775304459526384</v>
+        <v>0.3234921805266748</v>
       </c>
       <c r="G42">
-        <v>0.3312192930303403</v>
+        <v>0.3409199249405729</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4787,19 +4787,19 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0.951530640860206</v>
+        <v>0.9496662058185152</v>
       </c>
       <c r="D43">
-        <v>0.006913103028445603</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.007279284678182216</v>
       </c>
       <c r="F43">
-        <v>0.2774244182175941</v>
+        <v>0.3206745425462661</v>
       </c>
       <c r="G43">
-        <v>0.2875517533439875</v>
+        <v>0.2787909240987064</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -4853,22 +4853,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.8501629009288705</v>
+        <v>0.8414258241086353</v>
       </c>
       <c r="C46">
-        <v>0.8523625319599364</v>
+        <v>0.7775371287696715</v>
       </c>
       <c r="D46">
-        <v>0.3009196922050229</v>
+        <v>0.2837985713091205</v>
       </c>
       <c r="E46">
-        <v>0.2660362030847396</v>
+        <v>0.2494070430155348</v>
       </c>
       <c r="F46">
-        <v>0.2828987419281443</v>
+        <v>0.3365195181355873</v>
       </c>
       <c r="G46">
-        <v>0.4957159932364843</v>
+        <v>0.5386459205940313</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -4879,19 +4879,19 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0.9532138518289194</v>
+        <v>0.9513845785010447</v>
       </c>
       <c r="D47">
-        <v>0.006682362468747105</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.007040799726918567</v>
       </c>
       <c r="F47">
-        <v>0.2796412985938177</v>
+        <v>0.3200159569391648</v>
       </c>
       <c r="G47">
-        <v>0.2890683427392461</v>
+        <v>0.2808731697612834</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4899,22 +4899,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7356853500460024</v>
+        <v>0.7369645260554611</v>
       </c>
       <c r="C48">
-        <v>0.7278087804771266</v>
+        <v>0.7041143016546851</v>
       </c>
       <c r="D48">
-        <v>0.2747919819420253</v>
+        <v>0.2630547137952948</v>
       </c>
       <c r="E48">
-        <v>0.2502603721731766</v>
+        <v>0.239105376593791</v>
       </c>
       <c r="F48">
-        <v>0.3591544531719744</v>
+        <v>0.3927891032014675</v>
       </c>
       <c r="G48">
-        <v>0.4914933281327273</v>
+        <v>0.5210079358255901</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4922,22 +4922,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.6597145585545697</v>
+        <v>0.6621352451574514</v>
       </c>
       <c r="C49">
-        <v>0.6477076900484177</v>
+        <v>0.647020261161464</v>
       </c>
       <c r="D49">
-        <v>0.2072296849620101</v>
+        <v>0.2037904676920186</v>
       </c>
       <c r="E49">
-        <v>0.2023086385113849</v>
+        <v>0.2006387069916046</v>
       </c>
       <c r="F49">
-        <v>0.4419354229070209</v>
+        <v>0.4640022307546603</v>
       </c>
       <c r="G49">
-        <v>0.4654017619510652</v>
+        <v>0.4657972134400922</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4945,22 +4945,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.5977183949317392</v>
+        <v>0.6023851515183321</v>
       </c>
       <c r="C50">
-        <v>0.5872018865539718</v>
+        <v>0.5788539453406802</v>
       </c>
       <c r="D50">
-        <v>0.3104710241024676</v>
+        <v>0.2987839304306368</v>
       </c>
       <c r="E50">
-        <v>0.2901456757325201</v>
+        <v>0.2787650246595439</v>
       </c>
       <c r="F50">
-        <v>0.4719989061649842</v>
+        <v>0.4888810774388512</v>
       </c>
       <c r="G50">
-        <v>0.5568627109412169</v>
+        <v>0.574319606047567</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4968,22 +4968,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.8001341099570012</v>
+        <v>0.8000162093218477</v>
       </c>
       <c r="C51">
-        <v>0.7914019408429467</v>
+        <v>0.7722513846743692</v>
       </c>
       <c r="D51">
-        <v>0.2018608643601346</v>
+        <v>0.1962522273066644</v>
       </c>
       <c r="E51">
-        <v>0.1865872810786141</v>
+        <v>0.1820992517212881</v>
       </c>
       <c r="F51">
-        <v>0.3272896572962964</v>
+        <v>0.3656988244160183</v>
       </c>
       <c r="G51">
-        <v>0.4204483849835452</v>
+        <v>0.4418851150583567</v>
       </c>
     </row>
   </sheetData>
@@ -5007,13 +5007,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -5070,19 +5070,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -5099,16 +5099,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5237,13 +5237,13 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -5260,16 +5260,16 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5375,13 +5375,13 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -5444,16 +5444,16 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5507,19 +5507,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>6</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -5559,16 +5559,16 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5582,16 +5582,16 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5651,13 +5651,13 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -5674,16 +5674,16 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5737,7 +5737,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -5746,7 +5746,7 @@
         <v>3</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -5766,16 +5766,16 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5806,19 +5806,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -5875,19 +5875,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -5904,16 +5904,16 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5927,16 +5927,16 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5973,16 +5973,16 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6036,19 +6036,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E46">
         <v>6</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -6065,16 +6065,16 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -6190,13 +6190,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -6253,22 +6253,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8449850311722866</v>
+        <v>0.8479032139303612</v>
       </c>
       <c r="C4">
-        <v>0.8600043910589805</v>
+        <v>0.8199794507542748</v>
       </c>
       <c r="D4">
-        <v>0.3210566408743118</v>
+        <v>0.3095009831841629</v>
       </c>
       <c r="E4">
-        <v>0.277014875217352</v>
+        <v>0.2655766775282045</v>
       </c>
       <c r="F4">
-        <v>0.2426901462468489</v>
+        <v>0.3089885961706946</v>
       </c>
       <c r="G4">
-        <v>0.5099041530816424</v>
+        <v>0.5550954094218175</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6279,19 +6279,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9429846364536536</v>
+        <v>0.9385963560948836</v>
       </c>
       <c r="D5">
-        <v>0.04880828829615134</v>
+        <v>0.01304256198005418</v>
       </c>
       <c r="E5">
-        <v>0.0385884081697629</v>
+        <v>0.02088922633172163</v>
       </c>
       <c r="F5">
+        <v>0.02102303199028077</v>
+      </c>
+      <c r="G5">
         <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.04484545486342015</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6322,22 +6322,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7296188466985399</v>
+        <v>0.729778214405564</v>
       </c>
       <c r="C7">
-        <v>0.7219760947999742</v>
+        <v>0.7148195373181412</v>
       </c>
       <c r="D7">
-        <v>0.2345726242431369</v>
+        <v>0.2287866177695818</v>
       </c>
       <c r="E7">
-        <v>0.2169496744174239</v>
+        <v>0.2131750949717849</v>
       </c>
       <c r="F7">
-        <v>0.2881100074377145</v>
+        <v>0.3085293263746575</v>
       </c>
       <c r="G7">
-        <v>0.3756196976299295</v>
+        <v>0.393955295033788</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6368,22 +6368,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6228306044596379</v>
+        <v>0.6298482083055162</v>
       </c>
       <c r="C9">
-        <v>0.6216797474542651</v>
+        <v>0.6167786192433958</v>
       </c>
       <c r="D9">
-        <v>0.3371689421246118</v>
+        <v>0.32863457492274</v>
       </c>
       <c r="E9">
-        <v>0.3053288215103232</v>
+        <v>0.2961054291428374</v>
       </c>
       <c r="F9">
-        <v>0.4084890628280872</v>
+        <v>0.4296090004879732</v>
       </c>
       <c r="G9">
-        <v>0.5350248200228028</v>
+        <v>0.5615211547072904</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6391,22 +6391,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7271564399533752</v>
+        <v>0.7273262991940348</v>
       </c>
       <c r="C10">
-        <v>0.7192597521716892</v>
+        <v>0.7119967146570556</v>
       </c>
       <c r="D10">
-        <v>0.2371160546799684</v>
+        <v>0.2311529114480923</v>
       </c>
       <c r="E10">
-        <v>0.2191737834566359</v>
+        <v>0.2152897000794591</v>
       </c>
       <c r="F10">
-        <v>0.2881520882402471</v>
+        <v>0.3088576038180723</v>
       </c>
       <c r="G10">
-        <v>0.3767597936476013</v>
+        <v>0.395198151164224</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6414,22 +6414,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8165413343244967</v>
+        <v>0.820509874422248</v>
       </c>
       <c r="C11">
-        <v>0.8256025769938913</v>
+        <v>0.7958112816828748</v>
       </c>
       <c r="D11">
-        <v>0.3323640519337229</v>
+        <v>0.3207215586275628</v>
       </c>
       <c r="E11">
-        <v>0.2879650229655665</v>
+        <v>0.2764280872977752</v>
       </c>
       <c r="F11">
-        <v>0.2491489346847622</v>
+        <v>0.3116611812485512</v>
       </c>
       <c r="G11">
-        <v>0.5075530446387363</v>
+        <v>0.5518457738241448</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6437,22 +6437,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9124552656719012</v>
+        <v>0.9110931147157773</v>
       </c>
       <c r="C12">
-        <v>0.8943251327159186</v>
+        <v>0.8907798187711669</v>
       </c>
       <c r="D12">
-        <v>0.1068443392701087</v>
+        <v>0.09654814520750862</v>
       </c>
       <c r="E12">
-        <v>0.09669109388835349</v>
+        <v>0.09209802570589162</v>
       </c>
       <c r="F12">
-        <v>0.06080149816792085</v>
+        <v>0.06589584171239454</v>
       </c>
       <c r="G12">
-        <v>0.08381538328548455</v>
+        <v>0.07102322808171971</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6483,22 +6483,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6228306044596379</v>
+        <v>0.6298482083055162</v>
       </c>
       <c r="C14">
-        <v>0.6216797474542651</v>
+        <v>0.6167786192433958</v>
       </c>
       <c r="D14">
-        <v>0.3371689421246118</v>
+        <v>0.32863457492274</v>
       </c>
       <c r="E14">
-        <v>0.3053288215103232</v>
+        <v>0.2961054291428374</v>
       </c>
       <c r="F14">
-        <v>0.4084890628280872</v>
+        <v>0.4296090004879732</v>
       </c>
       <c r="G14">
-        <v>0.5350248200228028</v>
+        <v>0.5615211547072904</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6506,22 +6506,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7271564399533752</v>
+        <v>0.7273262991940348</v>
       </c>
       <c r="C15">
-        <v>0.7192597521716892</v>
+        <v>0.7119967146570556</v>
       </c>
       <c r="D15">
-        <v>0.2371160546799684</v>
+        <v>0.2311529114480923</v>
       </c>
       <c r="E15">
-        <v>0.2191737834566359</v>
+        <v>0.2152897000794591</v>
       </c>
       <c r="F15">
-        <v>0.2881520882402471</v>
+        <v>0.3088576038180723</v>
       </c>
       <c r="G15">
-        <v>0.3767597936476013</v>
+        <v>0.395198151164224</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6529,22 +6529,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8842622735387182</v>
+        <v>0.8835115369684376</v>
       </c>
       <c r="C16">
-        <v>0.8820844881450334</v>
+        <v>0.8603469246492906</v>
       </c>
       <c r="D16">
-        <v>0.2114699605734612</v>
+        <v>0.2051927841896554</v>
       </c>
       <c r="E16">
-        <v>0.1896572888584794</v>
+        <v>0.1856394621187749</v>
       </c>
       <c r="F16">
-        <v>0.1563064112196774</v>
+        <v>0.2009536729592419</v>
       </c>
       <c r="G16">
-        <v>0.3198547922000943</v>
+        <v>0.351074820937939</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6552,22 +6552,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8219992774093614</v>
+        <v>0.8255181581338278</v>
       </c>
       <c r="C17">
-        <v>0.8311943426474034</v>
+        <v>0.8020895583983233</v>
       </c>
       <c r="D17">
-        <v>0.3209225510606168</v>
+        <v>0.3106334176682607</v>
       </c>
       <c r="E17">
-        <v>0.2795244428672535</v>
+        <v>0.2690587773040234</v>
       </c>
       <c r="F17">
-        <v>0.2512122945192355</v>
+        <v>0.3103940661077489</v>
       </c>
       <c r="G17">
-        <v>0.4982934583377664</v>
+        <v>0.54194547813907</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6575,22 +6575,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7331874970043057</v>
+        <v>0.7333382591630062</v>
       </c>
       <c r="C18">
-        <v>0.7255770297637408</v>
+        <v>0.7182627352273111</v>
       </c>
       <c r="D18">
-        <v>0.2278674321697471</v>
+        <v>0.222095083004521</v>
       </c>
       <c r="E18">
-        <v>0.2108205670271552</v>
+        <v>0.2070570191906061</v>
       </c>
       <c r="F18">
-        <v>0.287125101538842</v>
+        <v>0.3077791435351176</v>
       </c>
       <c r="G18">
-        <v>0.3750611240476984</v>
+        <v>0.3936131260108316</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6598,22 +6598,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9039118176856328</v>
+        <v>0.9028527975447048</v>
       </c>
       <c r="C19">
-        <v>0.9033547067083668</v>
+        <v>0.87659984920374</v>
       </c>
       <c r="D19">
-        <v>0.2021393999072506</v>
+        <v>0.1958810248415951</v>
       </c>
       <c r="E19">
-        <v>0.1807448090553823</v>
+        <v>0.1767431295762063</v>
       </c>
       <c r="F19">
-        <v>0.1509808510812249</v>
+        <v>0.1975402193418161</v>
       </c>
       <c r="G19">
-        <v>0.3183438710046946</v>
+        <v>0.350153908560543</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6624,19 +6624,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.9441818934724822</v>
+        <v>0.9399350483071069</v>
       </c>
       <c r="D20">
-        <v>0.04779183928332174</v>
+        <v>0.01277156377223189</v>
       </c>
       <c r="E20">
-        <v>0.03779297786092253</v>
+        <v>0.02045185716738763</v>
       </c>
       <c r="F20">
-        <v>0.05519884655909391</v>
+        <v>0.06038090771611292</v>
       </c>
       <c r="G20">
-        <v>0.07125565834875085</v>
+        <v>0.05607670786228515</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6644,22 +6644,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6335886339083463</v>
+        <v>0.6401672854567485</v>
       </c>
       <c r="C21">
-        <v>0.6326934108201927</v>
+        <v>0.6275859256950551</v>
       </c>
       <c r="D21">
-        <v>0.3212695831165623</v>
+        <v>0.3135047365854788</v>
       </c>
       <c r="E21">
-        <v>0.2917495917087637</v>
+        <v>0.2832040542859764</v>
       </c>
       <c r="F21">
-        <v>0.4056779569266208</v>
+        <v>0.4266982721292867</v>
       </c>
       <c r="G21">
-        <v>0.5301057405165841</v>
+        <v>0.5566895256105153</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6667,22 +6667,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6260765522568901</v>
+        <v>0.6331556204323477</v>
       </c>
       <c r="C22">
-        <v>0.624971178666704</v>
+        <v>0.6198626314925331</v>
       </c>
       <c r="D22">
-        <v>0.3296283128197046</v>
+        <v>0.3211181209035699</v>
       </c>
       <c r="E22">
-        <v>0.2984500435953585</v>
+        <v>0.2892336166379965</v>
       </c>
       <c r="F22">
-        <v>0.4090325683372456</v>
+        <v>0.4305355201698058</v>
       </c>
       <c r="G22">
-        <v>0.537014093136414</v>
+        <v>0.5638258513057806</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6690,22 +6690,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8498260105832358</v>
+        <v>0.8523477714697902</v>
       </c>
       <c r="C23">
-        <v>0.8647507541272953</v>
+        <v>0.8257707000390905</v>
       </c>
       <c r="D23">
-        <v>0.3096128112913875</v>
+        <v>0.2994436317636862</v>
       </c>
       <c r="E23">
-        <v>0.2686258837599124</v>
+        <v>0.2582779354015096</v>
       </c>
       <c r="F23">
-        <v>0.2452522397903442</v>
+        <v>0.3078067306873113</v>
       </c>
       <c r="G23">
-        <v>0.5002397716080587</v>
+        <v>0.5447660734110217</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6713,22 +6713,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9027568173600077</v>
+        <v>0.9016912881873351</v>
       </c>
       <c r="C24">
-        <v>0.9020722855109681</v>
+        <v>0.8749711804845408</v>
       </c>
       <c r="D24">
-        <v>0.2047071571315372</v>
+        <v>0.1982396483246848</v>
       </c>
       <c r="E24">
-        <v>0.1829057736887454</v>
+        <v>0.1787792707096866</v>
       </c>
       <c r="F24">
-        <v>0.146865583053857</v>
+        <v>0.1953638550185117</v>
       </c>
       <c r="G24">
-        <v>0.3189060850253556</v>
+        <v>0.351097581696627</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -6736,22 +6736,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.703021646778679</v>
+        <v>0.6998605931041342</v>
       </c>
       <c r="C25">
-        <v>0.6919121468064431</v>
+        <v>0.6877302128378235</v>
       </c>
       <c r="D25">
-        <v>0.1693500222924152</v>
+        <v>0.1636130655031458</v>
       </c>
       <c r="E25">
-        <v>0.1667324633421206</v>
+        <v>0.164927880570824</v>
       </c>
       <c r="F25">
-        <v>0.2999690776728302</v>
+        <v>0.3073357960010669</v>
       </c>
       <c r="G25">
-        <v>0.3095599947718347</v>
+        <v>0.3031506029598772</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6759,22 +6759,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.6991553582291219</v>
+        <v>0.6958489818120711</v>
       </c>
       <c r="C26">
-        <v>0.6876049027915736</v>
+        <v>0.683222765012547</v>
       </c>
       <c r="D26">
-        <v>0.172040376947712</v>
+        <v>0.1661438896102166</v>
       </c>
       <c r="E26">
-        <v>0.1693420191181888</v>
+        <v>0.1675097736270164</v>
       </c>
       <c r="F26">
-        <v>0.3002462946397459</v>
+        <v>0.30776829372786</v>
       </c>
       <c r="G26">
-        <v>0.3100383493658741</v>
+        <v>0.3034937203067676</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6782,22 +6782,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7307328123762316</v>
+        <v>0.7308940553318398</v>
       </c>
       <c r="C27">
-        <v>0.7228670630333892</v>
+        <v>0.7154441423728304</v>
       </c>
       <c r="D27">
-        <v>0.2303727275297299</v>
+        <v>0.2244234698581896</v>
       </c>
       <c r="E27">
-        <v>0.2130112450383381</v>
+        <v>0.2091383291889073</v>
       </c>
       <c r="F27">
-        <v>0.2871534882969783</v>
+        <v>0.3081002863038612</v>
       </c>
       <c r="G27">
-        <v>0.3762051022541351</v>
+        <v>0.3948627215007451</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6828,22 +6828,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7616970514173772</v>
+        <v>0.7670725569496645</v>
       </c>
       <c r="C29">
-        <v>0.7639670219539814</v>
+        <v>0.7464989169080467</v>
       </c>
       <c r="D29">
-        <v>0.3595206303952622</v>
+        <v>0.347882596234618</v>
       </c>
       <c r="E29">
-        <v>0.3143929021652648</v>
+        <v>0.3028039320860325</v>
       </c>
       <c r="F29">
-        <v>0.2650980165157408</v>
+        <v>0.3185854610516471</v>
       </c>
       <c r="G29">
-        <v>0.5013109849836196</v>
+        <v>0.5431089950639607</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -6851,22 +6851,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8406908461593816</v>
+        <v>0.8384675645623011</v>
       </c>
       <c r="C30">
-        <v>0.8270361773222766</v>
+        <v>0.823319239622066</v>
       </c>
       <c r="D30">
-        <v>0.1800911786280888</v>
+        <v>0.173619871959688</v>
       </c>
       <c r="E30">
-        <v>0.1665221058492614</v>
+        <v>0.1644159880251757</v>
       </c>
       <c r="F30">
-        <v>0.1129854463511536</v>
+        <v>0.11799695035385</v>
       </c>
       <c r="G30">
-        <v>0.1391009282858287</v>
+        <v>0.1309416641640791</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6920,22 +6920,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.5082386082773941</v>
+        <v>0.5137138576222418</v>
       </c>
       <c r="C33">
-        <v>0.5137953943996523</v>
+        <v>0.5126146134491205</v>
       </c>
       <c r="D33">
-        <v>0.3386970491507839</v>
+        <v>0.3339669679602479</v>
       </c>
       <c r="E33">
-        <v>0.3219501890880686</v>
+        <v>0.3162729469524614</v>
       </c>
       <c r="F33">
-        <v>0.5036291285536639</v>
+        <v>0.5119125642502832</v>
       </c>
       <c r="G33">
-        <v>0.5601020498548701</v>
+        <v>0.5721984174204887</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6943,22 +6943,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.5644421879897547</v>
+        <v>0.5613518215039885</v>
       </c>
       <c r="C34">
-        <v>0.5600025488818055</v>
+        <v>0.5563457488930896</v>
       </c>
       <c r="D34">
-        <v>0.2541133053975513</v>
+        <v>0.2506514794863112</v>
       </c>
       <c r="E34">
-        <v>0.2524136572216985</v>
+        <v>0.251702358791099</v>
       </c>
       <c r="F34">
-        <v>0.4304726339085019</v>
+        <v>0.437059916449399</v>
       </c>
       <c r="G34">
-        <v>0.4385688821315263</v>
+        <v>0.4333956170962645</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6989,22 +6989,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8370227943771472</v>
+        <v>0.8402611397267765</v>
       </c>
       <c r="C36">
-        <v>0.8501100268213182</v>
+        <v>0.813347315085341</v>
       </c>
       <c r="D36">
-        <v>0.3240179459237783</v>
+        <v>0.31243466288854</v>
       </c>
       <c r="E36">
-        <v>0.2798800011220079</v>
+        <v>0.2684118019557282</v>
       </c>
       <c r="F36">
-        <v>0.2443702211304787</v>
+        <v>0.309676398703993</v>
       </c>
       <c r="G36">
-        <v>0.5093021342136049</v>
+        <v>0.5542653892966628</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -7012,22 +7012,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.7394236684826679</v>
+        <v>0.745442091976223</v>
       </c>
       <c r="C37">
-        <v>0.7405152839235742</v>
+        <v>0.7257745789714024</v>
       </c>
       <c r="D37">
-        <v>0.3238624149472293</v>
+        <v>0.3132508477255921</v>
       </c>
       <c r="E37">
-        <v>0.2839695976947912</v>
+        <v>0.2731579726944662</v>
       </c>
       <c r="F37">
-        <v>0.3163837399057057</v>
+        <v>0.3579945779028005</v>
       </c>
       <c r="G37">
-        <v>0.5194781989261398</v>
+        <v>0.5580477231814166</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -7035,22 +7035,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8687747263707061</v>
+        <v>0.8694317855942271</v>
       </c>
       <c r="C38">
-        <v>0.8777927256717446</v>
+        <v>0.8424284863550903</v>
       </c>
       <c r="D38">
-        <v>0.2717039399972793</v>
+        <v>0.2633239265091962</v>
       </c>
       <c r="E38">
-        <v>0.2388829272137888</v>
+        <v>0.2314512409778548</v>
       </c>
       <c r="F38">
-        <v>0.2013189285271025</v>
+        <v>0.2611522928089794</v>
       </c>
       <c r="G38">
-        <v>0.4244506960556803</v>
+        <v>0.4638752038784279</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -7058,22 +7058,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.8462417201034169</v>
+        <v>0.8490541278248102</v>
       </c>
       <c r="C39">
-        <v>0.8612402203460759</v>
+        <v>0.8214851967781931</v>
       </c>
       <c r="D39">
-        <v>0.3180584559035605</v>
+        <v>0.3068777912498278</v>
       </c>
       <c r="E39">
-        <v>0.2748347702505748</v>
+        <v>0.2636871544281975</v>
       </c>
       <c r="F39">
-        <v>0.2433613989382539</v>
+        <v>0.3086816827491258</v>
       </c>
       <c r="G39">
-        <v>0.5073916675589032</v>
+        <v>0.5524155955129191</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7081,22 +7081,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9540846434156141</v>
+        <v>0.9533322043196378</v>
       </c>
       <c r="C40">
-        <v>0.9267305732629169</v>
+        <v>0.9228521910672444</v>
       </c>
       <c r="D40">
-        <v>0.06944917985244652</v>
+        <v>0.05194772439766914</v>
       </c>
       <c r="E40">
-        <v>0.06011025784357241</v>
+        <v>0.05136124647251057</v>
       </c>
       <c r="F40">
-        <v>0.03148079815322674</v>
+        <v>0.03846381368705778</v>
       </c>
       <c r="G40">
-        <v>0.05776070401004119</v>
+        <v>0.036952375169465</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -7104,22 +7104,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.8183168241561886</v>
+        <v>0.8158200154051335</v>
       </c>
       <c r="C41">
-        <v>0.8048701472249462</v>
+        <v>0.8009560793207008</v>
       </c>
       <c r="D41">
-        <v>0.1057639644587509</v>
+        <v>0.09570404148827499</v>
       </c>
       <c r="E41">
-        <v>0.1015522589018634</v>
+        <v>0.09738451357951471</v>
       </c>
       <c r="F41">
-        <v>0.1821613899345033</v>
+        <v>0.188421174670689</v>
       </c>
       <c r="G41">
-        <v>0.1918904505641793</v>
+        <v>0.1846519743975789</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -7127,22 +7127,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9411324551079395</v>
+        <v>0.9397487144817875</v>
       </c>
       <c r="C42">
-        <v>0.9257762798164416</v>
+        <v>0.9097147685452869</v>
       </c>
       <c r="D42">
-        <v>0.1314833339165908</v>
+        <v>0.1236542622514932</v>
       </c>
       <c r="E42">
-        <v>0.1176762875558397</v>
+        <v>0.1139319073090087</v>
       </c>
       <c r="F42">
-        <v>0.08862005609470566</v>
+        <v>0.1217158980800818</v>
       </c>
       <c r="G42">
-        <v>0.2045033751705342</v>
+        <v>0.2259459035296146</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -7153,19 +7153,19 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0.943291305419786</v>
+        <v>0.9389395872561443</v>
       </c>
       <c r="D43">
-        <v>0.0485480031490812</v>
+        <v>0.01297319099480939</v>
       </c>
       <c r="E43">
-        <v>0.03838478762250087</v>
+        <v>0.02077723957579822</v>
       </c>
       <c r="F43">
-        <v>0.0286072707517759</v>
+        <v>0.03599770118374988</v>
       </c>
       <c r="G43">
-        <v>0.05307331578900538</v>
+        <v>0.02908309019814389</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -7219,22 +7219,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.8619045236409768</v>
+        <v>0.86356281812627</v>
       </c>
       <c r="C46">
-        <v>0.8764337400022196</v>
+        <v>0.8401202818576223</v>
       </c>
       <c r="D46">
-        <v>0.2821551882196282</v>
+        <v>0.2748431878940258</v>
       </c>
       <c r="E46">
-        <v>0.2477799379289138</v>
+        <v>0.239827790660037</v>
       </c>
       <c r="F46">
-        <v>0.2513554102026727</v>
+        <v>0.3048746066618018</v>
       </c>
       <c r="G46">
-        <v>0.4762899209256207</v>
+        <v>0.5188994282447552</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -7245,19 +7245,19 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0.9473595976671833</v>
+        <v>0.9434716767585679</v>
       </c>
       <c r="D47">
-        <v>0.04509054373754719</v>
+        <v>0.01205020215335651</v>
       </c>
       <c r="E47">
-        <v>0.03567573067444453</v>
+        <v>0.0192889970700526</v>
       </c>
       <c r="F47">
-        <v>0.1017372325363263</v>
+        <v>0.1064177493377261</v>
       </c>
       <c r="G47">
-        <v>0.1121744346885862</v>
+        <v>0.1031793209266455</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -7265,22 +7265,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7783021075117953</v>
+        <v>0.7808372303239017</v>
       </c>
       <c r="C48">
-        <v>0.7769098704337732</v>
+        <v>0.7623325627952747</v>
       </c>
       <c r="D48">
-        <v>0.2715409760039469</v>
+        <v>0.2641015542840892</v>
       </c>
       <c r="E48">
-        <v>0.242467731306934</v>
+        <v>0.2356947513241294</v>
       </c>
       <c r="F48">
-        <v>0.2697383399027627</v>
+        <v>0.3077917930861308</v>
       </c>
       <c r="G48">
-        <v>0.4363279766917012</v>
+        <v>0.4695815732506406</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -7288,22 +7288,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.7096396544780059</v>
+        <v>0.7075772024255017</v>
       </c>
       <c r="C49">
-        <v>0.6992617958289219</v>
+        <v>0.694184547069514</v>
       </c>
       <c r="D49">
-        <v>0.1927979636738124</v>
+        <v>0.1872632975387286</v>
       </c>
       <c r="E49">
-        <v>0.184752722308378</v>
+        <v>0.1824600128516811</v>
       </c>
       <c r="F49">
-        <v>0.2962397440529991</v>
+        <v>0.3077717346441348</v>
       </c>
       <c r="G49">
-        <v>0.3326118676383701</v>
+        <v>0.3364691302462566</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -7311,22 +7311,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6663990427341744</v>
+        <v>0.6700742955348692</v>
       </c>
       <c r="C50">
-        <v>0.6621854390931802</v>
+        <v>0.6558159389108412</v>
       </c>
       <c r="D50">
-        <v>0.2899211545028393</v>
+        <v>0.2829672250527743</v>
       </c>
       <c r="E50">
-        <v>0.265306895390518</v>
+        <v>0.2588083662284188</v>
       </c>
       <c r="F50">
-        <v>0.3615803203775388</v>
+        <v>0.3834499031598618</v>
       </c>
       <c r="G50">
-        <v>0.4715213452166019</v>
+        <v>0.4945849513879967</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -7334,22 +7334,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.8271151777734401</v>
+        <v>0.8268756488984478</v>
       </c>
       <c r="C51">
-        <v>0.8215758463195891</v>
+        <v>0.8080199323804332</v>
       </c>
       <c r="D51">
-        <v>0.2115987134381645</v>
+        <v>0.2053199125332962</v>
       </c>
       <c r="E51">
-        <v>0.1912976918561653</v>
+        <v>0.1872674738320924</v>
       </c>
       <c r="F51">
-        <v>0.2031621883576039</v>
+        <v>0.2366662420130544</v>
       </c>
       <c r="G51">
-        <v>0.3365683724939346</v>
+        <v>0.3639562890339079</v>
       </c>
     </row>
   </sheetData>
@@ -7373,13 +7373,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -7436,19 +7436,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -7465,16 +7465,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7597,19 +7597,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -7721,10 +7721,10 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -7735,19 +7735,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -7787,13 +7787,13 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -7810,16 +7810,16 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7873,19 +7873,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -7905,10 +7905,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -7925,16 +7925,16 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -7948,16 +7948,16 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -8011,19 +8011,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -8103,10 +8103,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -8132,16 +8132,16 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -8172,19 +8172,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -8195,19 +8195,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37">
         <v>6</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -8218,19 +8218,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>4</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -8241,19 +8241,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -8276,10 +8276,10 @@
         <v>4</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -8293,16 +8293,16 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -8319,10 +8319,10 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -8339,16 +8339,16 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E43">
         <v>5</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -8402,19 +8402,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E46">
         <v>6</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -8431,16 +8431,16 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -8454,13 +8454,13 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E48">
         <v>6</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -8523,13 +8523,13 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E51">
         <v>6</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -8556,13 +8556,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -8602,10 +8602,10 @@
         <v>0.6240788893025111</v>
       </c>
       <c r="D3">
-        <v>0.1907851954994328</v>
+        <v>0.1907851954994327</v>
       </c>
       <c r="E3">
-        <v>0.1907851954994328</v>
+        <v>0.1907851954994327</v>
       </c>
       <c r="F3">
         <v>0.4554053614461894</v>
@@ -8619,22 +8619,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8476969941189317</v>
+        <v>0.8515312463879665</v>
       </c>
       <c r="C4">
-        <v>0.8722532135372763</v>
+        <v>0.8465381170002098</v>
       </c>
       <c r="D4">
-        <v>0.3185587575977052</v>
+        <v>0.310669329659325</v>
       </c>
       <c r="E4">
-        <v>0.2726378202225888</v>
+        <v>0.2642663918993782</v>
       </c>
       <c r="F4">
-        <v>0.2169738378266709</v>
+        <v>0.2843390819271795</v>
       </c>
       <c r="G4">
-        <v>0.5056558525387763</v>
+        <v>0.5520256899995239</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8645,19 +8645,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9447074177795957</v>
+        <v>0.9415984430937726</v>
       </c>
       <c r="D5">
-        <v>0.01668100499373585</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.006546821388193756</v>
+        <v>0.007901252810676739</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.04146694530204726</v>
       </c>
       <c r="G5">
-        <v>0.04187852175930987</v>
+        <v>0.0173728271368693</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8688,22 +8688,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8500945625099057</v>
+        <v>0.8515922567361244</v>
       </c>
       <c r="C7">
-        <v>0.8503363725774528</v>
+        <v>0.8423261648447536</v>
       </c>
       <c r="D7">
-        <v>0.2043986443957695</v>
+        <v>0.2010532438899886</v>
       </c>
       <c r="E7">
-        <v>0.1848509838369918</v>
+        <v>0.1828099598353713</v>
       </c>
       <c r="F7">
-        <v>0.1892086942943544</v>
+        <v>0.221322081714825</v>
       </c>
       <c r="G7">
-        <v>0.3261605695971081</v>
+        <v>0.3538689730401365</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8734,22 +8734,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7758330122719101</v>
+        <v>0.7811449872368627</v>
       </c>
       <c r="C9">
-        <v>0.7858907391438799</v>
+        <v>0.7758225899070891</v>
       </c>
       <c r="D9">
-        <v>0.3131200282710405</v>
+        <v>0.3067948906213782</v>
       </c>
       <c r="E9">
-        <v>0.27479136092631</v>
+        <v>0.2676474028748054</v>
       </c>
       <c r="F9">
-        <v>0.2842091971292479</v>
+        <v>0.324479291304521</v>
       </c>
       <c r="G9">
-        <v>0.4918126081400808</v>
+        <v>0.5311310293641913</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8757,22 +8757,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8469824246088478</v>
+        <v>0.8485964187897891</v>
       </c>
       <c r="C10">
-        <v>0.8469820055519486</v>
+        <v>0.8388392629990559</v>
       </c>
       <c r="D10">
-        <v>0.2088708650444519</v>
+        <v>0.2052641943983013</v>
       </c>
       <c r="E10">
-        <v>0.1886629071491414</v>
+        <v>0.1864778142396302</v>
       </c>
       <c r="F10">
-        <v>0.1899509262486499</v>
+        <v>0.2232164018853518</v>
       </c>
       <c r="G10">
-        <v>0.3308898893296461</v>
+        <v>0.3588411479552607</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8780,22 +8780,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8233040493604927</v>
+        <v>0.8278225975993004</v>
       </c>
       <c r="C11">
-        <v>0.8399280705919095</v>
+        <v>0.821499022707929</v>
       </c>
       <c r="D11">
-        <v>0.3283290476465134</v>
+        <v>0.3204478165513969</v>
       </c>
       <c r="E11">
-        <v>0.2842567995250644</v>
+        <v>0.2758309720986838</v>
       </c>
       <c r="F11">
-        <v>0.2262223467927361</v>
+        <v>0.2880816977223735</v>
       </c>
       <c r="G11">
-        <v>0.4992890769825788</v>
+        <v>0.5445975727324216</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8803,22 +8803,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9157346172385337</v>
+        <v>0.9159652262436337</v>
       </c>
       <c r="C12">
-        <v>0.8982618332417387</v>
+        <v>0.8967876267089225</v>
       </c>
       <c r="D12">
-        <v>0.0960127061710437</v>
+        <v>0.09323692266564441</v>
       </c>
       <c r="E12">
-        <v>0.0931733707161243</v>
+        <v>0.09311297244111361</v>
       </c>
       <c r="F12">
-        <v>0.06868524977345637</v>
+        <v>0.08071756324247936</v>
       </c>
       <c r="G12">
-        <v>0.08240992908321357</v>
+        <v>0.07280375791736499</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8849,22 +8849,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7758330122719101</v>
+        <v>0.7811449872368627</v>
       </c>
       <c r="C14">
-        <v>0.7858907391438799</v>
+        <v>0.7758225899070891</v>
       </c>
       <c r="D14">
-        <v>0.3131200282710405</v>
+        <v>0.3067948906213782</v>
       </c>
       <c r="E14">
-        <v>0.27479136092631</v>
+        <v>0.2676474028748054</v>
       </c>
       <c r="F14">
-        <v>0.2842091971292479</v>
+        <v>0.324479291304521</v>
       </c>
       <c r="G14">
-        <v>0.4918126081400808</v>
+        <v>0.5311310293641913</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8872,22 +8872,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8469824246088478</v>
+        <v>0.8485964187897891</v>
       </c>
       <c r="C15">
-        <v>0.8469820055519486</v>
+        <v>0.8388392629990559</v>
       </c>
       <c r="D15">
-        <v>0.2088708650444519</v>
+        <v>0.2052641943983013</v>
       </c>
       <c r="E15">
-        <v>0.1886629071491414</v>
+        <v>0.1864778142396302</v>
       </c>
       <c r="F15">
-        <v>0.1899509262486499</v>
+        <v>0.2232164018853518</v>
       </c>
       <c r="G15">
-        <v>0.3308898893296461</v>
+        <v>0.3588411479552607</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8895,22 +8895,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8872269726660514</v>
+        <v>0.8881924152610109</v>
       </c>
       <c r="C16">
-        <v>0.8903331030092863</v>
+        <v>0.8775073850117981</v>
       </c>
       <c r="D16">
-        <v>0.2051259934593872</v>
+        <v>0.2015835506279713</v>
       </c>
       <c r="E16">
-        <v>0.1845323629835954</v>
+        <v>0.1823904740084421</v>
       </c>
       <c r="F16">
-        <v>0.143493892746652</v>
+        <v>0.1879487786578932</v>
       </c>
       <c r="G16">
-        <v>0.31462417927175</v>
+        <v>0.3462123302264352</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8918,22 +8918,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.83260010677978</v>
+        <v>0.8363345979669708</v>
       </c>
       <c r="C17">
-        <v>0.8489358462586465</v>
+        <v>0.8312361232271814</v>
       </c>
       <c r="D17">
-        <v>0.3083763560734182</v>
+        <v>0.3021283905721406</v>
       </c>
       <c r="E17">
-        <v>0.2695085351877028</v>
+        <v>0.2624484887249982</v>
       </c>
       <c r="F17">
-        <v>0.2206472101224455</v>
+        <v>0.2777295855584756</v>
       </c>
       <c r="G17">
-        <v>0.4721846387861456</v>
+        <v>0.5163409521528575</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -8941,22 +8941,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8603120025547002</v>
+        <v>0.861681386168643</v>
       </c>
       <c r="C18">
-        <v>0.8614244704734002</v>
+        <v>0.8523590246846163</v>
       </c>
       <c r="D18">
-        <v>0.1960121277416655</v>
+        <v>0.1927896898843339</v>
       </c>
       <c r="E18">
-        <v>0.1757058663319002</v>
+        <v>0.1737477624077677</v>
       </c>
       <c r="F18">
-        <v>0.185108448407239</v>
+        <v>0.2183701903430527</v>
       </c>
       <c r="G18">
-        <v>0.3256172726615949</v>
+        <v>0.3537887286501477</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -8964,22 +8964,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9046833722088445</v>
+        <v>0.9053184060960315</v>
       </c>
       <c r="C19">
-        <v>0.9105760672275562</v>
+        <v>0.8941002287837413</v>
       </c>
       <c r="D19">
-        <v>0.1963044659683472</v>
+        <v>0.1928980167873475</v>
       </c>
       <c r="E19">
-        <v>0.1748519746721046</v>
+        <v>0.1728028060544636</v>
       </c>
       <c r="F19">
-        <v>0.1359770791955513</v>
+        <v>0.1832713938980608</v>
       </c>
       <c r="G19">
-        <v>0.313818811895596</v>
+        <v>0.3460088331840884</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8990,19 +8990,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.9469453411338554</v>
+        <v>0.9439558502887948</v>
       </c>
       <c r="D20">
-        <v>0.01603030228704647</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.006293845659503139</v>
+        <v>0.007597305092177011</v>
       </c>
       <c r="F20">
-        <v>0.04871494378924283</v>
+        <v>0.06331398392178002</v>
       </c>
       <c r="G20">
-        <v>0.06366259225252957</v>
+        <v>0.05182281701462624</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -9010,22 +9010,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7984621074009194</v>
+        <v>0.8028285209383142</v>
       </c>
       <c r="C21">
-        <v>0.8102002538311343</v>
+        <v>0.7987649740305199</v>
       </c>
       <c r="D21">
-        <v>0.2871817325521159</v>
+        <v>0.2820847635014737</v>
       </c>
       <c r="E21">
-        <v>0.2513855071966606</v>
+        <v>0.2453572425564855</v>
       </c>
       <c r="F21">
-        <v>0.2723428691372125</v>
+        <v>0.3120886684109687</v>
       </c>
       <c r="G21">
-        <v>0.4732592705357561</v>
+        <v>0.5124688714608251</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -9033,22 +9033,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7884136811388788</v>
+        <v>0.7935722106588025</v>
       </c>
       <c r="C22">
-        <v>0.8003649802521665</v>
+        <v>0.7885908504805713</v>
       </c>
       <c r="D22">
-        <v>0.3036717556432076</v>
+        <v>0.297386101499689</v>
       </c>
       <c r="E22">
-        <v>0.2638738265487157</v>
+        <v>0.2567969120236912</v>
       </c>
       <c r="F22">
-        <v>0.2809237255949701</v>
+        <v>0.3232630850911747</v>
       </c>
       <c r="G22">
-        <v>0.4967416556222352</v>
+        <v>0.5368514752816276</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -9056,22 +9056,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8561661323173948</v>
+        <v>0.859268641498299</v>
       </c>
       <c r="C23">
-        <v>0.8799224874837892</v>
+        <v>0.8554023374852411</v>
       </c>
       <c r="D23">
-        <v>0.2984184702564165</v>
+        <v>0.292228034219181</v>
       </c>
       <c r="E23">
-        <v>0.2579665404123095</v>
+        <v>0.250992541215481</v>
       </c>
       <c r="F23">
-        <v>0.211998124226778</v>
+        <v>0.273804686427911</v>
       </c>
       <c r="G23">
-        <v>0.4766371544247019</v>
+        <v>0.521790308065878</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -9079,22 +9079,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9024750907512443</v>
+        <v>0.9031908407543994</v>
       </c>
       <c r="C24">
-        <v>0.9082928993638937</v>
+        <v>0.8914570037348644</v>
       </c>
       <c r="D24">
-        <v>0.2009387250344504</v>
+        <v>0.1972434776202999</v>
       </c>
       <c r="E24">
-        <v>0.1787301687386245</v>
+        <v>0.176524928895072</v>
       </c>
       <c r="F24">
-        <v>0.1340730162113874</v>
+        <v>0.1838659053030037</v>
       </c>
       <c r="G24">
-        <v>0.3186449049908016</v>
+        <v>0.351196607089347</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -9102,22 +9102,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8672764215887244</v>
+        <v>0.8675838650645106</v>
       </c>
       <c r="C25">
-        <v>0.8563270510506636</v>
+        <v>0.855522215869147</v>
       </c>
       <c r="D25">
-        <v>0.06155980545642803</v>
+        <v>0.05892918958846981</v>
       </c>
       <c r="E25">
-        <v>0.05964883361237149</v>
+        <v>0.0596885761522943</v>
       </c>
       <c r="F25">
-        <v>0.1692003386767018</v>
+        <v>0.1767503348527492</v>
       </c>
       <c r="G25">
-        <v>0.1772297746101483</v>
+        <v>0.1714661780559763</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -9125,22 +9125,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.8629465915642107</v>
+        <v>0.8632867236063185</v>
       </c>
       <c r="C26">
-        <v>0.8512697167309554</v>
+        <v>0.8504391914720359</v>
       </c>
       <c r="D26">
-        <v>0.06375531019990212</v>
+        <v>0.06096260211467411</v>
       </c>
       <c r="E26">
-        <v>0.06174154582862463</v>
+        <v>0.06177623790172262</v>
       </c>
       <c r="F26">
-        <v>0.1691235688221149</v>
+        <v>0.1771616973048595</v>
       </c>
       <c r="G26">
-        <v>0.1776741597987491</v>
+        <v>0.1715325514796651</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -9148,22 +9148,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.8573453331251499</v>
+        <v>0.8588264411616573</v>
       </c>
       <c r="C27">
-        <v>0.8582412221563157</v>
+        <v>0.849016609769751</v>
       </c>
       <c r="D27">
-        <v>0.2003811256224902</v>
+        <v>0.196900767426441</v>
       </c>
       <c r="E27">
-        <v>0.1793977730015627</v>
+        <v>0.1772985069402395</v>
       </c>
       <c r="F27">
-        <v>0.1857066916966458</v>
+        <v>0.2201987693715795</v>
       </c>
       <c r="G27">
-        <v>0.3304073564239175</v>
+        <v>0.3588307185064357</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -9194,22 +9194,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7764770653772642</v>
+        <v>0.7818165386950893</v>
       </c>
       <c r="C29">
-        <v>0.7841235651999127</v>
+        <v>0.7738972070809845</v>
       </c>
       <c r="D29">
-        <v>0.35148000685717</v>
+        <v>0.3437870479275096</v>
       </c>
       <c r="E29">
-        <v>0.3116420953230343</v>
+        <v>0.3032571045564753</v>
       </c>
       <c r="F29">
-        <v>0.2472351803812298</v>
+        <v>0.2971624171386918</v>
       </c>
       <c r="G29">
-        <v>0.483311398119991</v>
+        <v>0.5257240496714016</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -9217,22 +9217,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8478334488707201</v>
+        <v>0.8482002739980578</v>
       </c>
       <c r="C30">
-        <v>0.8351047554446072</v>
+        <v>0.8343878298152844</v>
       </c>
       <c r="D30">
-        <v>0.1713449648907186</v>
+        <v>0.1682158775325217</v>
       </c>
       <c r="E30">
-        <v>0.1678014043642222</v>
+        <v>0.1676106978209537</v>
       </c>
       <c r="F30">
-        <v>0.125575240448783</v>
+        <v>0.1339350669230028</v>
       </c>
       <c r="G30">
-        <v>0.1369087583082246</v>
+        <v>0.1304032420046482</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -9286,22 +9286,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.7163584619374379</v>
+        <v>0.7216048352726226</v>
       </c>
       <c r="C33">
-        <v>0.726653614273438</v>
+        <v>0.7221452582731964</v>
       </c>
       <c r="D33">
-        <v>0.2751048547074359</v>
+        <v>0.2713320224102262</v>
       </c>
       <c r="E33">
-        <v>0.2462947774332559</v>
+        <v>0.2415049755281801</v>
       </c>
       <c r="F33">
-        <v>0.3534885115916857</v>
+        <v>0.3750884639763047</v>
       </c>
       <c r="G33">
-        <v>0.4824200287892448</v>
+        <v>0.5110037384801187</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -9309,22 +9309,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.7725113785174949</v>
+        <v>0.7729461011793466</v>
       </c>
       <c r="C34">
-        <v>0.7674405745577753</v>
+        <v>0.7670996937057364</v>
       </c>
       <c r="D34">
-        <v>0.1070229895120647</v>
+        <v>0.1049003329917198</v>
       </c>
       <c r="E34">
-        <v>0.1056904148305841</v>
+        <v>0.1056226184714415</v>
       </c>
       <c r="F34">
-        <v>0.2727912427014754</v>
+        <v>0.2799971778463279</v>
       </c>
       <c r="G34">
-        <v>0.2805609333572353</v>
+        <v>0.2752568951873083</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -9355,22 +9355,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8408870631881331</v>
+        <v>0.844930648759618</v>
       </c>
       <c r="C36">
-        <v>0.8628689254962787</v>
+        <v>0.8395281154678981</v>
       </c>
       <c r="D36">
-        <v>0.3211240636191786</v>
+        <v>0.3132328143458593</v>
       </c>
       <c r="E36">
-        <v>0.2756943046940091</v>
+        <v>0.2673046280136979</v>
       </c>
       <c r="F36">
-        <v>0.2194258936619453</v>
+        <v>0.2853158029602435</v>
       </c>
       <c r="G36">
-        <v>0.504005891381582</v>
+        <v>0.5501053913512982</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -9378,22 +9378,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.8283254229734686</v>
+        <v>0.8327107507568272</v>
       </c>
       <c r="C37">
-        <v>0.8469732670365685</v>
+        <v>0.8273226724853115</v>
       </c>
       <c r="D37">
-        <v>0.3144474731652419</v>
+        <v>0.3070221922999909</v>
       </c>
       <c r="E37">
-        <v>0.2702468990339033</v>
+        <v>0.262239109842776</v>
       </c>
       <c r="F37">
-        <v>0.2380894879738843</v>
+        <v>0.296324356336932</v>
       </c>
       <c r="G37">
-        <v>0.5030821902874502</v>
+        <v>0.5477083492086211</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -9401,22 +9401,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8698168449311983</v>
+        <v>0.8720258742842321</v>
       </c>
       <c r="C38">
-        <v>0.8872251519567281</v>
+        <v>0.8648633888424299</v>
       </c>
       <c r="D38">
-        <v>0.2688996876908689</v>
+        <v>0.263238736766287</v>
       </c>
       <c r="E38">
-        <v>0.2348203440131126</v>
+        <v>0.2296216631001321</v>
       </c>
       <c r="F38">
-        <v>0.1820157624715618</v>
+        <v>0.2426514897421142</v>
       </c>
       <c r="G38">
-        <v>0.4227424022178289</v>
+        <v>0.4627796939524231</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -9424,22 +9424,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.8499621384236506</v>
+        <v>0.8535915675212596</v>
       </c>
       <c r="C39">
-        <v>0.8743141841248887</v>
+        <v>0.848915335699725</v>
       </c>
       <c r="D39">
-        <v>0.3130848573798959</v>
+        <v>0.305684908515063</v>
       </c>
       <c r="E39">
-        <v>0.2687074385236159</v>
+        <v>0.2607279551925365</v>
       </c>
       <c r="F39">
-        <v>0.2156193895715785</v>
+        <v>0.2814922407694485</v>
       </c>
       <c r="G39">
-        <v>0.497677031333035</v>
+        <v>0.5437309931350227</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -9447,22 +9447,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9557408907349942</v>
+        <v>0.9558689318966954</v>
       </c>
       <c r="C40">
-        <v>0.9291719856838252</v>
+        <v>0.9268382178801005</v>
       </c>
       <c r="D40">
-        <v>0.05242191893080121</v>
+        <v>0.04909710293152635</v>
       </c>
       <c r="E40">
-        <v>0.04935395029372732</v>
+        <v>0.04945020894333334</v>
       </c>
       <c r="F40">
-        <v>0.03580196384481558</v>
+        <v>0.0547359047695628</v>
       </c>
       <c r="G40">
-        <v>0.05564783058167459</v>
+        <v>0.04066150942276003</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -9470,22 +9470,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9249970984827637</v>
+        <v>0.9252050502029768</v>
       </c>
       <c r="C41">
-        <v>0.9066274422632704</v>
+        <v>0.9049844882752013</v>
       </c>
       <c r="D41">
-        <v>0.03660021914636272</v>
+        <v>0.03234338171155946</v>
       </c>
       <c r="E41">
-        <v>0.03322355844181979</v>
+        <v>0.03343839195346689</v>
       </c>
       <c r="F41">
-        <v>0.09429621761649165</v>
+        <v>0.1042725292787123</v>
       </c>
       <c r="G41">
-        <v>0.1046793927989877</v>
+        <v>0.09670231608805399</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -9493,22 +9493,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9404710565816832</v>
+        <v>0.9404583058769062</v>
       </c>
       <c r="C42">
-        <v>0.9293382755696104</v>
+        <v>0.9194308412573708</v>
       </c>
       <c r="D42">
-        <v>0.1248946837769235</v>
+        <v>0.122318977887616</v>
       </c>
       <c r="E42">
-        <v>0.1118891878724057</v>
+        <v>0.1113869161024572</v>
       </c>
       <c r="F42">
-        <v>0.08127339221248669</v>
+        <v>0.1178500659310442</v>
       </c>
       <c r="G42">
-        <v>0.2045233710421654</v>
+        <v>0.2266102843764771</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -9519,19 +9519,19 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0.9452938659930052</v>
+        <v>0.942216155276275</v>
       </c>
       <c r="D43">
-        <v>0.01651088529568628</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0.006480721558118199</v>
+        <v>0.007821848874776346</v>
       </c>
       <c r="F43">
-        <v>0.02555305386556565</v>
+        <v>0.04835142963228625</v>
       </c>
       <c r="G43">
-        <v>0.04873421891289208</v>
+        <v>0.03087337917916396</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -9585,22 +9585,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.8747660946794792</v>
+        <v>0.8765698478439954</v>
       </c>
       <c r="C46">
-        <v>0.8964406339566774</v>
+        <v>0.8746593342756094</v>
       </c>
       <c r="D46">
-        <v>0.2567391550407586</v>
+        <v>0.2532561250020222</v>
       </c>
       <c r="E46">
-        <v>0.2258907506721728</v>
+        <v>0.2213921083861861</v>
       </c>
       <c r="F46">
-        <v>0.2019500614207097</v>
+        <v>0.2517814757855617</v>
       </c>
       <c r="G46">
-        <v>0.4189523376539666</v>
+        <v>0.4609707348910863</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -9611,19 +9611,19 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0.95229681242279</v>
+        <v>0.9495950295803126</v>
       </c>
       <c r="D47">
-        <v>0.01445862353657368</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0.005681290301124722</v>
+        <v>0.006860730997356027</v>
       </c>
       <c r="F47">
-        <v>0.0859478186869549</v>
+        <v>0.09436854267163855</v>
       </c>
       <c r="G47">
-        <v>0.09467823263904175</v>
+        <v>0.08791673808024358</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -9631,22 +9631,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.858080848762489</v>
+        <v>0.8603661232522655</v>
       </c>
       <c r="C48">
-        <v>0.8709257019315724</v>
+        <v>0.8539935618419979</v>
       </c>
       <c r="D48">
-        <v>0.2557319861156861</v>
+        <v>0.2510823684125042</v>
       </c>
       <c r="E48">
-        <v>0.2249260654833032</v>
+        <v>0.2204862476276176</v>
       </c>
       <c r="F48">
-        <v>0.1992485177661545</v>
+        <v>0.2490465575466377</v>
       </c>
       <c r="G48">
-        <v>0.4096842081726439</v>
+        <v>0.4477948532478523</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -9654,22 +9654,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.8620169034933552</v>
+        <v>0.8627136425412639</v>
       </c>
       <c r="C49">
-        <v>0.8547378067918692</v>
+        <v>0.8511153539111113</v>
       </c>
       <c r="D49">
-        <v>0.1304419023980224</v>
+        <v>0.1280165303813999</v>
       </c>
       <c r="E49">
-        <v>0.119169182545016</v>
+        <v>0.1186638387524052</v>
       </c>
       <c r="F49">
-        <v>0.1746947142829705</v>
+        <v>0.1925896886329614</v>
       </c>
       <c r="G49">
-        <v>0.2433481456200598</v>
+        <v>0.2573155590499748</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -9677,22 +9677,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.816867049559945</v>
+        <v>0.8201179061255759</v>
       </c>
       <c r="C50">
-        <v>0.8244298929874655</v>
+        <v>0.8135738293163368</v>
       </c>
       <c r="D50">
-        <v>0.2593423287709773</v>
+        <v>0.2546258916984309</v>
       </c>
       <c r="E50">
-        <v>0.2289609162523097</v>
+        <v>0.2244609819672701</v>
       </c>
       <c r="F50">
-        <v>0.2416964565526179</v>
+        <v>0.2808941390370794</v>
       </c>
       <c r="G50">
-        <v>0.423600807283849</v>
+        <v>0.4583892255207857</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -9700,22 +9700,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.8890045066132273</v>
+        <v>0.8899744475064315</v>
       </c>
       <c r="C51">
-        <v>0.8927762741373388</v>
+        <v>0.8790886871420892</v>
       </c>
       <c r="D51">
-        <v>0.1996197827520216</v>
+        <v>0.1960542450237332</v>
       </c>
       <c r="E51">
-        <v>0.1779216104991737</v>
+        <v>0.1757835875525597</v>
       </c>
       <c r="F51">
-        <v>0.1503847461142124</v>
+        <v>0.1941687292205042</v>
       </c>
       <c r="G51">
-        <v>0.3205662803780874</v>
+        <v>0.3519004213783977</v>
       </c>
     </row>
   </sheetData>
@@ -9739,13 +9739,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -9802,19 +9802,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -9831,16 +9831,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9871,19 +9871,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -9917,19 +9917,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -9946,13 +9946,13 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -9963,19 +9963,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -9998,10 +9998,10 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -10032,19 +10032,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>6</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -10061,13 +10061,13 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>6</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -10078,19 +10078,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -10101,19 +10101,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -10124,19 +10124,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <v>6</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -10147,19 +10147,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -10176,16 +10176,16 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -10193,19 +10193,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -10216,19 +10216,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>6</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -10239,19 +10239,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -10262,19 +10262,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -10291,16 +10291,16 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -10314,16 +10314,16 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10331,19 +10331,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -10377,10 +10377,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -10412,10 +10412,10 @@
         <v>4</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -10498,16 +10498,16 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -10538,19 +10538,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -10561,19 +10561,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -10584,19 +10584,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>4</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -10607,19 +10607,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>4</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -10636,16 +10636,16 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -10659,16 +10659,16 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -10685,10 +10685,10 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -10705,16 +10705,16 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -10768,19 +10768,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>4</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -10797,16 +10797,16 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -10814,19 +10814,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>4</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -10860,19 +10860,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E50">
         <v>6</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -10883,19 +10883,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>4</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -10922,13 +10922,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -10985,22 +10985,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8389166165138354</v>
+        <v>0.8305763412747658</v>
       </c>
       <c r="C4">
-        <v>0.8449450733897832</v>
+        <v>0.7663768778507678</v>
       </c>
       <c r="D4">
-        <v>0.3354433853295836</v>
+        <v>0.3128958761180299</v>
       </c>
       <c r="E4">
-        <v>0.288153224604947</v>
+        <v>0.2671376108803203</v>
       </c>
       <c r="F4">
-        <v>0.236112569668924</v>
+        <v>0.296693477157115</v>
       </c>
       <c r="G4">
-        <v>0.5115604266896212</v>
+        <v>0.5557536046515951</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -11011,19 +11011,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9560030347745876</v>
+        <v>0.9540075791027128</v>
       </c>
       <c r="D5">
-        <v>0.007291688338287144</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.005643746707442589</v>
       </c>
       <c r="F5">
-        <v>0.05118204313706091</v>
+        <v>0.08284010918572307</v>
       </c>
       <c r="G5">
-        <v>0.08131423144378071</v>
+        <v>0.06563004094443031</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -11054,22 +11054,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7631679326097723</v>
+        <v>0.763505013705883</v>
       </c>
       <c r="C7">
-        <v>0.7591410334662237</v>
+        <v>0.7468998541431895</v>
       </c>
       <c r="D7">
-        <v>0.2100973371616638</v>
+        <v>0.2059537354418857</v>
       </c>
       <c r="E7">
-        <v>0.1958108639933343</v>
+        <v>0.1920274195419283</v>
       </c>
       <c r="F7">
-        <v>0.2756620077928171</v>
+        <v>0.2936883792319841</v>
       </c>
       <c r="G7">
-        <v>0.3620550282716046</v>
+        <v>0.3821554715861532</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11100,22 +11100,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6453323176935112</v>
+        <v>0.6493924369923459</v>
       </c>
       <c r="C9">
-        <v>0.6457764388292218</v>
+        <v>0.6302227991644789</v>
       </c>
       <c r="D9">
-        <v>0.3343318092782813</v>
+        <v>0.3192208195141274</v>
       </c>
       <c r="E9">
-        <v>0.3030914457863078</v>
+        <v>0.287362821389909</v>
       </c>
       <c r="F9">
-        <v>0.377997053261784</v>
+        <v>0.3946235064940871</v>
       </c>
       <c r="G9">
-        <v>0.5082193101054986</v>
+        <v>0.5364474022899133</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -11123,22 +11123,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7479607981613532</v>
+        <v>0.7487059617560675</v>
       </c>
       <c r="C10">
-        <v>0.7428603545808705</v>
+        <v>0.730156006461478</v>
       </c>
       <c r="D10">
-        <v>0.2251681212657509</v>
+        <v>0.2199080180814391</v>
       </c>
       <c r="E10">
-        <v>0.2092229551704601</v>
+        <v>0.2045294706815275</v>
       </c>
       <c r="F10">
-        <v>0.2719598901399469</v>
+        <v>0.292062329836101</v>
       </c>
       <c r="G10">
-        <v>0.366877600342862</v>
+        <v>0.3881649615985826</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -11146,22 +11146,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.808686458287968</v>
+        <v>0.8041401025987918</v>
       </c>
       <c r="C11">
-        <v>0.8110224929426025</v>
+        <v>0.7493911526260442</v>
       </c>
       <c r="D11">
-        <v>0.3450253033854663</v>
+        <v>0.3227438814639515</v>
       </c>
       <c r="E11">
-        <v>0.3001788559195678</v>
+        <v>0.2791042942425568</v>
       </c>
       <c r="F11">
-        <v>0.2482967370279354</v>
+        <v>0.302711581135284</v>
       </c>
       <c r="G11">
-        <v>0.5073452131231907</v>
+        <v>0.5505138401162598</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -11169,22 +11169,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9107680424970154</v>
+        <v>0.911201378204274</v>
       </c>
       <c r="C12">
-        <v>0.8991541252499464</v>
+        <v>0.8986690835333508</v>
       </c>
       <c r="D12">
-        <v>0.09251741630735007</v>
+        <v>0.09125214547159875</v>
       </c>
       <c r="E12">
-        <v>0.09166733802709379</v>
+        <v>0.09181783182387895</v>
       </c>
       <c r="F12">
-        <v>0.09144221431229375</v>
+        <v>0.1113816442244624</v>
       </c>
       <c r="G12">
-        <v>0.1105772639555334</v>
+        <v>0.09973411594299786</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -11215,22 +11215,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6453323176935112</v>
+        <v>0.6493924369923459</v>
       </c>
       <c r="C14">
-        <v>0.6457764388292218</v>
+        <v>0.6302227991644789</v>
       </c>
       <c r="D14">
-        <v>0.3343318092782813</v>
+        <v>0.3192208195141274</v>
       </c>
       <c r="E14">
-        <v>0.3030914457863078</v>
+        <v>0.287362821389909</v>
       </c>
       <c r="F14">
-        <v>0.377997053261784</v>
+        <v>0.3946235064940871</v>
       </c>
       <c r="G14">
-        <v>0.5082193101054986</v>
+        <v>0.5364474022899133</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -11238,22 +11238,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7479607981613532</v>
+        <v>0.7487059617560675</v>
       </c>
       <c r="C15">
-        <v>0.7428603545808705</v>
+        <v>0.730156006461478</v>
       </c>
       <c r="D15">
-        <v>0.2251681212657509</v>
+        <v>0.2199080180814391</v>
       </c>
       <c r="E15">
-        <v>0.2092229551704601</v>
+        <v>0.2045294706815275</v>
       </c>
       <c r="F15">
-        <v>0.2719598901399469</v>
+        <v>0.292062329836101</v>
       </c>
       <c r="G15">
-        <v>0.366877600342862</v>
+        <v>0.3881649615985826</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -11261,22 +11261,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8899118347405712</v>
+        <v>0.8848352836418135</v>
       </c>
       <c r="C16">
-        <v>0.8877567550863482</v>
+        <v>0.8488200025521894</v>
       </c>
       <c r="D16">
-        <v>0.1928737602676383</v>
+        <v>0.1887177882774249</v>
       </c>
       <c r="E16">
-        <v>0.1756165717782755</v>
+        <v>0.1718556027436886</v>
       </c>
       <c r="F16">
-        <v>0.1841859127903719</v>
+        <v>0.2193320082933023</v>
       </c>
       <c r="G16">
-        <v>0.3253939093320863</v>
+        <v>0.3548723606658161</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -11284,22 +11284,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8421254523017822</v>
+        <v>0.8365142782770736</v>
       </c>
       <c r="C17">
-        <v>0.8459312764338771</v>
+        <v>0.7927301999095829</v>
       </c>
       <c r="D17">
-        <v>0.2780400944133468</v>
+        <v>0.2672738644266027</v>
       </c>
       <c r="E17">
-        <v>0.2485926996451586</v>
+        <v>0.2369983062940401</v>
       </c>
       <c r="F17">
-        <v>0.2670408289476807</v>
+        <v>0.3043866833802074</v>
       </c>
       <c r="G17">
-        <v>0.4629196658519881</v>
+        <v>0.5019401702680224</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -11307,22 +11307,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7674879009026384</v>
+        <v>0.7677356180298053</v>
       </c>
       <c r="C18">
-        <v>0.7635146119387786</v>
+        <v>0.7507547127648739</v>
       </c>
       <c r="D18">
-        <v>0.2035611694595067</v>
+        <v>0.1995275553344548</v>
       </c>
       <c r="E18">
-        <v>0.1887217484162544</v>
+        <v>0.1850352586827076</v>
       </c>
       <c r="F18">
-        <v>0.2735965808852694</v>
+        <v>0.2919960705043471</v>
       </c>
       <c r="G18">
-        <v>0.3614704476338252</v>
+        <v>0.3818530023374716</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -11330,22 +11330,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9095629932203704</v>
+        <v>0.9025030073892079</v>
       </c>
       <c r="C19">
-        <v>0.9083601739889513</v>
+        <v>0.861006364424694</v>
       </c>
       <c r="D19">
-        <v>0.1842620976203346</v>
+        <v>0.1802928017779392</v>
       </c>
       <c r="E19">
-        <v>0.1659874228292609</v>
+        <v>0.1623943671351311</v>
       </c>
       <c r="F19">
-        <v>0.177825462886911</v>
+        <v>0.2148617480335357</v>
       </c>
       <c r="G19">
-        <v>0.3240421617148518</v>
+        <v>0.3541183414911186</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -11356,19 +11356,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.9614007348445432</v>
+        <v>0.9596090731818586</v>
       </c>
       <c r="D20">
-        <v>0.006422707430007855</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.00497802291590017</v>
       </c>
       <c r="F20">
-        <v>0.1455454260291701</v>
+        <v>0.1573195645590261</v>
       </c>
       <c r="G20">
-        <v>0.1571182991293699</v>
+        <v>0.1501585494763347</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -11376,22 +11376,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6928681931431673</v>
+        <v>0.6947188732588883</v>
       </c>
       <c r="C21">
-        <v>0.6938487202903914</v>
+        <v>0.6785275338325768</v>
       </c>
       <c r="D21">
-        <v>0.2783013982450631</v>
+        <v>0.2695663540814905</v>
       </c>
       <c r="E21">
-        <v>0.2547015617931962</v>
+        <v>0.2448853498922157</v>
       </c>
       <c r="F21">
-        <v>0.3654731633124741</v>
+        <v>0.380531988907542</v>
       </c>
       <c r="G21">
-        <v>0.4791992749364459</v>
+        <v>0.5059915275785716</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -11399,22 +11399,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6491461694860153</v>
+        <v>0.6531927836568183</v>
       </c>
       <c r="C22">
-        <v>0.6496683636633607</v>
+        <v>0.633347155549594</v>
       </c>
       <c r="D22">
-        <v>0.3273141041394023</v>
+        <v>0.3121028644559826</v>
       </c>
       <c r="E22">
-        <v>0.2948984214943631</v>
+        <v>0.2791656979668006</v>
       </c>
       <c r="F22">
-        <v>0.3770626738131139</v>
+        <v>0.3942201425855967</v>
       </c>
       <c r="G22">
-        <v>0.5108058366530126</v>
+        <v>0.5394690428757557</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -11422,22 +11422,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8685102629338857</v>
+        <v>0.8598870911134484</v>
       </c>
       <c r="C23">
-        <v>0.8751767015284894</v>
+        <v>0.8084094972748626</v>
       </c>
       <c r="D23">
-        <v>0.2679731976780143</v>
+        <v>0.2573666364295627</v>
       </c>
       <c r="E23">
-        <v>0.2369450868741212</v>
+        <v>0.2255915770784137</v>
       </c>
       <c r="F23">
-        <v>0.2599787047450495</v>
+        <v>0.3000841169031788</v>
       </c>
       <c r="G23">
-        <v>0.4646077624585439</v>
+        <v>0.5044862975348078</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -11445,22 +11445,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9019641867536925</v>
+        <v>0.8946102531136098</v>
       </c>
       <c r="C24">
-        <v>0.9000272064949008</v>
+        <v>0.849138492765112</v>
       </c>
       <c r="D24">
-        <v>0.1996822997569619</v>
+        <v>0.1944273487510044</v>
       </c>
       <c r="E24">
-        <v>0.1792058779647956</v>
+        <v>0.1746016536905193</v>
       </c>
       <c r="F24">
-        <v>0.1482677209968468</v>
+        <v>0.1979977367580544</v>
       </c>
       <c r="G24">
-        <v>0.3258496887599208</v>
+        <v>0.3588037841261708</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -11468,22 +11468,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7507643327620064</v>
+        <v>0.7514855242321752</v>
       </c>
       <c r="C25">
-        <v>0.7457726748200623</v>
+        <v>0.7460783846073556</v>
       </c>
       <c r="D25">
-        <v>0.1326721249048786</v>
+        <v>0.1315775314268959</v>
       </c>
       <c r="E25">
-        <v>0.1320043957757978</v>
+        <v>0.1320788135236671</v>
       </c>
       <c r="F25">
-        <v>0.283585664333862</v>
+        <v>0.2903636532760718</v>
       </c>
       <c r="G25">
-        <v>0.2907670659825423</v>
+        <v>0.2860745801738867</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -11491,22 +11491,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.7287865266217046</v>
+        <v>0.7297427673293216</v>
       </c>
       <c r="C26">
-        <v>0.7223522111310315</v>
+        <v>0.7227981942617416</v>
       </c>
       <c r="D26">
-        <v>0.1460021719072971</v>
+        <v>0.1445489481196442</v>
       </c>
       <c r="E26">
-        <v>0.145124178122818</v>
+        <v>0.1452099638295649</v>
       </c>
       <c r="F26">
-        <v>0.2798216030319365</v>
+        <v>0.2875475366256617</v>
       </c>
       <c r="G26">
-        <v>0.2879987132662532</v>
+        <v>0.2826576463334605</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -11514,22 +11514,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.752354198532727</v>
+        <v>0.7530076505949033</v>
       </c>
       <c r="C27">
-        <v>0.7473019466193738</v>
+        <v>0.7340425889165204</v>
       </c>
       <c r="D27">
-        <v>0.218397013538064</v>
+        <v>0.2132540082297888</v>
       </c>
       <c r="E27">
-        <v>0.2018567821403989</v>
+        <v>0.1972695515809015</v>
       </c>
       <c r="F27">
-        <v>0.269589034183337</v>
+        <v>0.2901599292486011</v>
       </c>
       <c r="G27">
-        <v>0.36630401714856</v>
+        <v>0.3879093877102338</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -11560,22 +11560,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7529623590883427</v>
+        <v>0.7530179445577513</v>
       </c>
       <c r="C29">
-        <v>0.751225041259956</v>
+        <v>0.712628223256168</v>
       </c>
       <c r="D29">
-        <v>0.3673960060878689</v>
+        <v>0.3461596164718028</v>
       </c>
       <c r="E29">
-        <v>0.3281094376792494</v>
+        <v>0.3073326752142604</v>
       </c>
       <c r="F29">
-        <v>0.2755047883362751</v>
+        <v>0.3172948111502946</v>
       </c>
       <c r="G29">
-        <v>0.4966116886616903</v>
+        <v>0.5369561727683849</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -11583,22 +11583,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8386924927247026</v>
+        <v>0.8393879206802958</v>
       </c>
       <c r="C30">
-        <v>0.8294223865415143</v>
+        <v>0.8295173544787038</v>
       </c>
       <c r="D30">
-        <v>0.1668013741202195</v>
+        <v>0.1650254149913567</v>
       </c>
       <c r="E30">
-        <v>0.1656901968398697</v>
+        <v>0.1657770273800917</v>
       </c>
       <c r="F30">
-        <v>0.1487456839418282</v>
+        <v>0.1612913306994407</v>
       </c>
       <c r="G30">
-        <v>0.1611690994767743</v>
+        <v>0.1537140920128993</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -11652,22 +11652,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.5490225316933964</v>
+        <v>0.5527400292641841</v>
       </c>
       <c r="C33">
-        <v>0.5585865359934707</v>
+        <v>0.5536888485503352</v>
       </c>
       <c r="D33">
-        <v>0.3189106716405988</v>
+        <v>0.3112106457766932</v>
       </c>
       <c r="E33">
-        <v>0.3022166043970002</v>
+        <v>0.2932773583636551</v>
       </c>
       <c r="F33">
-        <v>0.4535871537205228</v>
+        <v>0.4587952151698554</v>
       </c>
       <c r="G33">
-        <v>0.510173364786667</v>
+        <v>0.5241509630338993</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -11675,22 +11675,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.6065687541914072</v>
+        <v>0.6074472022024313</v>
       </c>
       <c r="C34">
-        <v>0.60789858841844</v>
+        <v>0.6083465023045577</v>
       </c>
       <c r="D34">
-        <v>0.2220760289909766</v>
+        <v>0.2207247652378674</v>
       </c>
       <c r="E34">
-        <v>0.2212856467249803</v>
+        <v>0.2213319334153189</v>
       </c>
       <c r="F34">
-        <v>0.3938655230779732</v>
+        <v>0.3988138404716605</v>
       </c>
       <c r="G34">
-        <v>0.3992876992996551</v>
+        <v>0.3956417259071451</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -11721,22 +11721,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8303548203573435</v>
+        <v>0.8232086096249891</v>
       </c>
       <c r="C36">
-        <v>0.8351855418255482</v>
+        <v>0.7618107191291243</v>
       </c>
       <c r="D36">
-        <v>0.3379671762990114</v>
+        <v>0.3154797441050372</v>
       </c>
       <c r="E36">
-        <v>0.291326910167189</v>
+        <v>0.2702854773274624</v>
       </c>
       <c r="F36">
-        <v>0.2393581010775403</v>
+        <v>0.298264906820256</v>
       </c>
       <c r="G36">
-        <v>0.5104716229309276</v>
+        <v>0.5544045158376</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -11744,22 +11744,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.7492861543811175</v>
+        <v>0.7495753180254096</v>
       </c>
       <c r="C37">
-        <v>0.7487806934234865</v>
+        <v>0.7097573216088613</v>
       </c>
       <c r="D37">
-        <v>0.3327622144603387</v>
+        <v>0.3126415201652034</v>
       </c>
       <c r="E37">
-        <v>0.2903428548154717</v>
+        <v>0.2709490137041657</v>
       </c>
       <c r="F37">
-        <v>0.2983767256043388</v>
+        <v>0.3355755359678972</v>
       </c>
       <c r="G37">
-        <v>0.5112932122630558</v>
+        <v>0.5502061480906194</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -11767,22 +11767,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8656337395279123</v>
+        <v>0.8572089840910276</v>
       </c>
       <c r="C38">
-        <v>0.8686796651946501</v>
+        <v>0.8009636355541103</v>
       </c>
       <c r="D38">
-        <v>0.274847270518377</v>
+        <v>0.2623165059748497</v>
       </c>
       <c r="E38">
-        <v>0.2419001050008423</v>
+        <v>0.2298033898736101</v>
       </c>
       <c r="F38">
-        <v>0.1980261582458208</v>
+        <v>0.2552114368082717</v>
       </c>
       <c r="G38">
-        <v>0.4290423730117257</v>
+        <v>0.4688201525228956</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -11790,22 +11790,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.8482571903112905</v>
+        <v>0.8397025934737496</v>
       </c>
       <c r="C39">
-        <v>0.8546271680723966</v>
+        <v>0.7796680239461955</v>
       </c>
       <c r="D39">
-        <v>0.3131856784442346</v>
+        <v>0.2952388407254511</v>
       </c>
       <c r="E39">
-        <v>0.2719130249264471</v>
+        <v>0.2543894369029449</v>
       </c>
       <c r="F39">
-        <v>0.2440719898344215</v>
+        <v>0.2977594015841256</v>
       </c>
       <c r="G39">
-        <v>0.4969950240279264</v>
+        <v>0.540067694610733</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -11813,22 +11813,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9530877536663306</v>
+        <v>0.9533283708433461</v>
       </c>
       <c r="C40">
-        <v>0.9354557462179416</v>
+        <v>0.9342765158462851</v>
       </c>
       <c r="D40">
-        <v>0.04905119517468397</v>
+        <v>0.04799355784725009</v>
       </c>
       <c r="E40">
-        <v>0.0482245193975537</v>
+        <v>0.0485219876068665</v>
       </c>
       <c r="F40">
-        <v>0.06438437804750301</v>
+        <v>0.09119470797033902</v>
       </c>
       <c r="G40">
-        <v>0.08992371163357681</v>
+        <v>0.07612808196390135</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -11836,22 +11836,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.8375855511401566</v>
+        <v>0.8382995031373689</v>
       </c>
       <c r="C41">
-        <v>0.8288323800453437</v>
+        <v>0.8289320924221181</v>
       </c>
       <c r="D41">
-        <v>0.08318661768484728</v>
+        <v>0.08202146083347131</v>
       </c>
       <c r="E41">
-        <v>0.08241362535264991</v>
+        <v>0.0825763874680093</v>
       </c>
       <c r="F41">
-        <v>0.1736807443383305</v>
+        <v>0.1850182476875748</v>
       </c>
       <c r="G41">
-        <v>0.1850220104863876</v>
+        <v>0.1780418909982801</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -11859,22 +11859,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9413076559880443</v>
+        <v>0.9363105722638467</v>
       </c>
       <c r="C42">
-        <v>0.931000539895262</v>
+        <v>0.9013869230693757</v>
       </c>
       <c r="D42">
-        <v>0.1213924280319212</v>
+        <v>0.1195862857993091</v>
       </c>
       <c r="E42">
-        <v>0.1098948000631325</v>
+        <v>0.1090672348015419</v>
       </c>
       <c r="F42">
-        <v>0.09764627160961303</v>
+        <v>0.1373931276323671</v>
       </c>
       <c r="G42">
-        <v>0.2146195380759935</v>
+        <v>0.2359684346032286</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -11885,19 +11885,19 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0.9575649888584161</v>
+        <v>0.9556268670509493</v>
       </c>
       <c r="D43">
-        <v>0.007041741782148756</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.005452562534374778</v>
       </c>
       <c r="F43">
-        <v>0.09154712184763263</v>
+        <v>0.1110593175003994</v>
       </c>
       <c r="G43">
-        <v>0.1102414252447398</v>
+        <v>0.09962506812396098</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -11951,22 +11951,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9061129516092828</v>
+        <v>0.8986131575144237</v>
       </c>
       <c r="C46">
-        <v>0.9120538386666657</v>
+        <v>0.8618706796041509</v>
       </c>
       <c r="D46">
-        <v>0.1904250619137453</v>
+        <v>0.1872561922029763</v>
       </c>
       <c r="E46">
-        <v>0.1719964527620683</v>
+        <v>0.1679101709627309</v>
       </c>
       <c r="F46">
-        <v>0.2841253258026608</v>
+        <v>0.3041503758318061</v>
       </c>
       <c r="G46">
-        <v>0.4034252263771828</v>
+        <v>0.4338209529853104</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -11977,19 +11977,19 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0.9702691933342686</v>
+        <v>0.9688440218120046</v>
       </c>
       <c r="D47">
-        <v>0.004967649849887458</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.003857456742511224</v>
       </c>
       <c r="F47">
-        <v>0.2179377063080752</v>
+        <v>0.224195756851593</v>
       </c>
       <c r="G47">
-        <v>0.224349185469845</v>
+        <v>0.2202976578643119</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -11997,22 +11997,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.8113775579469037</v>
+        <v>0.8092119939019474</v>
       </c>
       <c r="C48">
-        <v>0.8108815010184146</v>
+        <v>0.7789242303972119</v>
       </c>
       <c r="D48">
-        <v>0.2404654133266701</v>
+        <v>0.2332124203504208</v>
       </c>
       <c r="E48">
-        <v>0.216648826297428</v>
+        <v>0.2090148162525184</v>
       </c>
       <c r="F48">
-        <v>0.2669979046440942</v>
+        <v>0.2961656839502752</v>
       </c>
       <c r="G48">
-        <v>0.4172134584066979</v>
+        <v>0.449481105406053</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -12020,22 +12020,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.7413429855998273</v>
+        <v>0.7422093597795603</v>
       </c>
       <c r="C49">
-        <v>0.7356672241705677</v>
+        <v>0.7321501589899779</v>
       </c>
       <c r="D49">
-        <v>0.1690640950307868</v>
+        <v>0.1668968285334592</v>
       </c>
       <c r="E49">
-        <v>0.1624302914178724</v>
+        <v>0.1613375945513954</v>
       </c>
       <c r="F49">
-        <v>0.2777855552022025</v>
+        <v>0.2890632662304825</v>
       </c>
       <c r="G49">
-        <v>0.3155797424673693</v>
+        <v>0.3218993969647767</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -12043,22 +12043,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6969957787673127</v>
+        <v>0.6989828503058459</v>
       </c>
       <c r="C50">
-        <v>0.6951568152554407</v>
+        <v>0.6800706252566684</v>
       </c>
       <c r="D50">
-        <v>0.2743527184416087</v>
+        <v>0.2653248871034298</v>
       </c>
       <c r="E50">
-        <v>0.2509688477888202</v>
+        <v>0.2416274206628057</v>
       </c>
       <c r="F50">
-        <v>0.3352388090601821</v>
+        <v>0.3537049623552423</v>
       </c>
       <c r="G50">
-        <v>0.4492657809403762</v>
+        <v>0.4747396320842588</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -12066,22 +12066,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.8411455339985697</v>
+        <v>0.8387981941868894</v>
       </c>
       <c r="C51">
-        <v>0.8371152798183386</v>
+        <v>0.8092522527522107</v>
       </c>
       <c r="D51">
-        <v>0.2008986615106187</v>
+        <v>0.1960121526404206</v>
       </c>
       <c r="E51">
-        <v>0.1822041863997325</v>
+        <v>0.1778646418501272</v>
       </c>
       <c r="F51">
-        <v>0.2000608805755231</v>
+        <v>0.2333454310164205</v>
       </c>
       <c r="G51">
-        <v>0.3374315474131732</v>
+        <v>0.3660248995594141</v>
       </c>
     </row>
   </sheetData>
@@ -12105,13 +12105,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -12168,19 +12168,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -12197,16 +12197,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -12283,10 +12283,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -12329,19 +12329,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -12358,16 +12358,16 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -12398,10 +12398,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -12450,13 +12450,13 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>6</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -12467,19 +12467,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>6</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -12519,13 +12519,13 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>6</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -12542,16 +12542,16 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -12559,10 +12559,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -12582,10 +12582,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -12605,19 +12605,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>6</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -12634,13 +12634,13 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -12657,16 +12657,16 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -12680,16 +12680,16 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -12752,10 +12752,10 @@
         <v>4</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -12772,16 +12772,16 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -12864,16 +12864,16 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -12904,19 +12904,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -12933,13 +12933,13 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37">
         <v>6</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -12950,19 +12950,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>4</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -12973,19 +12973,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -13002,16 +13002,16 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -13025,16 +13025,16 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -13048,13 +13048,13 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -13071,16 +13071,16 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -13134,10 +13134,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -13163,16 +13163,16 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -13255,13 +13255,13 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E51">
         <v>6</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G51">
         <v>3</v>
